--- a/Running projects/Saifee Hospital Cardiac wing/Revised BOQ.xlsx
+++ b/Running projects/Saifee Hospital Cardiac wing/Revised BOQ.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\Saifee Hospital Cardiac wing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{846F5906-4D7C-439F-8817-D8D78126A607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9914E25B-30F6-41A1-804B-90E9588D7617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -691,14 +691,20 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="15"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -708,12 +714,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -998,8 +998,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="G114" sqref="G114"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1022,33 +1022,33 @@
       <c r="A1" s="8"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17" t="s">
+      <c r="F2" s="16"/>
+      <c r="G2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
     </row>
     <row r="3" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="19"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
+      <c r="A3" s="21"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
       <c r="E3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1066,19 +1066,19 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="1:9" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="111.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>1</v>
       </c>
@@ -1110,7 +1110,7 @@
         <v>172000</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
       <c r="B6" s="5" t="s">
         <v>104</v>
@@ -1140,7 +1140,7 @@
         <v>234600</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>3</v>
       </c>
@@ -1172,7 +1172,7 @@
         <v>5405</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>4</v>
       </c>
@@ -1220,7 +1220,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="22">
+      <c r="A10" s="15">
         <v>5</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -1235,7 +1235,7 @@
       <c r="I10" s="5"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="22"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="5" t="s">
         <v>15</v>
       </c>
@@ -1264,7 +1264,7 @@
         <v>43500</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="141" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>6</v>
       </c>
@@ -1296,7 +1296,7 @@
         <v>17250</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>7</v>
       </c>
@@ -1407,7 +1407,7 @@
         <v>216200</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>9</v>
       </c>
@@ -1422,7 +1422,7 @@
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
     </row>
-    <row r="18" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>12</v>
       </c>
@@ -1487,14 +1487,14 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
       <c r="G20" s="12">
         <f t="shared" ref="G20:H20" si="17">SUM(G5:G19)</f>
         <v>3415880</v>
@@ -1509,10 +1509,10 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="21"/>
+      <c r="B21" s="17"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="5"/>
@@ -1521,7 +1521,7 @@
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
     </row>
-    <row r="22" spans="1:9" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>1</v>
       </c>
@@ -1645,7 +1645,7 @@
         <v>4510000</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>5</v>
       </c>
@@ -1773,7 +1773,7 @@
         <v>352800</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>9</v>
       </c>
@@ -1965,7 +1965,7 @@
         <v>1206400</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>15</v>
       </c>
@@ -1997,7 +1997,7 @@
         <v>1170000</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>16</v>
       </c>
@@ -2044,7 +2044,7 @@
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
     </row>
-    <row r="39" spans="1:9" ht="244.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="195.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>43</v>
       </c>
@@ -2633,7 +2633,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
         <v>18</v>
       </c>
@@ -3116,7 +3116,7 @@
         <v>240000</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="111.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="6">
         <v>23</v>
       </c>
@@ -3275,14 +3275,14 @@
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="17" t="s">
+      <c r="A82" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="B82" s="17"/>
-      <c r="C82" s="17"/>
-      <c r="D82" s="17"/>
-      <c r="E82" s="17"/>
-      <c r="F82" s="17"/>
+      <c r="B82" s="16"/>
+      <c r="C82" s="16"/>
+      <c r="D82" s="16"/>
+      <c r="E82" s="16"/>
+      <c r="F82" s="16"/>
       <c r="G82" s="12">
         <f t="shared" ref="G82:H82" si="60">SUM(G22:G81)</f>
         <v>25050960</v>
@@ -3297,11 +3297,11 @@
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="21" t="s">
+      <c r="A83" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="B83" s="21"/>
-      <c r="C83" s="21"/>
+      <c r="B83" s="17"/>
+      <c r="C83" s="17"/>
       <c r="D83" s="6"/>
       <c r="E83" s="5"/>
       <c r="F83" s="5"/>
@@ -3341,7 +3341,7 @@
         <v>69000</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="6">
         <v>2</v>
       </c>
@@ -3769,14 +3769,14 @@
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A100" s="20" t="s">
+      <c r="A100" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="B100" s="20"/>
-      <c r="C100" s="20"/>
-      <c r="D100" s="20"/>
-      <c r="E100" s="16"/>
-      <c r="F100" s="16"/>
+      <c r="B100" s="22"/>
+      <c r="C100" s="22"/>
+      <c r="D100" s="22"/>
+      <c r="E100" s="19"/>
+      <c r="F100" s="19"/>
       <c r="G100" s="12">
         <f t="shared" ref="G100:H100" si="73">SUM(G84:G99)</f>
         <v>1805290</v>
@@ -3791,11 +3791,11 @@
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A101" s="21" t="s">
+      <c r="A101" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="B101" s="21"/>
-      <c r="C101" s="21"/>
+      <c r="B101" s="17"/>
+      <c r="C101" s="17"/>
       <c r="D101" s="6"/>
       <c r="E101" s="5"/>
       <c r="F101" s="5"/>
@@ -3803,7 +3803,7 @@
       <c r="H101" s="5"/>
       <c r="I101" s="5"/>
     </row>
-    <row r="102" spans="1:12" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A102" s="6">
         <v>1</v>
       </c>
@@ -3899,7 +3899,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="105" spans="1:12" ht="63" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A105" s="6">
         <v>4</v>
       </c>
@@ -3964,14 +3964,14 @@
       </c>
     </row>
     <row r="107" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="15" t="s">
+      <c r="A107" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="B107" s="15"/>
-      <c r="C107" s="15"/>
-      <c r="D107" s="15"/>
-      <c r="E107" s="16"/>
-      <c r="F107" s="16"/>
+      <c r="B107" s="18"/>
+      <c r="C107" s="18"/>
+      <c r="D107" s="18"/>
+      <c r="E107" s="19"/>
+      <c r="F107" s="19"/>
       <c r="G107" s="12">
         <f t="shared" ref="G107:H107" si="77">SUM(G102:G106)</f>
         <v>622000</v>
@@ -3986,14 +3986,14 @@
       </c>
     </row>
     <row r="108" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="15" t="s">
+      <c r="A108" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="B108" s="15"/>
-      <c r="C108" s="15"/>
-      <c r="D108" s="15"/>
-      <c r="E108" s="16"/>
-      <c r="F108" s="16"/>
+      <c r="B108" s="18"/>
+      <c r="C108" s="18"/>
+      <c r="D108" s="18"/>
+      <c r="E108" s="19"/>
+      <c r="F108" s="19"/>
       <c r="G108" s="12">
         <f>G107+G100+G82+G20</f>
         <v>30894130</v>
@@ -4009,14 +4009,14 @@
       <c r="L108" s="13"/>
     </row>
     <row r="109" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="15" t="s">
+      <c r="A109" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="B109" s="15"/>
-      <c r="C109" s="15"/>
-      <c r="D109" s="15"/>
-      <c r="E109" s="16"/>
-      <c r="F109" s="16"/>
+      <c r="B109" s="18"/>
+      <c r="C109" s="18"/>
+      <c r="D109" s="18"/>
+      <c r="E109" s="19"/>
+      <c r="F109" s="19"/>
       <c r="G109" s="12"/>
       <c r="H109" s="12">
         <f>H108*13%</f>
@@ -4029,14 +4029,14 @@
       <c r="L109" s="13"/>
     </row>
     <row r="110" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="15" t="s">
+      <c r="A110" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="B110" s="15"/>
-      <c r="C110" s="15"/>
-      <c r="D110" s="15"/>
-      <c r="E110" s="16"/>
-      <c r="F110" s="16"/>
+      <c r="B110" s="18"/>
+      <c r="C110" s="18"/>
+      <c r="D110" s="18"/>
+      <c r="E110" s="19"/>
+      <c r="F110" s="19"/>
       <c r="G110" s="12">
         <f>G109+G108</f>
         <v>30894130</v>
@@ -4052,14 +4052,14 @@
       <c r="L110" s="13"/>
     </row>
     <row r="111" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="15" t="s">
+      <c r="A111" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="B111" s="15"/>
-      <c r="C111" s="15"/>
-      <c r="D111" s="15"/>
-      <c r="E111" s="16"/>
-      <c r="F111" s="16"/>
+      <c r="B111" s="18"/>
+      <c r="C111" s="18"/>
+      <c r="D111" s="18"/>
+      <c r="E111" s="19"/>
+      <c r="F111" s="19"/>
       <c r="G111" s="12"/>
       <c r="H111" s="12"/>
       <c r="I111" s="12">
@@ -4069,14 +4069,14 @@
       <c r="L111" s="13"/>
     </row>
     <row r="112" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="15" t="s">
+      <c r="A112" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="B112" s="15"/>
-      <c r="C112" s="15"/>
-      <c r="D112" s="15"/>
-      <c r="E112" s="16"/>
-      <c r="F112" s="16"/>
+      <c r="B112" s="18"/>
+      <c r="C112" s="18"/>
+      <c r="D112" s="18"/>
+      <c r="E112" s="19"/>
+      <c r="F112" s="19"/>
       <c r="G112" s="12"/>
       <c r="H112" s="12"/>
       <c r="I112" s="12">
@@ -4099,11 +4099,12 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A111:D111"/>
+    <mergeCell ref="E111:F111"/>
+    <mergeCell ref="A112:D112"/>
+    <mergeCell ref="E112:F112"/>
+    <mergeCell ref="A110:D110"/>
+    <mergeCell ref="E110:F110"/>
     <mergeCell ref="A109:D109"/>
     <mergeCell ref="E109:F109"/>
     <mergeCell ref="A108:D108"/>
@@ -4120,12 +4121,11 @@
     <mergeCell ref="A82:F82"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A20:F20"/>
-    <mergeCell ref="A111:D111"/>
-    <mergeCell ref="E111:F111"/>
-    <mergeCell ref="A112:D112"/>
-    <mergeCell ref="E112:F112"/>
-    <mergeCell ref="A110:D110"/>
-    <mergeCell ref="E110:F110"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="A4:D4"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/Running projects/Saifee Hospital Cardiac wing/Revised BOQ.xlsx
+++ b/Running projects/Saifee Hospital Cardiac wing/Revised BOQ.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\Saifee Hospital Cardiac wing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9914E25B-30F6-41A1-804B-90E9588D7617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0656394-7962-449D-97A8-4021068E3AC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="actual" sheetId="1" r:id="rId1"/>
+    <sheet name="Anaylysis" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$2:$3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">actual!$2:$3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">Anaylysis!$2:$2</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="125">
   <si>
     <t>DESCRIPTION</t>
   </si>
@@ -512,6 +514,42 @@
   </si>
   <si>
     <t>GRAND TOTAL AFTER SST + INCOME TAX</t>
+  </si>
+  <si>
+    <t>BOQ Item #</t>
+  </si>
+  <si>
+    <t>Qty</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Basic Rate</t>
+  </si>
+  <si>
+    <t>Fittings 30%</t>
+  </si>
+  <si>
+    <t>Hangers &amp; supports 25%</t>
+  </si>
+  <si>
+    <t>Painting 15%</t>
+  </si>
+  <si>
+    <t>Wastage 5%</t>
+  </si>
+  <si>
+    <t>Total Mateial Rate</t>
+  </si>
+  <si>
+    <t>Labour Rates</t>
+  </si>
+  <si>
+    <t>Total Cost</t>
+  </si>
+  <si>
+    <t>Transps 10%</t>
   </si>
 </sst>
 </file>
@@ -651,7 +689,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -691,20 +729,17 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="15"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -714,6 +749,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -998,8 +1039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="B120" sqref="B120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1022,33 +1063,33 @@
       <c r="A1" s="8"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16" t="s">
+      <c r="F2" s="18"/>
+      <c r="G2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
     </row>
     <row r="3" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="21"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
+      <c r="A3" s="20"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
       <c r="E3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1066,12 +1107,12 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
@@ -1220,7 +1261,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="15">
+      <c r="A10" s="23">
         <v>5</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -1235,7 +1276,7 @@
       <c r="I10" s="5"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
+      <c r="A11" s="23"/>
       <c r="B11" s="5" t="s">
         <v>15</v>
       </c>
@@ -1487,14 +1528,14 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
       <c r="G20" s="12">
         <f t="shared" ref="G20:H20" si="17">SUM(G5:G19)</f>
         <v>3415880</v>
@@ -1509,10 +1550,10 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="17"/>
+      <c r="B21" s="22"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="5"/>
@@ -3275,14 +3316,14 @@
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="16" t="s">
+      <c r="A82" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="B82" s="16"/>
-      <c r="C82" s="16"/>
-      <c r="D82" s="16"/>
-      <c r="E82" s="16"/>
-      <c r="F82" s="16"/>
+      <c r="B82" s="18"/>
+      <c r="C82" s="18"/>
+      <c r="D82" s="18"/>
+      <c r="E82" s="18"/>
+      <c r="F82" s="18"/>
       <c r="G82" s="12">
         <f t="shared" ref="G82:H82" si="60">SUM(G22:G81)</f>
         <v>25050960</v>
@@ -3297,11 +3338,11 @@
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="17" t="s">
+      <c r="A83" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="B83" s="17"/>
-      <c r="C83" s="17"/>
+      <c r="B83" s="22"/>
+      <c r="C83" s="22"/>
       <c r="D83" s="6"/>
       <c r="E83" s="5"/>
       <c r="F83" s="5"/>
@@ -3403,7 +3444,7 @@
         <v>40250</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="6">
         <v>4</v>
       </c>
@@ -3769,14 +3810,14 @@
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A100" s="22" t="s">
+      <c r="A100" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="B100" s="22"/>
-      <c r="C100" s="22"/>
-      <c r="D100" s="22"/>
-      <c r="E100" s="19"/>
-      <c r="F100" s="19"/>
+      <c r="B100" s="21"/>
+      <c r="C100" s="21"/>
+      <c r="D100" s="21"/>
+      <c r="E100" s="17"/>
+      <c r="F100" s="17"/>
       <c r="G100" s="12">
         <f t="shared" ref="G100:H100" si="73">SUM(G84:G99)</f>
         <v>1805290</v>
@@ -3791,11 +3832,11 @@
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A101" s="17" t="s">
+      <c r="A101" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="B101" s="17"/>
-      <c r="C101" s="17"/>
+      <c r="B101" s="22"/>
+      <c r="C101" s="22"/>
       <c r="D101" s="6"/>
       <c r="E101" s="5"/>
       <c r="F101" s="5"/>
@@ -3964,14 +4005,14 @@
       </c>
     </row>
     <row r="107" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="18" t="s">
+      <c r="A107" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="B107" s="18"/>
-      <c r="C107" s="18"/>
-      <c r="D107" s="18"/>
-      <c r="E107" s="19"/>
-      <c r="F107" s="19"/>
+      <c r="B107" s="16"/>
+      <c r="C107" s="16"/>
+      <c r="D107" s="16"/>
+      <c r="E107" s="17"/>
+      <c r="F107" s="17"/>
       <c r="G107" s="12">
         <f t="shared" ref="G107:H107" si="77">SUM(G102:G106)</f>
         <v>622000</v>
@@ -3986,14 +4027,14 @@
       </c>
     </row>
     <row r="108" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="18" t="s">
+      <c r="A108" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="B108" s="18"/>
-      <c r="C108" s="18"/>
-      <c r="D108" s="18"/>
-      <c r="E108" s="19"/>
-      <c r="F108" s="19"/>
+      <c r="B108" s="16"/>
+      <c r="C108" s="16"/>
+      <c r="D108" s="16"/>
+      <c r="E108" s="17"/>
+      <c r="F108" s="17"/>
       <c r="G108" s="12">
         <f>G107+G100+G82+G20</f>
         <v>30894130</v>
@@ -4009,14 +4050,14 @@
       <c r="L108" s="13"/>
     </row>
     <row r="109" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="18" t="s">
+      <c r="A109" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="B109" s="18"/>
-      <c r="C109" s="18"/>
-      <c r="D109" s="18"/>
-      <c r="E109" s="19"/>
-      <c r="F109" s="19"/>
+      <c r="B109" s="16"/>
+      <c r="C109" s="16"/>
+      <c r="D109" s="16"/>
+      <c r="E109" s="17"/>
+      <c r="F109" s="17"/>
       <c r="G109" s="12"/>
       <c r="H109" s="12">
         <f>H108*13%</f>
@@ -4029,14 +4070,14 @@
       <c r="L109" s="13"/>
     </row>
     <row r="110" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="18" t="s">
+      <c r="A110" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="B110" s="18"/>
-      <c r="C110" s="18"/>
-      <c r="D110" s="18"/>
-      <c r="E110" s="19"/>
-      <c r="F110" s="19"/>
+      <c r="B110" s="16"/>
+      <c r="C110" s="16"/>
+      <c r="D110" s="16"/>
+      <c r="E110" s="17"/>
+      <c r="F110" s="17"/>
       <c r="G110" s="12">
         <f>G109+G108</f>
         <v>30894130</v>
@@ -4052,14 +4093,14 @@
       <c r="L110" s="13"/>
     </row>
     <row r="111" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="18" t="s">
+      <c r="A111" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="B111" s="18"/>
-      <c r="C111" s="18"/>
-      <c r="D111" s="18"/>
-      <c r="E111" s="19"/>
-      <c r="F111" s="19"/>
+      <c r="B111" s="16"/>
+      <c r="C111" s="16"/>
+      <c r="D111" s="16"/>
+      <c r="E111" s="17"/>
+      <c r="F111" s="17"/>
       <c r="G111" s="12"/>
       <c r="H111" s="12"/>
       <c r="I111" s="12">
@@ -4069,14 +4110,14 @@
       <c r="L111" s="13"/>
     </row>
     <row r="112" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="18" t="s">
+      <c r="A112" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="B112" s="18"/>
-      <c r="C112" s="18"/>
-      <c r="D112" s="18"/>
-      <c r="E112" s="19"/>
-      <c r="F112" s="19"/>
+      <c r="B112" s="16"/>
+      <c r="C112" s="16"/>
+      <c r="D112" s="16"/>
+      <c r="E112" s="17"/>
+      <c r="F112" s="17"/>
       <c r="G112" s="12"/>
       <c r="H112" s="12"/>
       <c r="I112" s="12">
@@ -4099,12 +4140,11 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A111:D111"/>
-    <mergeCell ref="E111:F111"/>
-    <mergeCell ref="A112:D112"/>
-    <mergeCell ref="E112:F112"/>
-    <mergeCell ref="A110:D110"/>
-    <mergeCell ref="E110:F110"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="A4:D4"/>
     <mergeCell ref="A109:D109"/>
     <mergeCell ref="E109:F109"/>
     <mergeCell ref="A108:D108"/>
@@ -4121,11 +4161,2832 @@
     <mergeCell ref="A82:F82"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A20:F20"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A111:D111"/>
+    <mergeCell ref="E111:F111"/>
+    <mergeCell ref="A112:D112"/>
+    <mergeCell ref="E112:F112"/>
+    <mergeCell ref="A110:D110"/>
+    <mergeCell ref="E110:F110"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0" right="0" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97ECFA02-E1E8-4B0F-8768-FDCE7C2D2661}">
+  <dimension ref="A1:Q115"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.42578125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="45.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8" style="9" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" style="9" customWidth="1"/>
+    <col min="5" max="5" width="11" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" style="1" customWidth="1"/>
+    <col min="7" max="8" width="12" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" customWidth="1"/>
+    <col min="12" max="13" width="11.42578125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.42578125" style="1" customWidth="1"/>
+    <col min="15" max="16" width="9.140625" style="1"/>
+    <col min="17" max="17" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="8"/>
+    </row>
+    <row r="2" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+    </row>
+    <row r="4" spans="1:14" ht="111.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="6">
+        <v>1</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="10">
+        <v>305</v>
+      </c>
+      <c r="F4" s="10">
+        <f>E4*30%</f>
+        <v>91.5</v>
+      </c>
+      <c r="G4" s="10">
+        <f>E4*25%</f>
+        <v>76.25</v>
+      </c>
+      <c r="H4" s="10">
+        <f>E4*15%</f>
+        <v>45.75</v>
+      </c>
+      <c r="I4" s="10">
+        <f>E4*5%</f>
+        <v>15.25</v>
+      </c>
+      <c r="J4" s="10">
+        <f>E4*10%</f>
+        <v>30.5</v>
+      </c>
+      <c r="K4" s="10">
+        <f>SUM(E4:J4)</f>
+        <v>564.25</v>
+      </c>
+      <c r="L4" s="10">
+        <f>I4+H4+G4+F4+E4</f>
+        <v>533.75</v>
+      </c>
+      <c r="M4" s="10">
+        <v>172000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
+      <c r="B5" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" s="11">
+        <v>12</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="10">
+        <v>0</v>
+      </c>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10">
+        <v>19550</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="10">
+        <v>0</v>
+      </c>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10">
+        <v>5405</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>4</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="6">
+        <v>12</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="10">
+        <v>0</v>
+      </c>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10">
+        <v>5175</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="23">
+        <v>5</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="23"/>
+      <c r="B10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="6">
+        <v>2</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="10">
+        <v>17250</v>
+      </c>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>6</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="6">
+        <v>1</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="10">
+        <v>0</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10">
+        <v>17250</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>7</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="6">
+        <v>360</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="10">
+        <v>4313</v>
+      </c>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="6">
+        <v>350</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="10">
+        <v>1932</v>
+      </c>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <v>8</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="6">
+        <v>1</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="10">
+        <v>195500</v>
+      </c>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10">
+        <v>20700</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>9</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+    </row>
+    <row r="17" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="6">
+        <v>22</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="10">
+        <v>16500</v>
+      </c>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="6">
+        <v>22</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="10">
+        <v>27000</v>
+      </c>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="22"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+    </row>
+    <row r="21" spans="1:14" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <v>1</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" s="6">
+        <v>2</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10">
+        <v>17250</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
+        <v>2</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="6">
+        <v>5</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="10">
+        <v>90000</v>
+      </c>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10">
+        <v>11500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="63" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
+        <v>3</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23" s="6">
+        <v>5</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10">
+        <v>17250</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
+        <v>4</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="6">
+        <v>82</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="10">
+        <v>49000</v>
+      </c>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
+        <v>5</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="6">
+        <v>2</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="10">
+        <v>87000</v>
+      </c>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
+        <v>6</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="6">
+        <v>102</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="10">
+        <v>19000</v>
+      </c>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A27" s="6">
+        <v>7</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="6">
+        <v>2</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="10">
+        <v>17500</v>
+      </c>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A28" s="6">
+        <v>8</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="6">
+        <v>168</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="10">
+        <v>1800</v>
+      </c>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="6">
+        <v>9</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="6">
+        <v>54</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" s="10">
+        <v>6500</v>
+      </c>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A30" s="6">
+        <v>10</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="6">
+        <v>170</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="10">
+        <v>1800</v>
+      </c>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A31" s="6">
+        <v>11</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="6">
+        <v>104</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" s="10">
+        <v>3500</v>
+      </c>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="6">
+        <v>12</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="6">
+        <v>84</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" s="10">
+        <v>3900</v>
+      </c>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="6">
+        <v>13</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="6">
+        <v>104</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E33" s="10">
+        <v>5200</v>
+      </c>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="6">
+        <v>14</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="6">
+        <v>104</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E34" s="10">
+        <v>9900</v>
+      </c>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="6">
+        <v>15</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="6">
+        <v>100</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E35" s="10">
+        <v>10500</v>
+      </c>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="6">
+        <v>16</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" s="6">
+        <v>100</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E36" s="10">
+        <v>18900</v>
+      </c>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="6">
+        <v>17</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+    </row>
+    <row r="38" spans="1:13" ht="195.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" s="6">
+        <v>1100</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E39" s="10">
+        <v>950</v>
+      </c>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40" s="6">
+        <v>300</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E40" s="10">
+        <v>815</v>
+      </c>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C41" s="6">
+        <v>400</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E41" s="10">
+        <v>550</v>
+      </c>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42" s="6">
+        <v>1000</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E42" s="10">
+        <v>280</v>
+      </c>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C43" s="6">
+        <v>1200</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E43" s="10">
+        <v>184</v>
+      </c>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="10"/>
+      <c r="M43" s="10">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C44" s="6">
+        <v>1300</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E44" s="10">
+        <v>167</v>
+      </c>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="10"/>
+      <c r="M44" s="10">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
+      <c r="M45" s="5"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C46" s="6">
+        <v>12</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E46" s="14">
+        <v>45000</v>
+      </c>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="14"/>
+      <c r="J46" s="14"/>
+      <c r="K46" s="14"/>
+      <c r="L46" s="14"/>
+      <c r="M46" s="10">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C47" s="6">
+        <v>12</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47" s="14">
+        <v>32200</v>
+      </c>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="14"/>
+      <c r="J47" s="14"/>
+      <c r="K47" s="14"/>
+      <c r="L47" s="14"/>
+      <c r="M47" s="10">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48" s="6">
+        <v>16</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" s="14">
+        <v>16600</v>
+      </c>
+      <c r="F48" s="14"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="14"/>
+      <c r="J48" s="14"/>
+      <c r="K48" s="14"/>
+      <c r="L48" s="14"/>
+      <c r="M48" s="10">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C49" s="6">
+        <v>18</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E49" s="14">
+        <v>12020</v>
+      </c>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="14"/>
+      <c r="J49" s="14"/>
+      <c r="K49" s="14"/>
+      <c r="L49" s="14"/>
+      <c r="M49" s="10">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C50" s="6">
+        <v>12</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E50" s="14">
+        <v>7200</v>
+      </c>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="14"/>
+      <c r="J50" s="14"/>
+      <c r="K50" s="14"/>
+      <c r="L50" s="14"/>
+      <c r="M50" s="10">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5"/>
+      <c r="L51" s="5"/>
+      <c r="M51" s="5"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C52" s="6">
+        <v>12</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E52" s="10">
+        <v>4800</v>
+      </c>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="10"/>
+      <c r="K52" s="10"/>
+      <c r="L52" s="10"/>
+      <c r="M52" s="10">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C53" s="6">
+        <v>6</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" s="10">
+        <v>23000</v>
+      </c>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="10"/>
+      <c r="K53" s="10"/>
+      <c r="L53" s="10"/>
+      <c r="M53" s="10">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C54" s="6">
+        <v>4</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" s="10">
+        <v>17500</v>
+      </c>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10"/>
+      <c r="I54" s="10"/>
+      <c r="J54" s="10"/>
+      <c r="K54" s="10"/>
+      <c r="L54" s="10"/>
+      <c r="M54" s="10">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C55" s="6">
+        <v>5</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E55" s="10">
+        <v>17500</v>
+      </c>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="10"/>
+      <c r="I55" s="10"/>
+      <c r="J55" s="10"/>
+      <c r="K55" s="10"/>
+      <c r="L55" s="10"/>
+      <c r="M55" s="10">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C56" s="6">
+        <v>2</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E56" s="10">
+        <v>23000</v>
+      </c>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="10"/>
+      <c r="I56" s="10"/>
+      <c r="J56" s="10"/>
+      <c r="K56" s="10"/>
+      <c r="L56" s="10"/>
+      <c r="M56" s="10">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C57" s="6">
+        <v>2</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E57" s="10">
+        <v>23000</v>
+      </c>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="10"/>
+      <c r="I57" s="10"/>
+      <c r="J57" s="10"/>
+      <c r="K57" s="10"/>
+      <c r="L57" s="10"/>
+      <c r="M57" s="10">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="6">
+        <v>18</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="5"/>
+      <c r="K58" s="5"/>
+      <c r="L58" s="5"/>
+      <c r="M58" s="5"/>
+    </row>
+    <row r="59" spans="1:13" ht="162.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="5"/>
+      <c r="J59" s="5"/>
+      <c r="K59" s="5"/>
+      <c r="L59" s="5"/>
+      <c r="M59" s="5"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C60" s="6">
+        <v>169</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E60" s="10">
+        <v>3950</v>
+      </c>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="10"/>
+      <c r="I60" s="10"/>
+      <c r="J60" s="10"/>
+      <c r="K60" s="10"/>
+      <c r="L60" s="10"/>
+      <c r="M60" s="10">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A61" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C61" s="6">
+        <v>260</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E61" s="10">
+        <v>2070</v>
+      </c>
+      <c r="F61" s="10"/>
+      <c r="G61" s="10"/>
+      <c r="H61" s="10"/>
+      <c r="I61" s="10"/>
+      <c r="J61" s="10"/>
+      <c r="K61" s="10"/>
+      <c r="L61" s="10"/>
+      <c r="M61" s="10">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A62" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C62" s="6">
+        <v>2100</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E62" s="10">
+        <v>1139</v>
+      </c>
+      <c r="F62" s="10"/>
+      <c r="G62" s="10"/>
+      <c r="H62" s="10"/>
+      <c r="I62" s="10"/>
+      <c r="J62" s="10"/>
+      <c r="K62" s="10"/>
+      <c r="L62" s="10"/>
+      <c r="M62" s="10">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A63" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C63" s="6">
+        <v>2300</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E63" s="10">
+        <v>782</v>
+      </c>
+      <c r="F63" s="10"/>
+      <c r="G63" s="10"/>
+      <c r="H63" s="10"/>
+      <c r="I63" s="10"/>
+      <c r="J63" s="10"/>
+      <c r="K63" s="10"/>
+      <c r="L63" s="10"/>
+      <c r="M63" s="10">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A64" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C64" s="6">
+        <v>2000</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E64" s="10">
+        <v>357</v>
+      </c>
+      <c r="F64" s="10"/>
+      <c r="G64" s="10"/>
+      <c r="H64" s="10"/>
+      <c r="I64" s="10"/>
+      <c r="J64" s="10"/>
+      <c r="K64" s="10"/>
+      <c r="L64" s="10"/>
+      <c r="M64" s="10">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="6">
+        <v>19</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C65" s="6"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="5"/>
+      <c r="J65" s="5"/>
+      <c r="K65" s="5"/>
+      <c r="L65" s="5"/>
+      <c r="M65" s="5"/>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A66" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C66" s="6">
+        <v>4</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E66" s="10">
+        <v>15000</v>
+      </c>
+      <c r="F66" s="10"/>
+      <c r="G66" s="10"/>
+      <c r="H66" s="10"/>
+      <c r="I66" s="10"/>
+      <c r="J66" s="10"/>
+      <c r="K66" s="10"/>
+      <c r="L66" s="10"/>
+      <c r="M66" s="10">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A67" s="6">
+        <v>20</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="10"/>
+      <c r="G67" s="10"/>
+      <c r="H67" s="10"/>
+      <c r="I67" s="10"/>
+      <c r="J67" s="10"/>
+      <c r="K67" s="10"/>
+      <c r="L67" s="10"/>
+      <c r="M67" s="10"/>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A68" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C68" s="6">
+        <v>180</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E68" s="10">
+        <v>6500</v>
+      </c>
+      <c r="F68" s="10"/>
+      <c r="G68" s="10"/>
+      <c r="H68" s="10"/>
+      <c r="I68" s="10"/>
+      <c r="J68" s="10"/>
+      <c r="K68" s="10"/>
+      <c r="L68" s="10"/>
+      <c r="M68" s="10">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="6">
+        <v>21</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="5"/>
+      <c r="I69" s="5"/>
+      <c r="J69" s="5"/>
+      <c r="K69" s="5"/>
+      <c r="L69" s="5"/>
+      <c r="M69" s="5"/>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A70" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C70" s="6">
+        <v>2</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E70" s="10">
+        <v>2300</v>
+      </c>
+      <c r="F70" s="10"/>
+      <c r="G70" s="10"/>
+      <c r="H70" s="10"/>
+      <c r="I70" s="10"/>
+      <c r="J70" s="10"/>
+      <c r="K70" s="10"/>
+      <c r="L70" s="10"/>
+      <c r="M70" s="10">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A71" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C71" s="6">
+        <v>2</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E71" s="10">
+        <v>2070</v>
+      </c>
+      <c r="F71" s="10"/>
+      <c r="G71" s="10"/>
+      <c r="H71" s="10"/>
+      <c r="I71" s="10"/>
+      <c r="J71" s="10"/>
+      <c r="K71" s="10"/>
+      <c r="L71" s="10"/>
+      <c r="M71" s="10">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A72" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C72" s="6">
+        <v>2</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E72" s="10">
+        <v>1955</v>
+      </c>
+      <c r="F72" s="10"/>
+      <c r="G72" s="10"/>
+      <c r="H72" s="10"/>
+      <c r="I72" s="10"/>
+      <c r="J72" s="10"/>
+      <c r="K72" s="10"/>
+      <c r="L72" s="10"/>
+      <c r="M72" s="10">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A73" s="6">
+        <v>22</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="5"/>
+      <c r="H73" s="5"/>
+      <c r="I73" s="5"/>
+      <c r="J73" s="5"/>
+      <c r="K73" s="5"/>
+      <c r="L73" s="5"/>
+      <c r="M73" s="5"/>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A74" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C74" s="6">
+        <v>20</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E74" s="10">
+        <v>4000</v>
+      </c>
+      <c r="F74" s="10"/>
+      <c r="G74" s="10"/>
+      <c r="H74" s="10"/>
+      <c r="I74" s="10"/>
+      <c r="J74" s="10"/>
+      <c r="K74" s="10"/>
+      <c r="L74" s="10"/>
+      <c r="M74" s="10">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A75" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C75" s="6">
+        <v>60</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E75" s="10">
+        <v>3000</v>
+      </c>
+      <c r="F75" s="10"/>
+      <c r="G75" s="10"/>
+      <c r="H75" s="10"/>
+      <c r="I75" s="10"/>
+      <c r="J75" s="10"/>
+      <c r="K75" s="10"/>
+      <c r="L75" s="10"/>
+      <c r="M75" s="10">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="6">
+        <v>23</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C76" s="6">
+        <v>1</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E76" s="10">
+        <v>0</v>
+      </c>
+      <c r="F76" s="10"/>
+      <c r="G76" s="10"/>
+      <c r="H76" s="10"/>
+      <c r="I76" s="10"/>
+      <c r="J76" s="10"/>
+      <c r="K76" s="10"/>
+      <c r="L76" s="10"/>
+      <c r="M76" s="10">
+        <v>28750</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A77" s="6">
+        <v>24</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C77" s="6">
+        <v>4</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E77" s="10">
+        <v>51750</v>
+      </c>
+      <c r="F77" s="10"/>
+      <c r="G77" s="10"/>
+      <c r="H77" s="10"/>
+      <c r="I77" s="10"/>
+      <c r="J77" s="10"/>
+      <c r="K77" s="10"/>
+      <c r="L77" s="10"/>
+      <c r="M77" s="10">
+        <v>8050</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A78" s="6">
+        <v>25</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C78" s="6">
+        <v>2</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E78" s="10">
+        <v>43700</v>
+      </c>
+      <c r="F78" s="10"/>
+      <c r="G78" s="10"/>
+      <c r="H78" s="10"/>
+      <c r="I78" s="10"/>
+      <c r="J78" s="10"/>
+      <c r="K78" s="10"/>
+      <c r="L78" s="10"/>
+      <c r="M78" s="10">
+        <v>8050</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A79" s="6">
+        <v>26</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C79" s="6">
+        <v>1</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E79" s="10"/>
+      <c r="F79" s="10"/>
+      <c r="G79" s="10"/>
+      <c r="H79" s="10"/>
+      <c r="I79" s="10"/>
+      <c r="J79" s="10"/>
+      <c r="K79" s="10"/>
+      <c r="L79" s="10"/>
+      <c r="M79" s="10">
+        <v>17250</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A80" s="6">
+        <v>27</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C80" s="6">
+        <v>1</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E80" s="10">
+        <v>200000</v>
+      </c>
+      <c r="F80" s="10"/>
+      <c r="G80" s="10"/>
+      <c r="H80" s="10"/>
+      <c r="I80" s="10"/>
+      <c r="J80" s="10"/>
+      <c r="K80" s="10"/>
+      <c r="L80" s="10"/>
+      <c r="M80" s="10">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A81" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="B81" s="18"/>
+      <c r="C81" s="18"/>
+      <c r="D81" s="18"/>
+      <c r="E81" s="18"/>
+      <c r="F81" s="18"/>
+      <c r="G81" s="18"/>
+      <c r="H81" s="18"/>
+      <c r="I81" s="18"/>
+      <c r="J81" s="18"/>
+      <c r="K81" s="18"/>
+      <c r="L81" s="18"/>
+      <c r="M81" s="18"/>
+      <c r="N81" s="18"/>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A82" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="B82" s="22"/>
+      <c r="C82" s="22"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="5"/>
+      <c r="G82" s="5"/>
+      <c r="H82" s="5"/>
+      <c r="I82" s="5"/>
+      <c r="J82" s="5"/>
+      <c r="K82" s="5"/>
+      <c r="L82" s="5"/>
+      <c r="M82" s="5"/>
+      <c r="N82" s="5"/>
+    </row>
+    <row r="83" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A83" s="6">
+        <v>1</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C83" s="6">
+        <v>1</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E83" s="10">
+        <v>0</v>
+      </c>
+      <c r="F83" s="10"/>
+      <c r="G83" s="10"/>
+      <c r="H83" s="10"/>
+      <c r="I83" s="10"/>
+      <c r="J83" s="10"/>
+      <c r="K83" s="10"/>
+      <c r="L83" s="10"/>
+      <c r="M83" s="10">
+        <v>69000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="6">
+        <v>2</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C84" s="6">
+        <v>3</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E84" s="10">
+        <v>155250</v>
+      </c>
+      <c r="F84" s="10"/>
+      <c r="G84" s="10"/>
+      <c r="H84" s="10"/>
+      <c r="I84" s="10"/>
+      <c r="J84" s="10"/>
+      <c r="K84" s="10"/>
+      <c r="L84" s="10"/>
+      <c r="M84" s="10">
+        <v>13800</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" ht="126" x14ac:dyDescent="0.25">
+      <c r="A85" s="6">
+        <v>3</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C85" s="6">
+        <v>1</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E85" s="10"/>
+      <c r="F85" s="10"/>
+      <c r="G85" s="10"/>
+      <c r="H85" s="10"/>
+      <c r="I85" s="10"/>
+      <c r="J85" s="10"/>
+      <c r="K85" s="10"/>
+      <c r="L85" s="10"/>
+      <c r="M85" s="10">
+        <v>40250</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A86" s="6">
+        <v>4</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C86" s="6"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="5"/>
+      <c r="F86" s="5"/>
+      <c r="G86" s="5"/>
+      <c r="H86" s="5"/>
+      <c r="I86" s="5"/>
+      <c r="J86" s="5"/>
+      <c r="K86" s="5"/>
+      <c r="L86" s="5"/>
+      <c r="M86" s="5"/>
+    </row>
+    <row r="87" spans="1:14" ht="178.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C87" s="6"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="5"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="5"/>
+      <c r="H87" s="5"/>
+      <c r="I87" s="5"/>
+      <c r="J87" s="5"/>
+      <c r="K87" s="5"/>
+      <c r="L87" s="5"/>
+      <c r="M87" s="5"/>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A88" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C88" s="6">
+        <v>330</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E88" s="10">
+        <v>950</v>
+      </c>
+      <c r="F88" s="10"/>
+      <c r="G88" s="10"/>
+      <c r="H88" s="10"/>
+      <c r="I88" s="10"/>
+      <c r="J88" s="10"/>
+      <c r="K88" s="10"/>
+      <c r="L88" s="10"/>
+      <c r="M88" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A89" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C89" s="6">
+        <v>200</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E89" s="10">
+        <v>815</v>
+      </c>
+      <c r="F89" s="10"/>
+      <c r="G89" s="10"/>
+      <c r="H89" s="10"/>
+      <c r="I89" s="10"/>
+      <c r="J89" s="10"/>
+      <c r="K89" s="10"/>
+      <c r="L89" s="10"/>
+      <c r="M89" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A90" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C90" s="6">
+        <v>420</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E90" s="10">
+        <v>550</v>
+      </c>
+      <c r="F90" s="10"/>
+      <c r="G90" s="10"/>
+      <c r="H90" s="10"/>
+      <c r="I90" s="10"/>
+      <c r="J90" s="10"/>
+      <c r="K90" s="10"/>
+      <c r="L90" s="10"/>
+      <c r="M90" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A91" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C91" s="6">
+        <v>320</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E91" s="10">
+        <v>280</v>
+      </c>
+      <c r="F91" s="10"/>
+      <c r="G91" s="10"/>
+      <c r="H91" s="10"/>
+      <c r="I91" s="10"/>
+      <c r="J91" s="10"/>
+      <c r="K91" s="10"/>
+      <c r="L91" s="10"/>
+      <c r="M91" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A92" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C92" s="6">
+        <v>260</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E92" s="10">
+        <v>184</v>
+      </c>
+      <c r="F92" s="10"/>
+      <c r="G92" s="10"/>
+      <c r="H92" s="10"/>
+      <c r="I92" s="10"/>
+      <c r="J92" s="10"/>
+      <c r="K92" s="10"/>
+      <c r="L92" s="10"/>
+      <c r="M92" s="10">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A93" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C93" s="6">
+        <v>800</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E93" s="10">
+        <v>167</v>
+      </c>
+      <c r="F93" s="10"/>
+      <c r="G93" s="10"/>
+      <c r="H93" s="10"/>
+      <c r="I93" s="10"/>
+      <c r="J93" s="10"/>
+      <c r="K93" s="10"/>
+      <c r="L93" s="10"/>
+      <c r="M93" s="10">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A94" s="6">
+        <v>5</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C94" s="6"/>
+      <c r="D94" s="6"/>
+      <c r="E94" s="5"/>
+      <c r="F94" s="5"/>
+      <c r="G94" s="5"/>
+      <c r="H94" s="5"/>
+      <c r="I94" s="5"/>
+      <c r="J94" s="5"/>
+      <c r="K94" s="5"/>
+      <c r="L94" s="5"/>
+      <c r="M94" s="5"/>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A95" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C95" s="6">
+        <v>4</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E95" s="10">
+        <v>38000</v>
+      </c>
+      <c r="F95" s="10"/>
+      <c r="G95" s="10"/>
+      <c r="H95" s="10"/>
+      <c r="I95" s="10"/>
+      <c r="J95" s="10"/>
+      <c r="K95" s="10"/>
+      <c r="L95" s="10"/>
+      <c r="M95" s="10">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A96" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C96" s="6">
+        <v>13</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E96" s="10">
+        <v>9000</v>
+      </c>
+      <c r="F96" s="10"/>
+      <c r="G96" s="10"/>
+      <c r="H96" s="10"/>
+      <c r="I96" s="10"/>
+      <c r="J96" s="10"/>
+      <c r="K96" s="10"/>
+      <c r="L96" s="10"/>
+      <c r="M96" s="10">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A97" s="6">
+        <v>6</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C97" s="6">
+        <v>2</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E97" s="10">
+        <v>23000</v>
+      </c>
+      <c r="F97" s="10"/>
+      <c r="G97" s="10"/>
+      <c r="H97" s="10"/>
+      <c r="I97" s="10"/>
+      <c r="J97" s="10"/>
+      <c r="K97" s="10"/>
+      <c r="L97" s="10"/>
+      <c r="M97" s="10">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A98" s="6">
+        <v>7</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C98" s="6">
+        <v>2</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E98" s="10">
+        <v>23000</v>
+      </c>
+      <c r="F98" s="10"/>
+      <c r="G98" s="10"/>
+      <c r="H98" s="10"/>
+      <c r="I98" s="10"/>
+      <c r="J98" s="10"/>
+      <c r="K98" s="10"/>
+      <c r="L98" s="10"/>
+      <c r="M98" s="10">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A99" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="B99" s="21"/>
+      <c r="C99" s="21"/>
+      <c r="D99" s="21"/>
+      <c r="E99" s="17"/>
+      <c r="F99" s="17"/>
+      <c r="G99" s="17"/>
+      <c r="H99" s="17"/>
+      <c r="I99" s="17"/>
+      <c r="J99" s="17"/>
+      <c r="K99" s="17"/>
+      <c r="L99" s="17"/>
+      <c r="M99" s="17"/>
+      <c r="N99" s="17"/>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A100" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="B100" s="22"/>
+      <c r="C100" s="22"/>
+      <c r="D100" s="6"/>
+      <c r="E100" s="5"/>
+      <c r="F100" s="5"/>
+      <c r="G100" s="5"/>
+      <c r="H100" s="5"/>
+      <c r="I100" s="5"/>
+      <c r="J100" s="5"/>
+      <c r="K100" s="5"/>
+      <c r="L100" s="5"/>
+      <c r="M100" s="5"/>
+      <c r="N100" s="5"/>
+    </row>
+    <row r="101" spans="1:17" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A101" s="6">
+        <v>1</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C101" s="6">
+        <v>1</v>
+      </c>
+      <c r="D101" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E101" s="10">
+        <v>132000</v>
+      </c>
+      <c r="F101" s="10"/>
+      <c r="G101" s="10"/>
+      <c r="H101" s="10"/>
+      <c r="I101" s="10"/>
+      <c r="J101" s="10"/>
+      <c r="K101" s="10"/>
+      <c r="L101" s="10"/>
+      <c r="M101" s="10">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="6">
+        <v>2</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C102" s="6">
+        <v>1</v>
+      </c>
+      <c r="D102" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E102" s="10">
+        <v>300000</v>
+      </c>
+      <c r="F102" s="10"/>
+      <c r="G102" s="10"/>
+      <c r="H102" s="10"/>
+      <c r="I102" s="10"/>
+      <c r="J102" s="10"/>
+      <c r="K102" s="10"/>
+      <c r="L102" s="10"/>
+      <c r="M102" s="10">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" ht="63" x14ac:dyDescent="0.25">
+      <c r="A103" s="6">
+        <v>3</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C103" s="6">
+        <v>4</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E103" s="10">
+        <v>10000</v>
+      </c>
+      <c r="F103" s="10"/>
+      <c r="G103" s="10"/>
+      <c r="H103" s="10"/>
+      <c r="I103" s="10"/>
+      <c r="J103" s="10"/>
+      <c r="K103" s="10"/>
+      <c r="L103" s="10"/>
+      <c r="M103" s="10">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A104" s="6">
+        <v>4</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C104" s="6">
+        <v>1</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E104" s="10">
+        <v>150000</v>
+      </c>
+      <c r="F104" s="10"/>
+      <c r="G104" s="10"/>
+      <c r="H104" s="10"/>
+      <c r="I104" s="10"/>
+      <c r="J104" s="10"/>
+      <c r="K104" s="10"/>
+      <c r="L104" s="10"/>
+      <c r="M104" s="10">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A105" s="6">
+        <v>5</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C105" s="6">
+        <v>1</v>
+      </c>
+      <c r="D105" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E105" s="10">
+        <v>0</v>
+      </c>
+      <c r="F105" s="10"/>
+      <c r="G105" s="10"/>
+      <c r="H105" s="10"/>
+      <c r="I105" s="10"/>
+      <c r="J105" s="10"/>
+      <c r="K105" s="10"/>
+      <c r="L105" s="10"/>
+      <c r="M105" s="10">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="B106" s="16"/>
+      <c r="C106" s="16"/>
+      <c r="D106" s="16"/>
+      <c r="E106" s="17"/>
+      <c r="F106" s="17"/>
+      <c r="G106" s="17"/>
+      <c r="H106" s="17"/>
+      <c r="I106" s="17"/>
+      <c r="J106" s="17"/>
+      <c r="K106" s="17"/>
+      <c r="L106" s="17"/>
+      <c r="M106" s="17"/>
+      <c r="N106" s="17"/>
+    </row>
+    <row r="107" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="B107" s="16"/>
+      <c r="C107" s="16"/>
+      <c r="D107" s="16"/>
+      <c r="E107" s="17"/>
+      <c r="F107" s="17"/>
+      <c r="G107" s="17"/>
+      <c r="H107" s="17"/>
+      <c r="I107" s="17"/>
+      <c r="J107" s="17"/>
+      <c r="K107" s="17"/>
+      <c r="L107" s="17"/>
+      <c r="M107" s="17"/>
+      <c r="N107" s="17"/>
+      <c r="Q107" s="13"/>
+    </row>
+    <row r="108" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="B108" s="16"/>
+      <c r="C108" s="16"/>
+      <c r="D108" s="16"/>
+      <c r="E108" s="17"/>
+      <c r="F108" s="17"/>
+      <c r="G108" s="17"/>
+      <c r="H108" s="17"/>
+      <c r="I108" s="17"/>
+      <c r="J108" s="17"/>
+      <c r="K108" s="17"/>
+      <c r="L108" s="17"/>
+      <c r="M108" s="17"/>
+      <c r="N108" s="17"/>
+      <c r="Q108" s="13"/>
+    </row>
+    <row r="109" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="B109" s="16"/>
+      <c r="C109" s="16"/>
+      <c r="D109" s="16"/>
+      <c r="E109" s="17"/>
+      <c r="F109" s="17"/>
+      <c r="G109" s="17"/>
+      <c r="H109" s="17"/>
+      <c r="I109" s="17"/>
+      <c r="J109" s="17"/>
+      <c r="K109" s="17"/>
+      <c r="L109" s="17"/>
+      <c r="M109" s="17"/>
+      <c r="N109" s="17"/>
+      <c r="Q109" s="13"/>
+    </row>
+    <row r="110" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="B110" s="16"/>
+      <c r="C110" s="16"/>
+      <c r="D110" s="16"/>
+      <c r="E110" s="17"/>
+      <c r="F110" s="17"/>
+      <c r="G110" s="17"/>
+      <c r="H110" s="17"/>
+      <c r="I110" s="17"/>
+      <c r="J110" s="17"/>
+      <c r="K110" s="17"/>
+      <c r="L110" s="17"/>
+      <c r="M110" s="17"/>
+      <c r="N110" s="17"/>
+      <c r="Q110" s="13"/>
+    </row>
+    <row r="111" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="B111" s="16"/>
+      <c r="C111" s="16"/>
+      <c r="D111" s="16"/>
+      <c r="E111" s="17"/>
+      <c r="F111" s="17"/>
+      <c r="G111" s="17"/>
+      <c r="H111" s="17"/>
+      <c r="I111" s="17"/>
+      <c r="J111" s="17"/>
+      <c r="K111" s="17"/>
+      <c r="L111" s="17"/>
+      <c r="M111" s="17"/>
+      <c r="N111" s="17"/>
+      <c r="Q111" s="13"/>
+    </row>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A112" s="8"/>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="8"/>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" s="8"/>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="A111:D111"/>
+    <mergeCell ref="E111:N111"/>
+    <mergeCell ref="A108:D108"/>
+    <mergeCell ref="E108:N108"/>
+    <mergeCell ref="A109:D109"/>
+    <mergeCell ref="E109:N109"/>
+    <mergeCell ref="A110:D110"/>
+    <mergeCell ref="E110:N110"/>
+    <mergeCell ref="A99:D99"/>
+    <mergeCell ref="E99:N99"/>
+    <mergeCell ref="A100:C100"/>
+    <mergeCell ref="A106:D106"/>
+    <mergeCell ref="E106:N106"/>
+    <mergeCell ref="A107:D107"/>
+    <mergeCell ref="E107:N107"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A19:N19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A81:N81"/>
+    <mergeCell ref="A82:C82"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/Running projects/Saifee Hospital Cardiac wing/Revised BOQ.xlsx
+++ b/Running projects/Saifee Hospital Cardiac wing/Revised BOQ.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\Saifee Hospital Cardiac wing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0656394-7962-449D-97A8-4021068E3AC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C2C01E0-9B20-481F-9760-B350C9FF7272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="actual" sheetId="1" r:id="rId1"/>
-    <sheet name="Anaylysis" sheetId="3" r:id="rId2"/>
+    <sheet name="RA" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">actual!$2:$3</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">Anaylysis!$2:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">RA!$2:$2</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="125">
   <si>
     <t>DESCRIPTION</t>
   </si>
@@ -528,28 +528,29 @@
     <t>Basic Rate</t>
   </si>
   <si>
-    <t>Fittings 30%</t>
-  </si>
-  <si>
-    <t>Hangers &amp; supports 25%</t>
-  </si>
-  <si>
-    <t>Painting 15%</t>
-  </si>
-  <si>
-    <t>Wastage 5%</t>
-  </si>
-  <si>
     <t>Total Mateial Rate</t>
   </si>
   <si>
     <t>Labour Rates</t>
   </si>
   <si>
-    <t>Total Cost</t>
-  </si>
-  <si>
-    <t>Transps 10%</t>
+    <t xml:space="preserve">Fittings </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hangers &amp; supports </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Painting </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wastage </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transps </t>
+  </si>
+  <si>
+    <t>Price
+Per Unit</t>
   </si>
 </sst>
 </file>
@@ -615,7 +616,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -631,6 +632,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -689,7 +696,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -729,8 +736,8 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="15"/>
@@ -754,6 +761,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1039,7 +1049,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L116"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B120" sqref="B120"/>
     </sheetView>
   </sheetViews>
@@ -4176,10 +4186,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97ECFA02-E1E8-4B0F-8768-FDCE7C2D2661}">
-  <dimension ref="A1:Q115"/>
+  <dimension ref="A1:M109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4188,24 +4199,25 @@
     <col min="2" max="2" width="45.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="8" style="9" customWidth="1"/>
     <col min="4" max="4" width="7.85546875" style="9" customWidth="1"/>
-    <col min="5" max="5" width="11" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" style="1" customWidth="1"/>
-    <col min="7" max="8" width="12" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" customWidth="1"/>
-    <col min="12" max="13" width="11.42578125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="15.42578125" style="1" customWidth="1"/>
-    <col min="15" max="16" width="9.140625" style="1"/>
-    <col min="17" max="17" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="5" width="10" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12" style="1" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" style="1" customWidth="1"/>
+    <col min="14" max="15" width="9.140625" style="1"/>
+    <col min="16" max="16" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="8"/>
     </row>
-    <row r="2" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+    <row r="2" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>113</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -4221,34 +4233,31 @@
         <v>116</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="J2" s="2" t="s">
+      <c r="M2" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>7</v>
       </c>
@@ -4264,9 +4273,8 @@
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-    </row>
-    <row r="4" spans="1:14" ht="111.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:13" ht="111.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -4274,72 +4282,93 @@
         <v>97</v>
       </c>
       <c r="C4" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="10">
-        <v>305</v>
-      </c>
+      <c r="E4" s="10"/>
       <c r="F4" s="10">
         <f>E4*30%</f>
-        <v>91.5</v>
+        <v>0</v>
       </c>
       <c r="G4" s="10">
         <f>E4*25%</f>
-        <v>76.25</v>
+        <v>0</v>
       </c>
       <c r="H4" s="10">
-        <f>E4*15%</f>
-        <v>45.75</v>
+        <f>E4*20%</f>
+        <v>0</v>
       </c>
       <c r="I4" s="10">
         <f>E4*5%</f>
-        <v>15.25</v>
+        <v>0</v>
       </c>
       <c r="J4" s="10">
         <f>E4*10%</f>
-        <v>30.5</v>
+        <v>0</v>
       </c>
       <c r="K4" s="10">
         <f>SUM(E4:J4)</f>
-        <v>564.25</v>
+        <v>0</v>
       </c>
       <c r="L4" s="10">
-        <f>I4+H4+G4+F4+E4</f>
-        <v>533.75</v>
-      </c>
-      <c r="M4" s="10">
         <v>172000</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
+      <c r="M4" s="15">
+        <f>L4+K4</f>
+        <v>172000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>2</v>
+      </c>
       <c r="B5" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C5" s="11">
-        <v>12</v>
-      </c>
-      <c r="D5" s="11" t="s">
+      <c r="C5" s="6">
+        <v>0</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="10">
         <v>0</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10">
+      <c r="F5" s="10">
+        <f t="shared" ref="F5:F18" si="0">E5*30%</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="10">
+        <f t="shared" ref="G5:G18" si="1">E5*25%</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="10">
+        <f t="shared" ref="H5:H18" si="2">E5*20%</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="10">
+        <f t="shared" ref="I5:I18" si="3">E5*5%</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="10">
+        <f t="shared" ref="J5:J18" si="4">E5*10%</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="10">
+        <f t="shared" ref="K5:K18" si="5">SUM(E5:J5)</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="10">
         <v>19550</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M5" s="15">
+        <f t="shared" ref="M5:M18" si="6">L5+K5</f>
+        <v>19550</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -4347,7 +4376,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>9</v>
@@ -4355,18 +4384,39 @@
       <c r="E6" s="10">
         <v>0</v>
       </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10">
+      <c r="F6" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L6" s="10">
         <v>5405</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M6" s="15">
+        <f t="shared" si="6"/>
+        <v>5405</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -4376,16 +4426,37 @@
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
+      <c r="F7" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M7" s="15">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>12</v>
       </c>
@@ -4393,7 +4464,7 @@
         <v>13</v>
       </c>
       <c r="C8" s="6">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>9</v>
@@ -4401,18 +4472,37 @@
       <c r="E8" s="10">
         <v>0</v>
       </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10">
+      <c r="F8" s="10">
+        <v>3600</v>
+      </c>
+      <c r="G8" s="10">
+        <v>900</v>
+      </c>
+      <c r="H8" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="10">
+        <f t="shared" si="5"/>
+        <v>4500</v>
+      </c>
+      <c r="L8" s="10">
         <v>5175</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="M8" s="15">
+        <f t="shared" si="6"/>
+        <v>9675</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="23">
         <v>5</v>
       </c>
@@ -4422,22 +4512,43 @@
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
+      <c r="F9" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M9" s="15">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="23"/>
       <c r="B10" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>9</v>
@@ -4445,18 +4556,36 @@
       <c r="E10" s="10">
         <v>17250</v>
       </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
+      <c r="F10" s="10">
+        <f t="shared" si="0"/>
+        <v>5175</v>
+      </c>
+      <c r="G10" s="10">
+        <f t="shared" si="1"/>
+        <v>4312.5</v>
+      </c>
+      <c r="H10" s="10">
+        <f t="shared" si="2"/>
+        <v>3450</v>
+      </c>
       <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10">
+      <c r="J10" s="10">
+        <f t="shared" si="4"/>
+        <v>1725</v>
+      </c>
+      <c r="K10" s="10">
+        <f t="shared" si="5"/>
+        <v>31912.5</v>
+      </c>
+      <c r="L10" s="10">
         <v>4500</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M10" s="15">
+        <f t="shared" si="6"/>
+        <v>36412.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>6</v>
       </c>
@@ -4472,18 +4601,39 @@
       <c r="E11" s="10">
         <v>0</v>
       </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10">
+      <c r="F11" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L11" s="10">
         <v>17250</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M11" s="15">
+        <f t="shared" si="6"/>
+        <v>17250</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>7</v>
       </c>
@@ -4493,16 +4643,37 @@
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
+      <c r="F12" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M12" s="15">
+        <f>L12+K12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>12</v>
       </c>
@@ -4516,20 +4687,41 @@
         <v>18</v>
       </c>
       <c r="E13" s="10">
-        <v>4313</v>
-      </c>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10">
+        <v>2500</v>
+      </c>
+      <c r="F13" s="10">
+        <f t="shared" si="0"/>
+        <v>750</v>
+      </c>
+      <c r="G13" s="10">
+        <f t="shared" si="1"/>
+        <v>625</v>
+      </c>
+      <c r="H13" s="10">
+        <f t="shared" si="2"/>
+        <v>500</v>
+      </c>
+      <c r="I13" s="10">
+        <f t="shared" si="3"/>
+        <v>125</v>
+      </c>
+      <c r="J13" s="10">
+        <f t="shared" si="4"/>
+        <v>250</v>
+      </c>
+      <c r="K13" s="10">
+        <f t="shared" si="5"/>
+        <v>4750</v>
+      </c>
+      <c r="L13" s="10">
         <v>600</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M13" s="15">
+        <f t="shared" si="6"/>
+        <v>5350</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>19</v>
       </c>
@@ -4543,20 +4735,41 @@
         <v>18</v>
       </c>
       <c r="E14" s="10">
-        <v>1932</v>
-      </c>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10">
+        <v>970</v>
+      </c>
+      <c r="F14" s="10">
+        <f t="shared" si="0"/>
+        <v>291</v>
+      </c>
+      <c r="G14" s="10">
+        <f t="shared" si="1"/>
+        <v>242.5</v>
+      </c>
+      <c r="H14" s="10">
+        <f t="shared" si="2"/>
+        <v>194</v>
+      </c>
+      <c r="I14" s="10">
+        <f t="shared" si="3"/>
+        <v>48.5</v>
+      </c>
+      <c r="J14" s="10">
+        <f t="shared" si="4"/>
+        <v>97</v>
+      </c>
+      <c r="K14" s="10">
+        <f t="shared" si="5"/>
+        <v>1843</v>
+      </c>
+      <c r="L14" s="10">
         <v>350</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="M14" s="15">
+        <f t="shared" si="6"/>
+        <v>2193</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>8</v>
       </c>
@@ -4572,18 +4785,34 @@
       <c r="E15" s="10">
         <v>195500</v>
       </c>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10">
+      <c r="F15" s="10">
+        <v>40000</v>
+      </c>
+      <c r="G15" s="10">
+        <v>10000</v>
+      </c>
+      <c r="H15" s="10">
+        <v>15000</v>
+      </c>
+      <c r="I15" s="10">
+        <v>10000</v>
+      </c>
+      <c r="J15" s="10">
+        <v>10000</v>
+      </c>
+      <c r="K15" s="10">
+        <f t="shared" si="5"/>
+        <v>280500</v>
+      </c>
+      <c r="L15" s="10">
         <v>20700</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M15" s="15">
+        <f t="shared" si="6"/>
+        <v>301200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>9</v>
       </c>
@@ -4593,16 +4822,37 @@
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
+      <c r="F16" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-    </row>
-    <row r="17" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M16" s="15">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>12</v>
       </c>
@@ -4615,21 +4865,40 @@
       <c r="D17" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="10">
-        <v>16500</v>
-      </c>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E17" s="10"/>
+      <c r="F17" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="10">
+        <v>1000</v>
+      </c>
+      <c r="M17" s="15">
+        <f t="shared" si="6"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>19</v>
       </c>
@@ -4642,21 +4911,40 @@
       <c r="D18" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="10">
-        <v>27000</v>
-      </c>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E18" s="10"/>
+      <c r="F18" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="10">
+        <v>1000</v>
+      </c>
+      <c r="M18" s="15">
+        <f t="shared" si="6"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
         <v>25</v>
       </c>
@@ -4672,9 +4960,8 @@
       <c r="K19" s="18"/>
       <c r="L19" s="18"/>
       <c r="M19" s="18"/>
-      <c r="N19" s="18"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
         <v>26</v>
       </c>
@@ -4690,9 +4977,8 @@
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-    </row>
-    <row r="21" spans="1:14" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:13" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>1</v>
       </c>
@@ -4706,18 +4992,39 @@
         <v>27</v>
       </c>
       <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10">
+      <c r="F21" s="10">
+        <f t="shared" ref="F21:F36" si="7">E21*30%</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="10">
+        <f t="shared" ref="G21" si="8">E21*25%</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="10">
+        <f t="shared" ref="H21" si="9">E21*20%</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="10">
+        <f t="shared" ref="I21" si="10">E21*5%</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="10">
+        <f t="shared" ref="J21" si="11">E21*10%</f>
+        <v>0</v>
+      </c>
+      <c r="K21" s="10">
+        <f t="shared" ref="K21" si="12">SUM(E21:J21)</f>
+        <v>0</v>
+      </c>
+      <c r="L21" s="10">
         <v>17250</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="M21" s="15">
+        <f t="shared" ref="M21:M80" si="13">L21+K21</f>
+        <v>17250</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>2</v>
       </c>
@@ -4730,21 +5037,40 @@
       <c r="D22" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="10">
-        <v>90000</v>
-      </c>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10">
+      <c r="E22" s="10"/>
+      <c r="F22" s="10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="10">
+        <f t="shared" ref="G22:G36" si="14">E22*25%</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="10">
+        <f t="shared" ref="H22:H36" si="15">E22*20%</f>
+        <v>0</v>
+      </c>
+      <c r="I22" s="10">
+        <f t="shared" ref="I22:I36" si="16">E22*5%</f>
+        <v>0</v>
+      </c>
+      <c r="J22" s="10">
+        <f t="shared" ref="J22:J36" si="17">E22*10%</f>
+        <v>0</v>
+      </c>
+      <c r="K22" s="10">
+        <f t="shared" ref="K22:K36" si="18">SUM(E22:J22)</f>
+        <v>0</v>
+      </c>
+      <c r="L22" s="10">
         <v>11500</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" ht="63" x14ac:dyDescent="0.25">
+      <c r="M22" s="15">
+        <f t="shared" si="13"/>
+        <v>11500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="63" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>3</v>
       </c>
@@ -4758,18 +5084,39 @@
         <v>27</v>
       </c>
       <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10">
+      <c r="F23" s="10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="10">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="H23" s="10">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I23" s="10">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="10">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="K23" s="10">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="L23" s="10">
         <v>17250</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="M23" s="15">
+        <f t="shared" si="13"/>
+        <v>17250</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>4</v>
       </c>
@@ -4782,21 +5129,38 @@
       <c r="D24" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E24" s="10">
-        <v>49000</v>
-      </c>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="10">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="H24" s="10">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I24" s="10">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="10">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="K24" s="10">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
       <c r="L24" s="10"/>
-      <c r="M24" s="10">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M24" s="15">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>5</v>
       </c>
@@ -4804,26 +5168,40 @@
         <v>30</v>
       </c>
       <c r="C25" s="6">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>27</v>
       </c>
       <c r="E25" s="10">
-        <v>87000</v>
-      </c>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
+        <v>44958</v>
+      </c>
+      <c r="F25" s="10">
+        <v>5715</v>
+      </c>
+      <c r="G25" s="10">
+        <v>3810</v>
+      </c>
+      <c r="H25" s="10">
+        <v>3210</v>
+      </c>
       <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10">
+      <c r="J25" s="10">
+        <v>7620</v>
+      </c>
+      <c r="K25" s="10">
+        <f t="shared" si="18"/>
+        <v>65313</v>
+      </c>
+      <c r="L25" s="10">
         <v>8000</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="M25" s="15">
+        <f t="shared" si="13"/>
+        <v>73313</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>6</v>
       </c>
@@ -4831,26 +5209,42 @@
         <v>31</v>
       </c>
       <c r="C26" s="6">
-        <v>102</v>
+        <v>30</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>27</v>
       </c>
       <c r="E26" s="10">
-        <v>19000</v>
-      </c>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10">
+        <v>11210</v>
+      </c>
+      <c r="F26" s="10">
+        <v>6650</v>
+      </c>
+      <c r="G26" s="10">
+        <v>950</v>
+      </c>
+      <c r="H26" s="10">
+        <v>0</v>
+      </c>
+      <c r="I26" s="10">
+        <v>0</v>
+      </c>
+      <c r="J26" s="10">
+        <v>1900</v>
+      </c>
+      <c r="K26" s="10">
+        <f t="shared" si="18"/>
+        <v>20710</v>
+      </c>
+      <c r="L26" s="10">
         <v>5000</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="M26" s="15">
+        <f t="shared" si="13"/>
+        <v>25710</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>7</v>
       </c>
@@ -4864,20 +5258,37 @@
         <v>27</v>
       </c>
       <c r="E27" s="10">
-        <v>17500</v>
-      </c>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10">
+        <v>20060</v>
+      </c>
+      <c r="F27" s="10">
+        <v>0</v>
+      </c>
+      <c r="G27" s="10">
+        <v>0</v>
+      </c>
+      <c r="H27" s="10">
+        <v>0</v>
+      </c>
+      <c r="I27" s="10">
+        <v>0</v>
+      </c>
+      <c r="J27" s="10">
+        <f t="shared" si="17"/>
+        <v>2006</v>
+      </c>
+      <c r="K27" s="10">
+        <f t="shared" si="18"/>
+        <v>22066</v>
+      </c>
+      <c r="L27" s="10">
         <v>6000</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="M27" s="15">
+        <f t="shared" si="13"/>
+        <v>28066</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>8</v>
       </c>
@@ -4885,26 +5296,43 @@
         <v>33</v>
       </c>
       <c r="C28" s="6">
-        <v>168</v>
+        <v>30</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>27</v>
       </c>
       <c r="E28" s="10">
-        <v>1800</v>
-      </c>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10">
+        <v>1416</v>
+      </c>
+      <c r="F28" s="10">
+        <v>0</v>
+      </c>
+      <c r="G28" s="10">
+        <v>0</v>
+      </c>
+      <c r="H28" s="10">
+        <v>0</v>
+      </c>
+      <c r="I28" s="10">
+        <v>0</v>
+      </c>
+      <c r="J28" s="10">
+        <f t="shared" si="17"/>
+        <v>141.6</v>
+      </c>
+      <c r="K28" s="10">
+        <f t="shared" si="18"/>
+        <v>1557.6</v>
+      </c>
+      <c r="L28" s="10">
         <v>300</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M28" s="15">
+        <f t="shared" si="13"/>
+        <v>1857.6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>9</v>
       </c>
@@ -4912,26 +5340,43 @@
         <v>34</v>
       </c>
       <c r="C29" s="6">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>27</v>
       </c>
       <c r="E29" s="10">
-        <v>6500</v>
-      </c>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10">
+        <v>13098</v>
+      </c>
+      <c r="F29" s="10">
+        <v>0</v>
+      </c>
+      <c r="G29" s="10">
+        <v>0</v>
+      </c>
+      <c r="H29" s="10">
+        <v>0</v>
+      </c>
+      <c r="I29" s="10">
+        <v>0</v>
+      </c>
+      <c r="J29" s="10">
+        <f t="shared" si="17"/>
+        <v>1309.8000000000002</v>
+      </c>
+      <c r="K29" s="10">
+        <f t="shared" si="18"/>
+        <v>14407.8</v>
+      </c>
+      <c r="L29" s="10">
         <v>700</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="M29" s="15">
+        <f t="shared" si="13"/>
+        <v>15107.8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>10</v>
       </c>
@@ -4939,26 +5384,43 @@
         <v>35</v>
       </c>
       <c r="C30" s="6">
-        <v>170</v>
+        <v>64</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>27</v>
       </c>
       <c r="E30" s="10">
-        <v>1800</v>
-      </c>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10">
+        <v>2301</v>
+      </c>
+      <c r="F30" s="10">
+        <v>0</v>
+      </c>
+      <c r="G30" s="10">
+        <v>0</v>
+      </c>
+      <c r="H30" s="10">
+        <v>0</v>
+      </c>
+      <c r="I30" s="10">
+        <v>0</v>
+      </c>
+      <c r="J30" s="10">
+        <f t="shared" si="17"/>
+        <v>230.10000000000002</v>
+      </c>
+      <c r="K30" s="10">
+        <f t="shared" si="18"/>
+        <v>2531.1</v>
+      </c>
+      <c r="L30" s="10">
         <v>300</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="M30" s="15">
+        <f t="shared" si="13"/>
+        <v>2831.1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>11</v>
       </c>
@@ -4966,26 +5428,43 @@
         <v>36</v>
       </c>
       <c r="C31" s="6">
-        <v>104</v>
+        <v>32</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>27</v>
       </c>
       <c r="E31" s="10">
-        <v>3500</v>
-      </c>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10">
+        <v>4602</v>
+      </c>
+      <c r="F31" s="10">
+        <v>0</v>
+      </c>
+      <c r="G31" s="10">
+        <v>0</v>
+      </c>
+      <c r="H31" s="10">
+        <v>0</v>
+      </c>
+      <c r="I31" s="10">
+        <v>0</v>
+      </c>
+      <c r="J31" s="10">
+        <f t="shared" si="17"/>
+        <v>460.20000000000005</v>
+      </c>
+      <c r="K31" s="10">
+        <f t="shared" si="18"/>
+        <v>5062.2</v>
+      </c>
+      <c r="L31" s="10">
         <v>500</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="M31" s="15">
+        <f t="shared" si="13"/>
+        <v>5562.2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>12</v>
       </c>
@@ -4993,23 +5472,40 @@
         <v>37</v>
       </c>
       <c r="C32" s="6">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>27</v>
       </c>
       <c r="E32" s="10">
-        <v>3900</v>
-      </c>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10">
+        <v>3304</v>
+      </c>
+      <c r="F32" s="10">
+        <v>0</v>
+      </c>
+      <c r="G32" s="10">
+        <v>0</v>
+      </c>
+      <c r="H32" s="10">
+        <v>0</v>
+      </c>
+      <c r="I32" s="10">
+        <v>0</v>
+      </c>
+      <c r="J32" s="10">
+        <f t="shared" si="17"/>
+        <v>330.40000000000003</v>
+      </c>
+      <c r="K32" s="10">
+        <f t="shared" si="18"/>
+        <v>3634.4</v>
+      </c>
+      <c r="L32" s="10">
         <v>500</v>
+      </c>
+      <c r="M32" s="15">
+        <f t="shared" si="13"/>
+        <v>4134.3999999999996</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
@@ -5020,23 +5516,40 @@
         <v>38</v>
       </c>
       <c r="C33" s="6">
-        <v>104</v>
+        <v>32</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>27</v>
       </c>
       <c r="E33" s="10">
-        <v>5200</v>
-      </c>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="10"/>
-      <c r="M33" s="10">
+        <v>7670</v>
+      </c>
+      <c r="F33" s="10">
+        <v>0</v>
+      </c>
+      <c r="G33" s="10">
+        <v>0</v>
+      </c>
+      <c r="H33" s="10">
+        <v>0</v>
+      </c>
+      <c r="I33" s="10">
+        <v>0</v>
+      </c>
+      <c r="J33" s="10">
+        <f t="shared" si="17"/>
+        <v>767</v>
+      </c>
+      <c r="K33" s="10">
+        <f t="shared" si="18"/>
+        <v>8437</v>
+      </c>
+      <c r="L33" s="10">
         <v>700</v>
+      </c>
+      <c r="M33" s="15">
+        <f t="shared" si="13"/>
+        <v>9137</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
@@ -5047,23 +5560,40 @@
         <v>39</v>
       </c>
       <c r="C34" s="6">
-        <v>104</v>
+        <v>32</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>27</v>
       </c>
       <c r="E34" s="10">
-        <v>9900</v>
-      </c>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="10"/>
-      <c r="L34" s="10"/>
-      <c r="M34" s="10">
+        <v>20060</v>
+      </c>
+      <c r="F34" s="10">
+        <v>0</v>
+      </c>
+      <c r="G34" s="10">
+        <v>0</v>
+      </c>
+      <c r="H34" s="10">
+        <v>0</v>
+      </c>
+      <c r="I34" s="10">
+        <v>0</v>
+      </c>
+      <c r="J34" s="10">
+        <f t="shared" si="17"/>
+        <v>2006</v>
+      </c>
+      <c r="K34" s="10">
+        <f t="shared" si="18"/>
+        <v>22066</v>
+      </c>
+      <c r="L34" s="10">
         <v>1700</v>
+      </c>
+      <c r="M34" s="15">
+        <f t="shared" si="13"/>
+        <v>23766</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5074,23 +5604,40 @@
         <v>40</v>
       </c>
       <c r="C35" s="6">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>27</v>
       </c>
       <c r="E35" s="10">
-        <v>10500</v>
-      </c>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="10"/>
-      <c r="L35" s="10"/>
-      <c r="M35" s="10">
+        <v>11682</v>
+      </c>
+      <c r="F35" s="10">
+        <v>0</v>
+      </c>
+      <c r="G35" s="10">
+        <v>0</v>
+      </c>
+      <c r="H35" s="10">
+        <v>0</v>
+      </c>
+      <c r="I35" s="10">
+        <v>0</v>
+      </c>
+      <c r="J35" s="10">
+        <f t="shared" si="17"/>
+        <v>1168.2</v>
+      </c>
+      <c r="K35" s="10">
+        <f t="shared" si="18"/>
+        <v>12850.2</v>
+      </c>
+      <c r="L35" s="10">
         <v>1200</v>
+      </c>
+      <c r="M35" s="15">
+        <f t="shared" si="13"/>
+        <v>14050.2</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5101,23 +5648,40 @@
         <v>41</v>
       </c>
       <c r="C36" s="6">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>27</v>
       </c>
       <c r="E36" s="10">
-        <v>18900</v>
-      </c>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="10"/>
-      <c r="K36" s="10"/>
-      <c r="L36" s="10"/>
-      <c r="M36" s="10">
+        <v>20060</v>
+      </c>
+      <c r="F36" s="10">
+        <v>0</v>
+      </c>
+      <c r="G36" s="10">
+        <v>0</v>
+      </c>
+      <c r="H36" s="10">
+        <v>0</v>
+      </c>
+      <c r="I36" s="10">
+        <v>0</v>
+      </c>
+      <c r="J36" s="10">
+        <f t="shared" si="17"/>
+        <v>2006</v>
+      </c>
+      <c r="K36" s="10">
+        <f t="shared" si="18"/>
+        <v>22066</v>
+      </c>
+      <c r="L36" s="10">
         <v>2000</v>
+      </c>
+      <c r="M36" s="15">
+        <f t="shared" si="13"/>
+        <v>24066</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -5137,7 +5701,10 @@
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
-      <c r="M37" s="5"/>
+      <c r="M37" s="15">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="38" spans="1:13" ht="195.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
@@ -5156,7 +5723,10 @@
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
-      <c r="M38" s="5"/>
+      <c r="M38" s="15">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
@@ -5166,23 +5736,40 @@
         <v>44</v>
       </c>
       <c r="C39" s="6">
-        <v>1100</v>
+        <v>200</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E39" s="10">
-        <v>950</v>
-      </c>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
-      <c r="L39" s="10"/>
-      <c r="M39" s="10">
+        <v>579</v>
+      </c>
+      <c r="F39" s="10">
+        <v>232</v>
+      </c>
+      <c r="G39" s="10">
+        <v>174</v>
+      </c>
+      <c r="H39" s="10">
+        <v>0</v>
+      </c>
+      <c r="I39" s="10">
+        <f t="shared" ref="I39:I44" si="19">E39*5%</f>
+        <v>28.950000000000003</v>
+      </c>
+      <c r="J39" s="10">
+        <v>116</v>
+      </c>
+      <c r="K39" s="10">
+        <f t="shared" ref="K39:K44" si="20">SUM(E39:J39)</f>
+        <v>1129.95</v>
+      </c>
+      <c r="L39" s="10">
         <v>200</v>
+      </c>
+      <c r="M39" s="15">
+        <f t="shared" si="13"/>
+        <v>1329.95</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -5199,17 +5786,34 @@
         <v>18</v>
       </c>
       <c r="E40" s="10">
-        <v>815</v>
-      </c>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10"/>
-      <c r="L40" s="10"/>
-      <c r="M40" s="10">
+        <v>368</v>
+      </c>
+      <c r="F40" s="10">
+        <v>147</v>
+      </c>
+      <c r="G40" s="10">
+        <v>110</v>
+      </c>
+      <c r="H40" s="10">
+        <v>0</v>
+      </c>
+      <c r="I40" s="10">
+        <f t="shared" si="19"/>
+        <v>18.400000000000002</v>
+      </c>
+      <c r="J40" s="10">
+        <v>74</v>
+      </c>
+      <c r="K40" s="10">
+        <f t="shared" si="20"/>
+        <v>717.4</v>
+      </c>
+      <c r="L40" s="10">
         <v>200</v>
+      </c>
+      <c r="M40" s="15">
+        <f t="shared" si="13"/>
+        <v>917.4</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -5220,23 +5824,40 @@
         <v>48</v>
       </c>
       <c r="C41" s="6">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E41" s="10">
-        <v>550</v>
-      </c>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10"/>
-      <c r="L41" s="10"/>
-      <c r="M41" s="10">
+        <v>233</v>
+      </c>
+      <c r="F41" s="10">
+        <v>93</v>
+      </c>
+      <c r="G41" s="10">
+        <v>70</v>
+      </c>
+      <c r="H41" s="10">
+        <v>0</v>
+      </c>
+      <c r="I41" s="10">
+        <f t="shared" si="19"/>
+        <v>11.65</v>
+      </c>
+      <c r="J41" s="10">
+        <v>47</v>
+      </c>
+      <c r="K41" s="10">
+        <f t="shared" si="20"/>
+        <v>454.65</v>
+      </c>
+      <c r="L41" s="10">
         <v>200</v>
+      </c>
+      <c r="M41" s="15">
+        <f t="shared" si="13"/>
+        <v>654.65</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
@@ -5247,23 +5868,40 @@
         <v>50</v>
       </c>
       <c r="C42" s="6">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="D42" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E42" s="10">
-        <v>280</v>
-      </c>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="10"/>
-      <c r="K42" s="10"/>
-      <c r="L42" s="10"/>
-      <c r="M42" s="10">
+        <v>152</v>
+      </c>
+      <c r="F42" s="10">
+        <v>61</v>
+      </c>
+      <c r="G42" s="10">
+        <v>40</v>
+      </c>
+      <c r="H42" s="10">
+        <v>0</v>
+      </c>
+      <c r="I42" s="10">
+        <f t="shared" si="19"/>
+        <v>7.6000000000000005</v>
+      </c>
+      <c r="J42" s="10">
+        <v>30</v>
+      </c>
+      <c r="K42" s="10">
+        <f t="shared" si="20"/>
+        <v>290.60000000000002</v>
+      </c>
+      <c r="L42" s="10">
         <v>200</v>
+      </c>
+      <c r="M42" s="15">
+        <f t="shared" si="13"/>
+        <v>490.6</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
@@ -5274,23 +5912,40 @@
         <v>52</v>
       </c>
       <c r="C43" s="6">
-        <v>1200</v>
+        <v>350</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E43" s="10">
-        <v>184</v>
-      </c>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="10"/>
-      <c r="K43" s="10"/>
-      <c r="L43" s="10"/>
-      <c r="M43" s="10">
+        <v>93</v>
+      </c>
+      <c r="F43" s="10">
+        <v>37</v>
+      </c>
+      <c r="G43" s="10">
+        <v>50</v>
+      </c>
+      <c r="H43" s="10">
+        <v>0</v>
+      </c>
+      <c r="I43" s="10">
+        <f t="shared" si="19"/>
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="J43" s="10">
+        <v>19</v>
+      </c>
+      <c r="K43" s="10">
+        <f t="shared" si="20"/>
+        <v>203.65</v>
+      </c>
+      <c r="L43" s="10">
         <v>196</v>
+      </c>
+      <c r="M43" s="15">
+        <f t="shared" si="13"/>
+        <v>399.65</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
@@ -5301,23 +5956,40 @@
         <v>54</v>
       </c>
       <c r="C44" s="6">
-        <v>1300</v>
+        <v>300</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E44" s="10">
-        <v>167</v>
-      </c>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="10"/>
-      <c r="K44" s="10"/>
-      <c r="L44" s="10"/>
-      <c r="M44" s="10">
+        <v>60</v>
+      </c>
+      <c r="F44" s="10">
+        <v>24</v>
+      </c>
+      <c r="G44" s="10">
+        <v>40</v>
+      </c>
+      <c r="H44" s="10">
+        <v>0</v>
+      </c>
+      <c r="I44" s="10">
+        <f t="shared" si="19"/>
+        <v>3</v>
+      </c>
+      <c r="J44" s="10">
+        <v>12</v>
+      </c>
+      <c r="K44" s="10">
+        <f t="shared" si="20"/>
+        <v>139</v>
+      </c>
+      <c r="L44" s="10">
         <v>125</v>
+      </c>
+      <c r="M44" s="15">
+        <f t="shared" si="13"/>
+        <v>264</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -5337,7 +6009,10 @@
       <c r="J45" s="5"/>
       <c r="K45" s="5"/>
       <c r="L45" s="5"/>
-      <c r="M45" s="5"/>
+      <c r="M45" s="15">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
@@ -5347,23 +6022,39 @@
         <v>44</v>
       </c>
       <c r="C46" s="6">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E46" s="14">
-        <v>45000</v>
-      </c>
-      <c r="F46" s="14"/>
-      <c r="G46" s="14"/>
-      <c r="H46" s="14"/>
-      <c r="I46" s="14"/>
-      <c r="J46" s="14"/>
-      <c r="K46" s="14"/>
-      <c r="L46" s="14"/>
-      <c r="M46" s="10">
+        <v>13250</v>
+      </c>
+      <c r="F46" s="10">
+        <f t="shared" ref="F46:F57" si="21">E46*30%</f>
+        <v>3975</v>
+      </c>
+      <c r="G46" s="10">
+        <v>3975</v>
+      </c>
+      <c r="H46" s="10">
+        <f t="shared" ref="H46:H57" si="22">E46*20%</f>
+        <v>2650</v>
+      </c>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10">
+        <v>2650</v>
+      </c>
+      <c r="K46" s="10">
+        <f t="shared" ref="K46:K57" si="23">SUM(E46:J46)</f>
+        <v>26500</v>
+      </c>
+      <c r="L46" s="10">
         <v>2000</v>
+      </c>
+      <c r="M46" s="15">
+        <f t="shared" si="13"/>
+        <v>28500</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
@@ -5374,23 +6065,39 @@
         <v>46</v>
       </c>
       <c r="C47" s="6">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D47" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E47" s="14">
-        <v>32200</v>
-      </c>
-      <c r="F47" s="14"/>
-      <c r="G47" s="14"/>
-      <c r="H47" s="14"/>
-      <c r="I47" s="14"/>
-      <c r="J47" s="14"/>
-      <c r="K47" s="14"/>
-      <c r="L47" s="14"/>
-      <c r="M47" s="10">
+        <v>8375</v>
+      </c>
+      <c r="F47" s="10">
+        <f t="shared" si="21"/>
+        <v>2512.5</v>
+      </c>
+      <c r="G47" s="10">
+        <v>2512.5</v>
+      </c>
+      <c r="H47" s="10">
+        <f t="shared" si="22"/>
+        <v>1675</v>
+      </c>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10">
+        <v>1675</v>
+      </c>
+      <c r="K47" s="10">
+        <f t="shared" si="23"/>
+        <v>16750</v>
+      </c>
+      <c r="L47" s="10">
         <v>1500</v>
+      </c>
+      <c r="M47" s="15">
+        <f t="shared" si="13"/>
+        <v>18250</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
@@ -5401,23 +6108,39 @@
         <v>48</v>
       </c>
       <c r="C48" s="6">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D48" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E48" s="14">
-        <v>16600</v>
-      </c>
-      <c r="F48" s="14"/>
-      <c r="G48" s="14"/>
-      <c r="H48" s="14"/>
-      <c r="I48" s="14"/>
-      <c r="J48" s="14"/>
-      <c r="K48" s="14"/>
-      <c r="L48" s="14"/>
-      <c r="M48" s="10">
+        <v>6400</v>
+      </c>
+      <c r="F48" s="10">
+        <f t="shared" si="21"/>
+        <v>1920</v>
+      </c>
+      <c r="G48" s="10">
+        <v>1920</v>
+      </c>
+      <c r="H48" s="10">
+        <f t="shared" si="22"/>
+        <v>1280</v>
+      </c>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10">
+        <v>1280</v>
+      </c>
+      <c r="K48" s="10">
+        <f t="shared" si="23"/>
+        <v>12800</v>
+      </c>
+      <c r="L48" s="10">
         <v>1200</v>
+      </c>
+      <c r="M48" s="15">
+        <f t="shared" si="13"/>
+        <v>14000</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
@@ -5428,23 +6151,39 @@
         <v>50</v>
       </c>
       <c r="C49" s="6">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D49" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E49" s="14">
-        <v>12020</v>
-      </c>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
-      <c r="H49" s="14"/>
-      <c r="I49" s="14"/>
-      <c r="J49" s="14"/>
-      <c r="K49" s="14"/>
-      <c r="L49" s="14"/>
-      <c r="M49" s="10">
+        <v>3890</v>
+      </c>
+      <c r="F49" s="10">
+        <f t="shared" si="21"/>
+        <v>1167</v>
+      </c>
+      <c r="G49" s="10">
+        <v>1167</v>
+      </c>
+      <c r="H49" s="10">
+        <f t="shared" si="22"/>
+        <v>778</v>
+      </c>
+      <c r="I49" s="10"/>
+      <c r="J49" s="10">
+        <v>778</v>
+      </c>
+      <c r="K49" s="10">
+        <f t="shared" si="23"/>
+        <v>7780</v>
+      </c>
+      <c r="L49" s="10">
         <v>1000</v>
+      </c>
+      <c r="M49" s="15">
+        <f t="shared" si="13"/>
+        <v>8780</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
@@ -5455,23 +6194,39 @@
         <v>52</v>
       </c>
       <c r="C50" s="6">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D50" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E50" s="14">
-        <v>7200</v>
-      </c>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
-      <c r="H50" s="14"/>
-      <c r="I50" s="14"/>
-      <c r="J50" s="14"/>
-      <c r="K50" s="14"/>
-      <c r="L50" s="14"/>
-      <c r="M50" s="10">
+        <v>2800</v>
+      </c>
+      <c r="F50" s="10">
+        <f t="shared" si="21"/>
+        <v>840</v>
+      </c>
+      <c r="G50" s="10">
+        <v>840</v>
+      </c>
+      <c r="H50" s="10">
+        <f t="shared" si="22"/>
+        <v>560</v>
+      </c>
+      <c r="I50" s="10"/>
+      <c r="J50" s="10">
+        <v>560</v>
+      </c>
+      <c r="K50" s="10">
+        <f t="shared" si="23"/>
+        <v>5600</v>
+      </c>
+      <c r="L50" s="10">
         <v>1000</v>
+      </c>
+      <c r="M50" s="15">
+        <f t="shared" si="13"/>
+        <v>6600</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
@@ -5484,14 +6239,35 @@
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
       <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="5"/>
-      <c r="I51" s="5"/>
-      <c r="J51" s="5"/>
-      <c r="K51" s="5"/>
+      <c r="F51" s="10">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="G51" s="10">
+        <f t="shared" ref="G46:G57" si="24">E51*25%</f>
+        <v>0</v>
+      </c>
+      <c r="H51" s="10">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="I51" s="10">
+        <f t="shared" ref="I46:I57" si="25">E51*5%</f>
+        <v>0</v>
+      </c>
+      <c r="J51" s="10">
+        <f t="shared" ref="J46:J57" si="26">E51*10%</f>
+        <v>0</v>
+      </c>
+      <c r="K51" s="10">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
       <c r="L51" s="5"/>
-      <c r="M51" s="5"/>
+      <c r="M51" s="15">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
@@ -5501,23 +6277,39 @@
         <v>54</v>
       </c>
       <c r="C52" s="6">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D52" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E52" s="10">
-        <v>4800</v>
-      </c>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
-      <c r="H52" s="10"/>
+        <v>1710</v>
+      </c>
+      <c r="F52" s="10">
+        <f t="shared" si="21"/>
+        <v>513</v>
+      </c>
+      <c r="G52" s="10">
+        <v>513</v>
+      </c>
+      <c r="H52" s="10">
+        <f t="shared" si="22"/>
+        <v>342</v>
+      </c>
       <c r="I52" s="10"/>
-      <c r="J52" s="10"/>
-      <c r="K52" s="10"/>
-      <c r="L52" s="10"/>
-      <c r="M52" s="10">
+      <c r="J52" s="10">
+        <v>342</v>
+      </c>
+      <c r="K52" s="10">
+        <f t="shared" si="23"/>
+        <v>3420</v>
+      </c>
+      <c r="L52" s="10">
         <v>800</v>
+      </c>
+      <c r="M52" s="15">
+        <f t="shared" si="13"/>
+        <v>4220</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
@@ -5528,23 +6320,39 @@
         <v>44</v>
       </c>
       <c r="C53" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D53" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E53" s="10">
-        <v>23000</v>
-      </c>
-      <c r="F53" s="10"/>
-      <c r="G53" s="10"/>
-      <c r="H53" s="10"/>
+        <v>12750</v>
+      </c>
+      <c r="F53" s="10">
+        <f t="shared" si="21"/>
+        <v>3825</v>
+      </c>
+      <c r="G53" s="10">
+        <v>3825</v>
+      </c>
+      <c r="H53" s="10">
+        <f t="shared" si="22"/>
+        <v>2550</v>
+      </c>
       <c r="I53" s="10"/>
-      <c r="J53" s="10"/>
-      <c r="K53" s="10"/>
-      <c r="L53" s="10"/>
-      <c r="M53" s="10">
+      <c r="J53" s="10">
+        <v>2550</v>
+      </c>
+      <c r="K53" s="10">
+        <f t="shared" si="23"/>
+        <v>25500</v>
+      </c>
+      <c r="L53" s="10">
         <v>2000</v>
+      </c>
+      <c r="M53" s="15">
+        <f t="shared" si="13"/>
+        <v>27500</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
@@ -5563,15 +6371,31 @@
       <c r="E54" s="10">
         <v>17500</v>
       </c>
-      <c r="F54" s="10"/>
-      <c r="G54" s="10"/>
-      <c r="H54" s="10"/>
+      <c r="F54" s="10">
+        <f t="shared" si="21"/>
+        <v>5250</v>
+      </c>
+      <c r="G54" s="10">
+        <v>5250</v>
+      </c>
+      <c r="H54" s="10">
+        <f t="shared" si="22"/>
+        <v>3500</v>
+      </c>
       <c r="I54" s="10"/>
-      <c r="J54" s="10"/>
-      <c r="K54" s="10"/>
-      <c r="L54" s="10"/>
-      <c r="M54" s="10">
+      <c r="J54" s="10">
+        <v>3500</v>
+      </c>
+      <c r="K54" s="10">
+        <f t="shared" si="23"/>
+        <v>35000</v>
+      </c>
+      <c r="L54" s="10">
         <v>2000</v>
+      </c>
+      <c r="M54" s="15">
+        <f t="shared" si="13"/>
+        <v>37000</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
@@ -5582,7 +6406,7 @@
         <v>63</v>
       </c>
       <c r="C55" s="6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D55" s="6" t="s">
         <v>9</v>
@@ -5590,15 +6414,31 @@
       <c r="E55" s="10">
         <v>17500</v>
       </c>
-      <c r="F55" s="10"/>
-      <c r="G55" s="10"/>
-      <c r="H55" s="10"/>
+      <c r="F55" s="10">
+        <f t="shared" si="21"/>
+        <v>5250</v>
+      </c>
+      <c r="G55" s="10">
+        <v>5250</v>
+      </c>
+      <c r="H55" s="10">
+        <f t="shared" si="22"/>
+        <v>3500</v>
+      </c>
       <c r="I55" s="10"/>
-      <c r="J55" s="10"/>
-      <c r="K55" s="10"/>
-      <c r="L55" s="10"/>
-      <c r="M55" s="10">
+      <c r="J55" s="10">
+        <v>3500</v>
+      </c>
+      <c r="K55" s="10">
+        <f t="shared" si="23"/>
+        <v>35000</v>
+      </c>
+      <c r="L55" s="10">
         <v>2000</v>
+      </c>
+      <c r="M55" s="15">
+        <f t="shared" si="13"/>
+        <v>37000</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
@@ -5609,23 +6449,39 @@
         <v>65</v>
       </c>
       <c r="C56" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D56" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E56" s="10">
-        <v>23000</v>
-      </c>
-      <c r="F56" s="10"/>
-      <c r="G56" s="10"/>
-      <c r="H56" s="10"/>
+        <v>12880</v>
+      </c>
+      <c r="F56" s="10">
+        <f t="shared" si="21"/>
+        <v>3864</v>
+      </c>
+      <c r="G56" s="10">
+        <v>3864</v>
+      </c>
+      <c r="H56" s="10">
+        <f t="shared" si="22"/>
+        <v>2576</v>
+      </c>
       <c r="I56" s="10"/>
-      <c r="J56" s="10"/>
-      <c r="K56" s="10"/>
-      <c r="L56" s="10"/>
-      <c r="M56" s="10">
+      <c r="J56" s="10">
+        <v>2576</v>
+      </c>
+      <c r="K56" s="10">
+        <f t="shared" si="23"/>
+        <v>25760</v>
+      </c>
+      <c r="L56" s="10">
         <v>2000</v>
+      </c>
+      <c r="M56" s="15">
+        <f t="shared" si="13"/>
+        <v>27760</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
@@ -5636,23 +6492,39 @@
         <v>67</v>
       </c>
       <c r="C57" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D57" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E57" s="10">
-        <v>23000</v>
-      </c>
-      <c r="F57" s="10"/>
-      <c r="G57" s="10"/>
-      <c r="H57" s="10"/>
+        <v>12250</v>
+      </c>
+      <c r="F57" s="10">
+        <f t="shared" si="21"/>
+        <v>3675</v>
+      </c>
+      <c r="G57" s="10">
+        <v>3675</v>
+      </c>
+      <c r="H57" s="10">
+        <f t="shared" si="22"/>
+        <v>2450</v>
+      </c>
       <c r="I57" s="10"/>
-      <c r="J57" s="10"/>
-      <c r="K57" s="10"/>
-      <c r="L57" s="10"/>
-      <c r="M57" s="10">
+      <c r="J57" s="10">
+        <v>2450</v>
+      </c>
+      <c r="K57" s="10">
+        <f t="shared" si="23"/>
+        <v>24500</v>
+      </c>
+      <c r="L57" s="10">
         <v>2000</v>
+      </c>
+      <c r="M57" s="15">
+        <f t="shared" si="13"/>
+        <v>26500</v>
       </c>
     </row>
     <row r="58" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5672,7 +6544,10 @@
       <c r="J58" s="5"/>
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
-      <c r="M58" s="5"/>
+      <c r="M58" s="15">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="59" spans="1:13" ht="162.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
@@ -5691,7 +6566,10 @@
       <c r="J59" s="5"/>
       <c r="K59" s="5"/>
       <c r="L59" s="5"/>
-      <c r="M59" s="5"/>
+      <c r="M59" s="15">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
@@ -5701,23 +6579,38 @@
         <v>69</v>
       </c>
       <c r="C60" s="6">
-        <v>169</v>
+        <v>69</v>
       </c>
       <c r="D60" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E60" s="10">
-        <v>3950</v>
-      </c>
-      <c r="F60" s="10"/>
-      <c r="G60" s="10"/>
+        <v>941</v>
+      </c>
+      <c r="F60" s="10">
+        <v>376</v>
+      </c>
+      <c r="G60" s="10">
+        <v>282</v>
+      </c>
       <c r="H60" s="10"/>
-      <c r="I60" s="10"/>
-      <c r="J60" s="10"/>
-      <c r="K60" s="10"/>
-      <c r="L60" s="10"/>
-      <c r="M60" s="10">
+      <c r="I60" s="10">
+        <f t="shared" ref="I60:I64" si="27">E60*5%</f>
+        <v>47.050000000000004</v>
+      </c>
+      <c r="J60" s="10">
+        <v>188</v>
+      </c>
+      <c r="K60" s="10">
+        <f t="shared" ref="K60:K64" si="28">SUM(E60:J60)</f>
+        <v>1834.05</v>
+      </c>
+      <c r="L60" s="10">
         <v>345</v>
+      </c>
+      <c r="M60" s="15">
+        <f t="shared" si="13"/>
+        <v>2179.0500000000002</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
@@ -5728,23 +6621,38 @@
         <v>70</v>
       </c>
       <c r="C61" s="6">
-        <v>260</v>
+        <v>100</v>
       </c>
       <c r="D61" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E61" s="10">
-        <v>2070</v>
-      </c>
-      <c r="F61" s="10"/>
-      <c r="G61" s="10"/>
+        <v>619</v>
+      </c>
+      <c r="F61" s="10">
+        <v>248</v>
+      </c>
+      <c r="G61" s="10">
+        <v>186</v>
+      </c>
       <c r="H61" s="10"/>
-      <c r="I61" s="10"/>
-      <c r="J61" s="10"/>
-      <c r="K61" s="10"/>
-      <c r="L61" s="10"/>
-      <c r="M61" s="10">
+      <c r="I61" s="10">
+        <f t="shared" si="27"/>
+        <v>30.950000000000003</v>
+      </c>
+      <c r="J61" s="10">
+        <v>124</v>
+      </c>
+      <c r="K61" s="10">
+        <f t="shared" si="28"/>
+        <v>1207.95</v>
+      </c>
+      <c r="L61" s="10">
         <v>299</v>
+      </c>
+      <c r="M61" s="15">
+        <f t="shared" si="13"/>
+        <v>1506.95</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
@@ -5755,23 +6663,38 @@
         <v>71</v>
       </c>
       <c r="C62" s="6">
-        <v>2100</v>
+        <v>800</v>
       </c>
       <c r="D62" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E62" s="10">
-        <v>1139</v>
-      </c>
-      <c r="F62" s="10"/>
-      <c r="G62" s="10"/>
+        <v>418</v>
+      </c>
+      <c r="F62" s="10">
+        <v>167</v>
+      </c>
+      <c r="G62" s="10">
+        <v>125</v>
+      </c>
       <c r="H62" s="10"/>
-      <c r="I62" s="10"/>
-      <c r="J62" s="10"/>
-      <c r="K62" s="10"/>
-      <c r="L62" s="10"/>
-      <c r="M62" s="10">
+      <c r="I62" s="10">
+        <f t="shared" si="27"/>
+        <v>20.900000000000002</v>
+      </c>
+      <c r="J62" s="10">
+        <v>84</v>
+      </c>
+      <c r="K62" s="10">
+        <f t="shared" si="28"/>
+        <v>814.9</v>
+      </c>
+      <c r="L62" s="10">
         <v>253</v>
+      </c>
+      <c r="M62" s="15">
+        <f t="shared" si="13"/>
+        <v>1067.9000000000001</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
@@ -5782,23 +6705,38 @@
         <v>72</v>
       </c>
       <c r="C63" s="6">
-        <v>2300</v>
+        <v>900</v>
       </c>
       <c r="D63" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E63" s="10">
-        <v>782</v>
-      </c>
-      <c r="F63" s="10"/>
-      <c r="G63" s="10"/>
+        <v>268</v>
+      </c>
+      <c r="F63" s="10">
+        <v>107</v>
+      </c>
+      <c r="G63" s="10">
+        <v>80</v>
+      </c>
       <c r="H63" s="10"/>
-      <c r="I63" s="10"/>
-      <c r="J63" s="10"/>
-      <c r="K63" s="10"/>
-      <c r="L63" s="10"/>
-      <c r="M63" s="10">
+      <c r="I63" s="10">
+        <f t="shared" si="27"/>
+        <v>13.4</v>
+      </c>
+      <c r="J63" s="10">
+        <v>54</v>
+      </c>
+      <c r="K63" s="10">
+        <f t="shared" si="28"/>
+        <v>522.4</v>
+      </c>
+      <c r="L63" s="10">
         <v>247</v>
+      </c>
+      <c r="M63" s="15">
+        <f t="shared" si="13"/>
+        <v>769.4</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
@@ -5809,23 +6747,38 @@
         <v>44</v>
       </c>
       <c r="C64" s="6">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="D64" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E64" s="10">
-        <v>357</v>
-      </c>
-      <c r="F64" s="10"/>
-      <c r="G64" s="10"/>
+        <v>173</v>
+      </c>
+      <c r="F64" s="10">
+        <v>69</v>
+      </c>
+      <c r="G64" s="10">
+        <v>52</v>
+      </c>
       <c r="H64" s="10"/>
-      <c r="I64" s="10"/>
-      <c r="J64" s="10"/>
-      <c r="K64" s="10"/>
-      <c r="L64" s="10"/>
-      <c r="M64" s="10">
+      <c r="I64" s="10">
+        <f t="shared" si="27"/>
+        <v>8.65</v>
+      </c>
+      <c r="J64" s="10">
+        <v>35</v>
+      </c>
+      <c r="K64" s="10">
+        <f t="shared" si="28"/>
+        <v>337.65</v>
+      </c>
+      <c r="L64" s="10">
         <v>230</v>
+      </c>
+      <c r="M64" s="15">
+        <f t="shared" si="13"/>
+        <v>567.65</v>
       </c>
     </row>
     <row r="65" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -5845,7 +6798,10 @@
       <c r="J65" s="5"/>
       <c r="K65" s="5"/>
       <c r="L65" s="5"/>
-      <c r="M65" s="5"/>
+      <c r="M65" s="15">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
@@ -5855,23 +6811,32 @@
         <v>70</v>
       </c>
       <c r="C66" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D66" s="6" t="s">
         <v>27</v>
       </c>
       <c r="E66" s="10">
-        <v>15000</v>
+        <v>25000</v>
       </c>
       <c r="F66" s="10"/>
       <c r="G66" s="10"/>
       <c r="H66" s="10"/>
       <c r="I66" s="10"/>
-      <c r="J66" s="10"/>
-      <c r="K66" s="10"/>
-      <c r="L66" s="10"/>
-      <c r="M66" s="10">
+      <c r="J66" s="10">
+        <f t="shared" ref="J66" si="29">E66*10%</f>
+        <v>2500</v>
+      </c>
+      <c r="K66" s="10">
+        <f t="shared" ref="K66" si="30">SUM(E66:J66)</f>
+        <v>27500</v>
+      </c>
+      <c r="L66" s="10">
         <v>1725</v>
+      </c>
+      <c r="M66" s="15">
+        <f t="shared" si="13"/>
+        <v>29225</v>
       </c>
     </row>
     <row r="67" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
@@ -5891,7 +6856,10 @@
       <c r="J67" s="10"/>
       <c r="K67" s="10"/>
       <c r="L67" s="10"/>
-      <c r="M67" s="10"/>
+      <c r="M67" s="15">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
@@ -5901,7 +6869,7 @@
         <v>71</v>
       </c>
       <c r="C68" s="6">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="D68" s="6" t="s">
         <v>27</v>
@@ -5913,11 +6881,19 @@
       <c r="G68" s="10"/>
       <c r="H68" s="10"/>
       <c r="I68" s="10"/>
-      <c r="J68" s="10"/>
-      <c r="K68" s="10"/>
-      <c r="L68" s="10"/>
-      <c r="M68" s="10">
+      <c r="J68" s="10">
+        <v>1300</v>
+      </c>
+      <c r="K68" s="10">
+        <f t="shared" ref="K68" si="31">SUM(E68:J68)</f>
+        <v>7800</v>
+      </c>
+      <c r="L68" s="10">
         <v>805</v>
+      </c>
+      <c r="M68" s="15">
+        <f t="shared" si="13"/>
+        <v>8605</v>
       </c>
     </row>
     <row r="69" spans="1:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5937,7 +6913,10 @@
       <c r="J69" s="5"/>
       <c r="K69" s="5"/>
       <c r="L69" s="5"/>
-      <c r="M69" s="5"/>
+      <c r="M69" s="15">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
@@ -5947,7 +6926,7 @@
         <v>70</v>
       </c>
       <c r="C70" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D70" s="6" t="s">
         <v>27</v>
@@ -5959,11 +6938,19 @@
       <c r="G70" s="10"/>
       <c r="H70" s="10"/>
       <c r="I70" s="10"/>
-      <c r="J70" s="10"/>
-      <c r="K70" s="10"/>
-      <c r="L70" s="10"/>
-      <c r="M70" s="10">
+      <c r="J70" s="10">
+        <v>460</v>
+      </c>
+      <c r="K70" s="10">
+        <f t="shared" ref="K70:K72" si="32">SUM(E70:J70)</f>
+        <v>2760</v>
+      </c>
+      <c r="L70" s="10">
         <v>805</v>
+      </c>
+      <c r="M70" s="15">
+        <f t="shared" si="13"/>
+        <v>3565</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
@@ -5974,7 +6961,7 @@
         <v>71</v>
       </c>
       <c r="C71" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D71" s="6" t="s">
         <v>27</v>
@@ -5986,11 +6973,19 @@
       <c r="G71" s="10"/>
       <c r="H71" s="10"/>
       <c r="I71" s="10"/>
-      <c r="J71" s="10"/>
-      <c r="K71" s="10"/>
-      <c r="L71" s="10"/>
-      <c r="M71" s="10">
+      <c r="J71" s="10">
+        <v>414</v>
+      </c>
+      <c r="K71" s="10">
+        <f t="shared" si="32"/>
+        <v>2484</v>
+      </c>
+      <c r="L71" s="10">
         <v>805</v>
+      </c>
+      <c r="M71" s="15">
+        <f t="shared" si="13"/>
+        <v>3289</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
@@ -6001,7 +6996,7 @@
         <v>72</v>
       </c>
       <c r="C72" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D72" s="6" t="s">
         <v>27</v>
@@ -6013,11 +7008,19 @@
       <c r="G72" s="10"/>
       <c r="H72" s="10"/>
       <c r="I72" s="10"/>
-      <c r="J72" s="10"/>
-      <c r="K72" s="10"/>
-      <c r="L72" s="10"/>
-      <c r="M72" s="10">
+      <c r="J72" s="10">
+        <v>391</v>
+      </c>
+      <c r="K72" s="10">
+        <f t="shared" si="32"/>
+        <v>2346</v>
+      </c>
+      <c r="L72" s="10">
         <v>805</v>
+      </c>
+      <c r="M72" s="15">
+        <f t="shared" si="13"/>
+        <v>3151</v>
       </c>
     </row>
     <row r="73" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
@@ -6037,7 +7040,10 @@
       <c r="J73" s="5"/>
       <c r="K73" s="5"/>
       <c r="L73" s="5"/>
-      <c r="M73" s="5"/>
+      <c r="M73" s="15">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
@@ -6047,7 +7053,7 @@
         <v>71</v>
       </c>
       <c r="C74" s="6">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D74" s="6" t="s">
         <v>27</v>
@@ -6059,11 +7065,19 @@
       <c r="G74" s="10"/>
       <c r="H74" s="10"/>
       <c r="I74" s="10"/>
-      <c r="J74" s="10"/>
-      <c r="K74" s="10"/>
-      <c r="L74" s="10"/>
-      <c r="M74" s="10">
+      <c r="J74" s="10">
+        <v>800</v>
+      </c>
+      <c r="K74" s="10">
+        <f t="shared" ref="K74:K80" si="33">SUM(E74:J74)</f>
+        <v>4800</v>
+      </c>
+      <c r="L74" s="10">
         <v>1000</v>
+      </c>
+      <c r="M74" s="15">
+        <f t="shared" si="13"/>
+        <v>5800</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
@@ -6074,7 +7088,7 @@
         <v>72</v>
       </c>
       <c r="C75" s="6">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="D75" s="6" t="s">
         <v>27</v>
@@ -6086,11 +7100,19 @@
       <c r="G75" s="10"/>
       <c r="H75" s="10"/>
       <c r="I75" s="10"/>
-      <c r="J75" s="10"/>
-      <c r="K75" s="10"/>
-      <c r="L75" s="10"/>
-      <c r="M75" s="10">
+      <c r="J75" s="10">
+        <v>600</v>
+      </c>
+      <c r="K75" s="10">
+        <f t="shared" si="33"/>
+        <v>3600</v>
+      </c>
+      <c r="L75" s="10">
         <v>1000</v>
+      </c>
+      <c r="M75" s="15">
+        <f t="shared" si="13"/>
+        <v>4600</v>
       </c>
     </row>
     <row r="76" spans="1:13" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6109,14 +7131,35 @@
       <c r="E76" s="10">
         <v>0</v>
       </c>
-      <c r="F76" s="10"/>
-      <c r="G76" s="10"/>
-      <c r="H76" s="10"/>
-      <c r="I76" s="10"/>
-      <c r="J76" s="10"/>
-      <c r="K76" s="10"/>
-      <c r="L76" s="10"/>
-      <c r="M76" s="10">
+      <c r="F76" s="10">
+        <f t="shared" ref="F74:F80" si="34">E76*30%</f>
+        <v>0</v>
+      </c>
+      <c r="G76" s="10">
+        <f t="shared" ref="G74:G80" si="35">E76*25%</f>
+        <v>0</v>
+      </c>
+      <c r="H76" s="10">
+        <f t="shared" ref="H74:H80" si="36">E76*20%</f>
+        <v>0</v>
+      </c>
+      <c r="I76" s="10">
+        <f t="shared" ref="I74:I80" si="37">E76*5%</f>
+        <v>0</v>
+      </c>
+      <c r="J76" s="10">
+        <f t="shared" ref="J74:J80" si="38">E76*10%</f>
+        <v>0</v>
+      </c>
+      <c r="K76" s="10">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="L76" s="10">
+        <v>28750</v>
+      </c>
+      <c r="M76" s="15">
+        <f t="shared" si="13"/>
         <v>28750</v>
       </c>
     </row>
@@ -6128,7 +7171,7 @@
         <v>78</v>
       </c>
       <c r="C77" s="6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D77" s="6" t="s">
         <v>27</v>
@@ -6141,10 +7184,16 @@
       <c r="H77" s="10"/>
       <c r="I77" s="10"/>
       <c r="J77" s="10"/>
-      <c r="K77" s="10"/>
-      <c r="L77" s="10"/>
-      <c r="M77" s="10">
+      <c r="K77" s="10">
+        <f t="shared" si="33"/>
+        <v>51750</v>
+      </c>
+      <c r="L77" s="10">
         <v>8050</v>
+      </c>
+      <c r="M77" s="15">
+        <f t="shared" si="13"/>
+        <v>59800</v>
       </c>
     </row>
     <row r="78" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
@@ -6155,7 +7204,7 @@
         <v>79</v>
       </c>
       <c r="C78" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D78" s="6" t="s">
         <v>27</v>
@@ -6168,10 +7217,16 @@
       <c r="H78" s="10"/>
       <c r="I78" s="10"/>
       <c r="J78" s="10"/>
-      <c r="K78" s="10"/>
-      <c r="L78" s="10"/>
-      <c r="M78" s="10">
+      <c r="K78" s="10">
+        <f t="shared" si="33"/>
+        <v>43700</v>
+      </c>
+      <c r="L78" s="10">
         <v>8050</v>
+      </c>
+      <c r="M78" s="15">
+        <f t="shared" si="13"/>
+        <v>51750</v>
       </c>
     </row>
     <row r="79" spans="1:13" ht="78.75" x14ac:dyDescent="0.25">
@@ -6187,16 +7242,24 @@
       <c r="D79" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E79" s="10"/>
+      <c r="E79" s="10">
+        <v>450000</v>
+      </c>
       <c r="F79" s="10"/>
       <c r="G79" s="10"/>
       <c r="H79" s="10"/>
       <c r="I79" s="10"/>
       <c r="J79" s="10"/>
-      <c r="K79" s="10"/>
-      <c r="L79" s="10"/>
-      <c r="M79" s="10">
-        <v>17250</v>
+      <c r="K79" s="10">
+        <f t="shared" si="33"/>
+        <v>450000</v>
+      </c>
+      <c r="L79" s="10">
+        <v>120000</v>
+      </c>
+      <c r="M79" s="15">
+        <f t="shared" si="13"/>
+        <v>570000</v>
       </c>
     </row>
     <row r="80" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
@@ -6220,13 +7283,19 @@
       <c r="H80" s="10"/>
       <c r="I80" s="10"/>
       <c r="J80" s="10"/>
-      <c r="K80" s="10"/>
-      <c r="L80" s="10"/>
-      <c r="M80" s="10">
+      <c r="K80" s="10">
+        <f t="shared" si="33"/>
+        <v>200000</v>
+      </c>
+      <c r="L80" s="10">
         <v>150000</v>
       </c>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M80" s="15">
+        <f t="shared" si="13"/>
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="18" t="s">
         <v>81</v>
       </c>
@@ -6242,9 +7311,8 @@
       <c r="K81" s="18"/>
       <c r="L81" s="18"/>
       <c r="M81" s="18"/>
-      <c r="N81" s="18"/>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="22" t="s">
         <v>82</v>
       </c>
@@ -6260,9 +7328,8 @@
       <c r="K82" s="5"/>
       <c r="L82" s="5"/>
       <c r="M82" s="5"/>
-      <c r="N82" s="5"/>
-    </row>
-    <row r="83" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A83" s="6">
         <v>1</v>
       </c>
@@ -6278,18 +7345,37 @@
       <c r="E83" s="10">
         <v>0</v>
       </c>
-      <c r="F83" s="10"/>
-      <c r="G83" s="10"/>
-      <c r="H83" s="10"/>
-      <c r="I83" s="10"/>
-      <c r="J83" s="10"/>
-      <c r="K83" s="10"/>
+      <c r="F83" s="10">
+        <f t="shared" ref="F83:F85" si="39">E83*30%</f>
+        <v>0</v>
+      </c>
+      <c r="G83" s="10">
+        <f t="shared" ref="G83:G85" si="40">E83*25%</f>
+        <v>0</v>
+      </c>
+      <c r="H83" s="10">
+        <f t="shared" ref="H83:H85" si="41">E83*20%</f>
+        <v>0</v>
+      </c>
+      <c r="I83" s="10">
+        <f t="shared" ref="I83:I85" si="42">E83*5%</f>
+        <v>0</v>
+      </c>
+      <c r="J83" s="10">
+        <f t="shared" ref="J83:J85" si="43">E83*10%</f>
+        <v>0</v>
+      </c>
+      <c r="K83" s="10">
+        <f t="shared" ref="K83:K85" si="44">SUM(E83:J83)</f>
+        <v>0</v>
+      </c>
       <c r="L83" s="10"/>
-      <c r="M83" s="10">
-        <v>69000</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M83" s="15">
+        <f t="shared" ref="M83:M98" si="45">L83+K83</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="6">
         <v>2</v>
       </c>
@@ -6302,21 +7388,38 @@
       <c r="D84" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E84" s="10">
-        <v>155250</v>
-      </c>
-      <c r="F84" s="10"/>
-      <c r="G84" s="10"/>
-      <c r="H84" s="10"/>
-      <c r="I84" s="10"/>
-      <c r="J84" s="10"/>
-      <c r="K84" s="10"/>
+      <c r="E84" s="10"/>
+      <c r="F84" s="10">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="G84" s="10">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="H84" s="10">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="I84" s="10">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="J84" s="10">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="K84" s="10">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
       <c r="L84" s="10"/>
-      <c r="M84" s="10">
-        <v>13800</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14" ht="126" x14ac:dyDescent="0.25">
+      <c r="M84" s="15">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" ht="126" x14ac:dyDescent="0.25">
       <c r="A85" s="6">
         <v>3</v>
       </c>
@@ -6330,18 +7433,37 @@
         <v>8</v>
       </c>
       <c r="E85" s="10"/>
-      <c r="F85" s="10"/>
-      <c r="G85" s="10"/>
-      <c r="H85" s="10"/>
-      <c r="I85" s="10"/>
-      <c r="J85" s="10"/>
-      <c r="K85" s="10"/>
+      <c r="F85" s="10">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="G85" s="10">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="H85" s="10">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="I85" s="10">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="J85" s="10">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="K85" s="10">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
       <c r="L85" s="10"/>
-      <c r="M85" s="10">
-        <v>40250</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M85" s="15">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="6">
         <v>4</v>
       </c>
@@ -6358,9 +7480,12 @@
       <c r="J86" s="5"/>
       <c r="K86" s="5"/>
       <c r="L86" s="5"/>
-      <c r="M86" s="5"/>
-    </row>
-    <row r="87" spans="1:14" ht="178.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M86" s="15">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" ht="178.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
         <v>43</v>
       </c>
@@ -6377,9 +7502,12 @@
       <c r="J87" s="5"/>
       <c r="K87" s="5"/>
       <c r="L87" s="5"/>
-      <c r="M87" s="5"/>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M87" s="15">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
         <v>12</v>
       </c>
@@ -6387,26 +7515,41 @@
         <v>44</v>
       </c>
       <c r="C88" s="6">
-        <v>330</v>
+        <v>60</v>
       </c>
       <c r="D88" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E88" s="10">
-        <v>950</v>
-      </c>
-      <c r="F88" s="10"/>
-      <c r="G88" s="10"/>
+        <v>579</v>
+      </c>
+      <c r="F88" s="10">
+        <v>232</v>
+      </c>
+      <c r="G88" s="10">
+        <v>174</v>
+      </c>
       <c r="H88" s="10"/>
-      <c r="I88" s="10"/>
-      <c r="J88" s="10"/>
-      <c r="K88" s="10"/>
-      <c r="L88" s="10"/>
-      <c r="M88" s="10">
+      <c r="I88" s="10">
+        <f t="shared" ref="I88:I93" si="46">E88*5%</f>
+        <v>28.950000000000003</v>
+      </c>
+      <c r="J88" s="10">
+        <v>116</v>
+      </c>
+      <c r="K88" s="10">
+        <f t="shared" ref="K88:K93" si="47">SUM(E88:J88)</f>
+        <v>1129.95</v>
+      </c>
+      <c r="L88" s="10">
         <v>200</v>
       </c>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M88" s="15">
+        <f t="shared" si="45"/>
+        <v>1329.95</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
         <v>45</v>
       </c>
@@ -6414,26 +7557,41 @@
         <v>46</v>
       </c>
       <c r="C89" s="6">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="D89" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E89" s="10">
-        <v>815</v>
-      </c>
-      <c r="F89" s="10"/>
-      <c r="G89" s="10"/>
+        <v>368</v>
+      </c>
+      <c r="F89" s="10">
+        <v>147</v>
+      </c>
+      <c r="G89" s="10">
+        <v>110</v>
+      </c>
       <c r="H89" s="10"/>
-      <c r="I89" s="10"/>
-      <c r="J89" s="10"/>
-      <c r="K89" s="10"/>
-      <c r="L89" s="10"/>
-      <c r="M89" s="10">
+      <c r="I89" s="10">
+        <f t="shared" si="46"/>
+        <v>18.400000000000002</v>
+      </c>
+      <c r="J89" s="10">
+        <v>74</v>
+      </c>
+      <c r="K89" s="10">
+        <f t="shared" si="47"/>
+        <v>717.4</v>
+      </c>
+      <c r="L89" s="10">
         <v>200</v>
       </c>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M89" s="15">
+        <f t="shared" si="45"/>
+        <v>917.4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
         <v>47</v>
       </c>
@@ -6441,26 +7599,41 @@
         <v>48</v>
       </c>
       <c r="C90" s="6">
-        <v>420</v>
+        <v>50</v>
       </c>
       <c r="D90" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E90" s="10">
-        <v>550</v>
-      </c>
-      <c r="F90" s="10"/>
-      <c r="G90" s="10"/>
+        <v>233</v>
+      </c>
+      <c r="F90" s="10">
+        <v>93</v>
+      </c>
+      <c r="G90" s="10">
+        <v>70</v>
+      </c>
       <c r="H90" s="10"/>
-      <c r="I90" s="10"/>
-      <c r="J90" s="10"/>
-      <c r="K90" s="10"/>
-      <c r="L90" s="10"/>
-      <c r="M90" s="10">
+      <c r="I90" s="10">
+        <f t="shared" si="46"/>
+        <v>11.65</v>
+      </c>
+      <c r="J90" s="10">
+        <v>47</v>
+      </c>
+      <c r="K90" s="10">
+        <f t="shared" si="47"/>
+        <v>454.65</v>
+      </c>
+      <c r="L90" s="10">
         <v>200</v>
       </c>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M90" s="15">
+        <f t="shared" si="45"/>
+        <v>654.65</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
         <v>49</v>
       </c>
@@ -6468,26 +7641,41 @@
         <v>50</v>
       </c>
       <c r="C91" s="6">
-        <v>320</v>
+        <v>60</v>
       </c>
       <c r="D91" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E91" s="10">
-        <v>280</v>
-      </c>
-      <c r="F91" s="10"/>
-      <c r="G91" s="10"/>
+        <v>152</v>
+      </c>
+      <c r="F91" s="10">
+        <v>61</v>
+      </c>
+      <c r="G91" s="10">
+        <v>60</v>
+      </c>
       <c r="H91" s="10"/>
-      <c r="I91" s="10"/>
-      <c r="J91" s="10"/>
-      <c r="K91" s="10"/>
-      <c r="L91" s="10"/>
-      <c r="M91" s="10">
+      <c r="I91" s="10">
+        <f t="shared" si="46"/>
+        <v>7.6000000000000005</v>
+      </c>
+      <c r="J91" s="10">
+        <v>30</v>
+      </c>
+      <c r="K91" s="10">
+        <f t="shared" si="47"/>
+        <v>310.60000000000002</v>
+      </c>
+      <c r="L91" s="10">
         <v>200</v>
       </c>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M91" s="15">
+        <f t="shared" si="45"/>
+        <v>510.6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
         <v>51</v>
       </c>
@@ -6495,26 +7683,41 @@
         <v>52</v>
       </c>
       <c r="C92" s="6">
-        <v>260</v>
+        <v>40</v>
       </c>
       <c r="D92" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E92" s="10">
-        <v>184</v>
-      </c>
-      <c r="F92" s="10"/>
-      <c r="G92" s="10"/>
+        <v>93</v>
+      </c>
+      <c r="F92" s="10">
+        <v>37</v>
+      </c>
+      <c r="G92" s="10">
+        <v>50</v>
+      </c>
       <c r="H92" s="10"/>
-      <c r="I92" s="10"/>
-      <c r="J92" s="10"/>
-      <c r="K92" s="10"/>
-      <c r="L92" s="10"/>
-      <c r="M92" s="10">
+      <c r="I92" s="10">
+        <f t="shared" si="46"/>
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="J92" s="10">
+        <v>19</v>
+      </c>
+      <c r="K92" s="10">
+        <f t="shared" si="47"/>
+        <v>203.65</v>
+      </c>
+      <c r="L92" s="10">
         <v>196</v>
       </c>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M92" s="15">
+        <f t="shared" si="45"/>
+        <v>399.65</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
         <v>53</v>
       </c>
@@ -6522,26 +7725,41 @@
         <v>54</v>
       </c>
       <c r="C93" s="6">
-        <v>800</v>
+        <v>270</v>
       </c>
       <c r="D93" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E93" s="10">
-        <v>167</v>
-      </c>
-      <c r="F93" s="10"/>
-      <c r="G93" s="10"/>
+        <v>60</v>
+      </c>
+      <c r="F93" s="10">
+        <v>24</v>
+      </c>
+      <c r="G93" s="10">
+        <v>40</v>
+      </c>
       <c r="H93" s="10"/>
-      <c r="I93" s="10"/>
-      <c r="J93" s="10"/>
-      <c r="K93" s="10"/>
-      <c r="L93" s="10"/>
-      <c r="M93" s="10">
+      <c r="I93" s="10">
+        <f t="shared" si="46"/>
+        <v>3</v>
+      </c>
+      <c r="J93" s="10">
+        <v>12</v>
+      </c>
+      <c r="K93" s="10">
+        <f t="shared" si="47"/>
+        <v>139</v>
+      </c>
+      <c r="L93" s="10">
         <v>125</v>
       </c>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M93" s="15">
+        <f t="shared" si="45"/>
+        <v>264</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="6">
         <v>5</v>
       </c>
@@ -6558,9 +7776,12 @@
       <c r="J94" s="5"/>
       <c r="K94" s="5"/>
       <c r="L94" s="5"/>
-      <c r="M94" s="5"/>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M94" s="15">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
         <v>12</v>
       </c>
@@ -6568,26 +7789,42 @@
         <v>44</v>
       </c>
       <c r="C95" s="6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D95" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E95" s="10">
-        <v>38000</v>
-      </c>
-      <c r="F95" s="10"/>
-      <c r="G95" s="10"/>
-      <c r="H95" s="10"/>
+        <v>13250</v>
+      </c>
+      <c r="F95" s="10">
+        <f t="shared" ref="F95:F98" si="48">E95*30%</f>
+        <v>3975</v>
+      </c>
+      <c r="G95" s="10">
+        <v>3975</v>
+      </c>
+      <c r="H95" s="10">
+        <f t="shared" ref="H95:H98" si="49">E95*20%</f>
+        <v>2650</v>
+      </c>
       <c r="I95" s="10"/>
-      <c r="J95" s="10"/>
-      <c r="K95" s="10"/>
-      <c r="L95" s="10"/>
-      <c r="M95" s="10">
+      <c r="J95" s="10">
+        <v>2650</v>
+      </c>
+      <c r="K95" s="10">
+        <f t="shared" ref="K95:K98" si="50">SUM(E95:J95)</f>
+        <v>26500</v>
+      </c>
+      <c r="L95" s="10">
         <v>2000</v>
       </c>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M95" s="15">
+        <f t="shared" si="45"/>
+        <v>28500</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
         <v>19</v>
       </c>
@@ -6595,26 +7832,42 @@
         <v>86</v>
       </c>
       <c r="C96" s="6">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D96" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E96" s="10">
-        <v>9000</v>
-      </c>
-      <c r="F96" s="10"/>
-      <c r="G96" s="10"/>
-      <c r="H96" s="10"/>
+        <v>6400</v>
+      </c>
+      <c r="F96" s="10">
+        <f t="shared" si="48"/>
+        <v>1920</v>
+      </c>
+      <c r="G96" s="10">
+        <v>1920</v>
+      </c>
+      <c r="H96" s="10">
+        <f t="shared" si="49"/>
+        <v>1280</v>
+      </c>
       <c r="I96" s="10"/>
-      <c r="J96" s="10"/>
-      <c r="K96" s="10"/>
-      <c r="L96" s="10"/>
-      <c r="M96" s="10">
+      <c r="J96" s="10">
+        <v>1280</v>
+      </c>
+      <c r="K96" s="10">
+        <f t="shared" si="50"/>
+        <v>12800</v>
+      </c>
+      <c r="L96" s="10">
         <v>1200</v>
       </c>
-    </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M96" s="15">
+        <f t="shared" si="45"/>
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="6">
         <v>6</v>
       </c>
@@ -6622,26 +7875,42 @@
         <v>65</v>
       </c>
       <c r="C97" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D97" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E97" s="10">
-        <v>23000</v>
-      </c>
-      <c r="F97" s="10"/>
-      <c r="G97" s="10"/>
-      <c r="H97" s="10"/>
+        <v>12880</v>
+      </c>
+      <c r="F97" s="10">
+        <f t="shared" si="48"/>
+        <v>3864</v>
+      </c>
+      <c r="G97" s="10">
+        <v>3864</v>
+      </c>
+      <c r="H97" s="10">
+        <f t="shared" si="49"/>
+        <v>2576</v>
+      </c>
       <c r="I97" s="10"/>
-      <c r="J97" s="10"/>
-      <c r="K97" s="10"/>
-      <c r="L97" s="10"/>
-      <c r="M97" s="10">
+      <c r="J97" s="10">
+        <v>2576</v>
+      </c>
+      <c r="K97" s="10">
+        <f t="shared" si="50"/>
+        <v>25760</v>
+      </c>
+      <c r="L97" s="10">
         <v>2000</v>
       </c>
-    </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M97" s="15">
+        <f t="shared" si="45"/>
+        <v>27760</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="6">
         <v>7</v>
       </c>
@@ -6649,26 +7918,42 @@
         <v>67</v>
       </c>
       <c r="C98" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D98" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E98" s="10">
-        <v>23000</v>
-      </c>
-      <c r="F98" s="10"/>
-      <c r="G98" s="10"/>
-      <c r="H98" s="10"/>
+        <v>12250</v>
+      </c>
+      <c r="F98" s="10">
+        <f t="shared" si="48"/>
+        <v>3675</v>
+      </c>
+      <c r="G98" s="10">
+        <v>3675</v>
+      </c>
+      <c r="H98" s="10">
+        <f t="shared" si="49"/>
+        <v>2450</v>
+      </c>
       <c r="I98" s="10"/>
-      <c r="J98" s="10"/>
-      <c r="K98" s="10"/>
-      <c r="L98" s="10"/>
-      <c r="M98" s="10">
+      <c r="J98" s="10">
+        <v>2450</v>
+      </c>
+      <c r="K98" s="10">
+        <f t="shared" si="50"/>
+        <v>24500</v>
+      </c>
+      <c r="L98" s="10">
         <v>2000</v>
       </c>
-    </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M98" s="15">
+        <f t="shared" si="45"/>
+        <v>26500</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="21" t="s">
         <v>87</v>
       </c>
@@ -6684,9 +7969,8 @@
       <c r="K99" s="17"/>
       <c r="L99" s="17"/>
       <c r="M99" s="17"/>
-      <c r="N99" s="17"/>
-    </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="22" t="s">
         <v>108</v>
       </c>
@@ -6702,9 +7986,8 @@
       <c r="K100" s="5"/>
       <c r="L100" s="5"/>
       <c r="M100" s="5"/>
-      <c r="N100" s="5"/>
-    </row>
-    <row r="101" spans="1:17" ht="47.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A101" s="6">
         <v>1</v>
       </c>
@@ -6725,13 +8008,19 @@
       <c r="H101" s="10"/>
       <c r="I101" s="10"/>
       <c r="J101" s="10"/>
-      <c r="K101" s="10"/>
-      <c r="L101" s="10"/>
-      <c r="M101" s="10">
+      <c r="K101" s="10">
+        <f t="shared" ref="K101:K105" si="51">SUM(E101:J101)</f>
+        <v>132000</v>
+      </c>
+      <c r="L101" s="10">
         <v>60000</v>
       </c>
-    </row>
-    <row r="102" spans="1:17" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M101" s="15">
+        <f t="shared" ref="M101:M105" si="52">L101+K101</f>
+        <v>192000</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="6">
         <v>2</v>
       </c>
@@ -6752,13 +8041,19 @@
       <c r="H102" s="10"/>
       <c r="I102" s="10"/>
       <c r="J102" s="10"/>
-      <c r="K102" s="10"/>
-      <c r="L102" s="10"/>
-      <c r="M102" s="10">
+      <c r="K102" s="10">
+        <f t="shared" si="51"/>
+        <v>300000</v>
+      </c>
+      <c r="L102" s="10">
         <v>50000</v>
       </c>
-    </row>
-    <row r="103" spans="1:17" ht="63" x14ac:dyDescent="0.25">
+      <c r="M102" s="15">
+        <f t="shared" si="52"/>
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" ht="63" x14ac:dyDescent="0.25">
       <c r="A103" s="6">
         <v>3</v>
       </c>
@@ -6779,13 +8074,19 @@
       <c r="H103" s="10"/>
       <c r="I103" s="10"/>
       <c r="J103" s="10"/>
-      <c r="K103" s="10"/>
-      <c r="L103" s="10"/>
-      <c r="M103" s="10">
+      <c r="K103" s="10">
+        <f t="shared" si="51"/>
+        <v>10000</v>
+      </c>
+      <c r="L103" s="10">
         <v>15000</v>
       </c>
-    </row>
-    <row r="104" spans="1:17" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="M103" s="15">
+        <f t="shared" si="52"/>
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A104" s="6">
         <v>4</v>
       </c>
@@ -6806,13 +8107,19 @@
       <c r="H104" s="10"/>
       <c r="I104" s="10"/>
       <c r="J104" s="10"/>
-      <c r="K104" s="10"/>
-      <c r="L104" s="10"/>
-      <c r="M104" s="10">
+      <c r="K104" s="10">
+        <f t="shared" si="51"/>
         <v>150000</v>
       </c>
-    </row>
-    <row r="105" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="L104" s="10">
+        <v>150000</v>
+      </c>
+      <c r="M104" s="15">
+        <f t="shared" si="52"/>
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A105" s="6">
         <v>5</v>
       </c>
@@ -6828,168 +8135,64 @@
       <c r="E105" s="10">
         <v>0</v>
       </c>
-      <c r="F105" s="10"/>
-      <c r="G105" s="10"/>
-      <c r="H105" s="10"/>
-      <c r="I105" s="10"/>
-      <c r="J105" s="10"/>
-      <c r="K105" s="10"/>
-      <c r="L105" s="10"/>
-      <c r="M105" s="10">
+      <c r="F105" s="10">
+        <f t="shared" ref="F101:F105" si="53">E105*30%</f>
+        <v>0</v>
+      </c>
+      <c r="G105" s="10">
+        <f t="shared" ref="G101:G105" si="54">E105*25%</f>
+        <v>0</v>
+      </c>
+      <c r="H105" s="10">
+        <f t="shared" ref="H101:H105" si="55">E105*20%</f>
+        <v>0</v>
+      </c>
+      <c r="I105" s="10">
+        <f t="shared" ref="I101:I105" si="56">E105*5%</f>
+        <v>0</v>
+      </c>
+      <c r="J105" s="10">
+        <f t="shared" ref="J101:J105" si="57">E105*10%</f>
+        <v>0</v>
+      </c>
+      <c r="K105" s="10">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="L105" s="10">
         <v>300000</v>
       </c>
-    </row>
-    <row r="106" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="B106" s="16"/>
-      <c r="C106" s="16"/>
-      <c r="D106" s="16"/>
-      <c r="E106" s="17"/>
-      <c r="F106" s="17"/>
-      <c r="G106" s="17"/>
-      <c r="H106" s="17"/>
-      <c r="I106" s="17"/>
-      <c r="J106" s="17"/>
-      <c r="K106" s="17"/>
-      <c r="L106" s="17"/>
-      <c r="M106" s="17"/>
-      <c r="N106" s="17"/>
-    </row>
-    <row r="107" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="B107" s="16"/>
-      <c r="C107" s="16"/>
-      <c r="D107" s="16"/>
-      <c r="E107" s="17"/>
-      <c r="F107" s="17"/>
-      <c r="G107" s="17"/>
-      <c r="H107" s="17"/>
-      <c r="I107" s="17"/>
-      <c r="J107" s="17"/>
-      <c r="K107" s="17"/>
-      <c r="L107" s="17"/>
-      <c r="M107" s="17"/>
-      <c r="N107" s="17"/>
-      <c r="Q107" s="13"/>
-    </row>
-    <row r="108" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="B108" s="16"/>
-      <c r="C108" s="16"/>
-      <c r="D108" s="16"/>
-      <c r="E108" s="17"/>
-      <c r="F108" s="17"/>
-      <c r="G108" s="17"/>
-      <c r="H108" s="17"/>
-      <c r="I108" s="17"/>
-      <c r="J108" s="17"/>
-      <c r="K108" s="17"/>
-      <c r="L108" s="17"/>
-      <c r="M108" s="17"/>
-      <c r="N108" s="17"/>
-      <c r="Q108" s="13"/>
-    </row>
-    <row r="109" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="B109" s="16"/>
-      <c r="C109" s="16"/>
-      <c r="D109" s="16"/>
-      <c r="E109" s="17"/>
-      <c r="F109" s="17"/>
-      <c r="G109" s="17"/>
-      <c r="H109" s="17"/>
-      <c r="I109" s="17"/>
-      <c r="J109" s="17"/>
-      <c r="K109" s="17"/>
-      <c r="L109" s="17"/>
-      <c r="M109" s="17"/>
-      <c r="N109" s="17"/>
-      <c r="Q109" s="13"/>
-    </row>
-    <row r="110" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="B110" s="16"/>
-      <c r="C110" s="16"/>
-      <c r="D110" s="16"/>
-      <c r="E110" s="17"/>
-      <c r="F110" s="17"/>
-      <c r="G110" s="17"/>
-      <c r="H110" s="17"/>
-      <c r="I110" s="17"/>
-      <c r="J110" s="17"/>
-      <c r="K110" s="17"/>
-      <c r="L110" s="17"/>
-      <c r="M110" s="17"/>
-      <c r="N110" s="17"/>
-      <c r="Q110" s="13"/>
-    </row>
-    <row r="111" spans="1:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="B111" s="16"/>
-      <c r="C111" s="16"/>
-      <c r="D111" s="16"/>
-      <c r="E111" s="17"/>
-      <c r="F111" s="17"/>
-      <c r="G111" s="17"/>
-      <c r="H111" s="17"/>
-      <c r="I111" s="17"/>
-      <c r="J111" s="17"/>
-      <c r="K111" s="17"/>
-      <c r="L111" s="17"/>
-      <c r="M111" s="17"/>
-      <c r="N111" s="17"/>
-      <c r="Q111" s="13"/>
-    </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A112" s="8"/>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" s="8"/>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" s="8"/>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" s="8"/>
+      <c r="M105" s="15">
+        <f t="shared" si="52"/>
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A106" s="8"/>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A107" s="8"/>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A108" s="8"/>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A109" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="A111:D111"/>
-    <mergeCell ref="E111:N111"/>
-    <mergeCell ref="A108:D108"/>
-    <mergeCell ref="E108:N108"/>
-    <mergeCell ref="A109:D109"/>
-    <mergeCell ref="E109:N109"/>
-    <mergeCell ref="A110:D110"/>
-    <mergeCell ref="E110:N110"/>
+  <mergeCells count="9">
+    <mergeCell ref="A82:C82"/>
     <mergeCell ref="A99:D99"/>
-    <mergeCell ref="E99:N99"/>
+    <mergeCell ref="E99:M99"/>
     <mergeCell ref="A100:C100"/>
-    <mergeCell ref="A106:D106"/>
-    <mergeCell ref="E106:N106"/>
-    <mergeCell ref="A107:D107"/>
-    <mergeCell ref="E107:N107"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A19:N19"/>
+    <mergeCell ref="A19:M19"/>
     <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A81:N81"/>
-    <mergeCell ref="A82:C82"/>
+    <mergeCell ref="A81:M81"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0" right="0" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageMargins left="0" right="0" top="0.55118110236220474" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="76" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Running projects/Saifee Hospital Cardiac wing/Revised BOQ.xlsx
+++ b/Running projects/Saifee Hospital Cardiac wing/Revised BOQ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\Saifee Hospital Cardiac wing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C2C01E0-9B20-481F-9760-B350C9FF7272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFB6E359-BFEA-4655-8D61-43914D26EFDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">actual!$2:$3</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">RA!$2:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">RA!$4:$4</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="126">
   <si>
     <t>DESCRIPTION</t>
   </si>
@@ -552,6 +552,9 @@
     <t>Price
 Per Unit</t>
   </si>
+  <si>
+    <t>RATE ANALYSIS 8th TO 11th FLOOR ACCORDING BOQ ITEMS</t>
+  </si>
 </sst>
 </file>
 
@@ -561,7 +564,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -610,6 +613,15 @@
     <font>
       <u/>
       <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="20"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -696,7 +708,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -739,14 +751,23 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="15"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -757,14 +778,8 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1073,7 +1088,7 @@
       <c r="A1" s="8"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="22" t="s">
         <v>107</v>
       </c>
       <c r="B2" s="18" t="s">
@@ -1096,7 +1111,7 @@
       <c r="I2" s="18"/>
     </row>
     <row r="3" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="20"/>
+      <c r="A3" s="23"/>
       <c r="B3" s="18"/>
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
@@ -1117,12 +1132,12 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
@@ -1271,7 +1286,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="23">
+      <c r="A10" s="17">
         <v>5</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -1286,7 +1301,7 @@
       <c r="I10" s="5"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="23"/>
+      <c r="A11" s="17"/>
       <c r="B11" s="5" t="s">
         <v>15</v>
       </c>
@@ -1560,10 +1575,10 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="22"/>
+      <c r="B21" s="19"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="5"/>
@@ -3348,11 +3363,11 @@
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="22" t="s">
+      <c r="A83" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="B83" s="22"/>
-      <c r="C83" s="22"/>
+      <c r="B83" s="19"/>
+      <c r="C83" s="19"/>
       <c r="D83" s="6"/>
       <c r="E83" s="5"/>
       <c r="F83" s="5"/>
@@ -3820,14 +3835,14 @@
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A100" s="21" t="s">
+      <c r="A100" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="B100" s="21"/>
-      <c r="C100" s="21"/>
-      <c r="D100" s="21"/>
-      <c r="E100" s="17"/>
-      <c r="F100" s="17"/>
+      <c r="B100" s="24"/>
+      <c r="C100" s="24"/>
+      <c r="D100" s="24"/>
+      <c r="E100" s="21"/>
+      <c r="F100" s="21"/>
       <c r="G100" s="12">
         <f t="shared" ref="G100:H100" si="73">SUM(G84:G99)</f>
         <v>1805290</v>
@@ -3842,11 +3857,11 @@
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A101" s="22" t="s">
+      <c r="A101" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="B101" s="22"/>
-      <c r="C101" s="22"/>
+      <c r="B101" s="19"/>
+      <c r="C101" s="19"/>
       <c r="D101" s="6"/>
       <c r="E101" s="5"/>
       <c r="F101" s="5"/>
@@ -4015,14 +4030,14 @@
       </c>
     </row>
     <row r="107" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="16" t="s">
+      <c r="A107" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="B107" s="16"/>
-      <c r="C107" s="16"/>
-      <c r="D107" s="16"/>
-      <c r="E107" s="17"/>
-      <c r="F107" s="17"/>
+      <c r="B107" s="20"/>
+      <c r="C107" s="20"/>
+      <c r="D107" s="20"/>
+      <c r="E107" s="21"/>
+      <c r="F107" s="21"/>
       <c r="G107" s="12">
         <f t="shared" ref="G107:H107" si="77">SUM(G102:G106)</f>
         <v>622000</v>
@@ -4037,14 +4052,14 @@
       </c>
     </row>
     <row r="108" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="16" t="s">
+      <c r="A108" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="B108" s="16"/>
-      <c r="C108" s="16"/>
-      <c r="D108" s="16"/>
-      <c r="E108" s="17"/>
-      <c r="F108" s="17"/>
+      <c r="B108" s="20"/>
+      <c r="C108" s="20"/>
+      <c r="D108" s="20"/>
+      <c r="E108" s="21"/>
+      <c r="F108" s="21"/>
       <c r="G108" s="12">
         <f>G107+G100+G82+G20</f>
         <v>30894130</v>
@@ -4060,14 +4075,14 @@
       <c r="L108" s="13"/>
     </row>
     <row r="109" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="16" t="s">
+      <c r="A109" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="B109" s="16"/>
-      <c r="C109" s="16"/>
-      <c r="D109" s="16"/>
-      <c r="E109" s="17"/>
-      <c r="F109" s="17"/>
+      <c r="B109" s="20"/>
+      <c r="C109" s="20"/>
+      <c r="D109" s="20"/>
+      <c r="E109" s="21"/>
+      <c r="F109" s="21"/>
       <c r="G109" s="12"/>
       <c r="H109" s="12">
         <f>H108*13%</f>
@@ -4080,14 +4095,14 @@
       <c r="L109" s="13"/>
     </row>
     <row r="110" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="16" t="s">
+      <c r="A110" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="B110" s="16"/>
-      <c r="C110" s="16"/>
-      <c r="D110" s="16"/>
-      <c r="E110" s="17"/>
-      <c r="F110" s="17"/>
+      <c r="B110" s="20"/>
+      <c r="C110" s="20"/>
+      <c r="D110" s="20"/>
+      <c r="E110" s="21"/>
+      <c r="F110" s="21"/>
       <c r="G110" s="12">
         <f>G109+G108</f>
         <v>30894130</v>
@@ -4103,14 +4118,14 @@
       <c r="L110" s="13"/>
     </row>
     <row r="111" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="16" t="s">
+      <c r="A111" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="B111" s="16"/>
-      <c r="C111" s="16"/>
-      <c r="D111" s="16"/>
-      <c r="E111" s="17"/>
-      <c r="F111" s="17"/>
+      <c r="B111" s="20"/>
+      <c r="C111" s="20"/>
+      <c r="D111" s="20"/>
+      <c r="E111" s="21"/>
+      <c r="F111" s="21"/>
       <c r="G111" s="12"/>
       <c r="H111" s="12"/>
       <c r="I111" s="12">
@@ -4120,14 +4135,14 @@
       <c r="L111" s="13"/>
     </row>
     <row r="112" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="16" t="s">
+      <c r="A112" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="B112" s="16"/>
-      <c r="C112" s="16"/>
-      <c r="D112" s="16"/>
-      <c r="E112" s="17"/>
-      <c r="F112" s="17"/>
+      <c r="B112" s="20"/>
+      <c r="C112" s="20"/>
+      <c r="D112" s="20"/>
+      <c r="E112" s="21"/>
+      <c r="F112" s="21"/>
       <c r="G112" s="12"/>
       <c r="H112" s="12"/>
       <c r="I112" s="12">
@@ -4150,11 +4165,12 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A111:D111"/>
+    <mergeCell ref="E111:F111"/>
+    <mergeCell ref="A112:D112"/>
+    <mergeCell ref="E112:F112"/>
+    <mergeCell ref="A110:D110"/>
+    <mergeCell ref="E110:F110"/>
     <mergeCell ref="A109:D109"/>
     <mergeCell ref="E109:F109"/>
     <mergeCell ref="A108:D108"/>
@@ -4171,12 +4187,11 @@
     <mergeCell ref="A82:F82"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A20:F20"/>
-    <mergeCell ref="A111:D111"/>
-    <mergeCell ref="E111:F111"/>
-    <mergeCell ref="A112:D112"/>
-    <mergeCell ref="E112:F112"/>
-    <mergeCell ref="A110:D110"/>
-    <mergeCell ref="E110:F110"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="A4:D4"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -4186,11 +4201,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97ECFA02-E1E8-4B0F-8768-FDCE7C2D2661}">
-  <dimension ref="A1:M109"/>
+  <dimension ref="A1:M111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4216,301 +4231,235 @@
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="8"/>
     </row>
-    <row r="2" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
+    </row>
+    <row r="4" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="M2" s="24" t="s">
+      <c r="M4" s="16" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-    </row>
-    <row r="4" spans="1:13" ht="111.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="1:13" ht="111.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B6" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C4" s="6">
-        <v>0</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="C6" s="6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10">
-        <f>E4*30%</f>
-        <v>0</v>
-      </c>
-      <c r="G4" s="10">
-        <f>E4*25%</f>
-        <v>0</v>
-      </c>
-      <c r="H4" s="10">
-        <f>E4*20%</f>
-        <v>0</v>
-      </c>
-      <c r="I4" s="10">
-        <f>E4*5%</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="10">
-        <f>E4*10%</f>
-        <v>0</v>
-      </c>
-      <c r="K4" s="10">
-        <f>SUM(E4:J4)</f>
-        <v>0</v>
-      </c>
-      <c r="L4" s="10">
+      <c r="E6" s="10"/>
+      <c r="F6" s="10">
+        <f>E6*30%</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="10">
+        <f>E6*25%</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="10">
+        <f>E6*20%</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="10">
+        <f>E6*5%</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="10">
+        <f>E6*10%</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="10">
+        <f>SUM(E6:J6)</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="10">
         <v>172000</v>
       </c>
-      <c r="M4" s="15">
-        <f>L4+K4</f>
+      <c r="M6" s="15">
+        <f>L6+K6</f>
         <v>172000</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+    <row r="7" spans="1:13" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B7" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C5" s="6">
-        <v>0</v>
-      </c>
-      <c r="D5" s="6" t="s">
+      <c r="C7" s="6">
+        <v>0</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="10">
-        <v>0</v>
-      </c>
-      <c r="F5" s="10">
-        <f t="shared" ref="F5:F18" si="0">E5*30%</f>
-        <v>0</v>
-      </c>
-      <c r="G5" s="10">
-        <f t="shared" ref="G5:G18" si="1">E5*25%</f>
-        <v>0</v>
-      </c>
-      <c r="H5" s="10">
-        <f t="shared" ref="H5:H18" si="2">E5*20%</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="10">
-        <f t="shared" ref="I5:I18" si="3">E5*5%</f>
-        <v>0</v>
-      </c>
-      <c r="J5" s="10">
-        <f t="shared" ref="J5:J18" si="4">E5*10%</f>
-        <v>0</v>
-      </c>
-      <c r="K5" s="10">
-        <f t="shared" ref="K5:K18" si="5">SUM(E5:J5)</f>
-        <v>0</v>
-      </c>
-      <c r="L5" s="10">
+      <c r="E7" s="10">
+        <v>0</v>
+      </c>
+      <c r="F7" s="10">
+        <f t="shared" ref="F7:F20" si="0">E7*30%</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="10">
+        <f t="shared" ref="G7:G20" si="1">E7*25%</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="10">
+        <f t="shared" ref="H7:H20" si="2">E7*20%</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="10">
+        <f t="shared" ref="I7:I20" si="3">E7*5%</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="10">
+        <f t="shared" ref="J7:J20" si="4">E7*10%</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="10">
+        <f t="shared" ref="K7:K20" si="5">SUM(E7:J7)</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="10">
         <v>19550</v>
       </c>
-      <c r="M5" s="15">
-        <f t="shared" ref="M5:M18" si="6">L5+K5</f>
+      <c r="M7" s="15">
+        <f t="shared" ref="M7:M20" si="6">L7+K7</f>
         <v>19550</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+    <row r="8" spans="1:13" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
         <v>3</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="6">
-        <v>0</v>
-      </c>
-      <c r="D6" s="6" t="s">
+      <c r="C8" s="6">
+        <v>0</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="10">
-        <v>0</v>
-      </c>
-      <c r="F6" s="10">
+      <c r="E8" s="10">
+        <v>0</v>
+      </c>
+      <c r="F8" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G8" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H8" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I8" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J6" s="10">
+      <c r="J8" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K6" s="10">
+      <c r="K8" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L6" s="10">
+      <c r="L8" s="10">
         <v>5405</v>
       </c>
-      <c r="M6" s="15">
+      <c r="M8" s="15">
         <f t="shared" si="6"/>
         <v>5405</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+    <row r="9" spans="1:13" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
         <v>4</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G7" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H7" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I7" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J7" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K7" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L7" s="5"/>
-      <c r="M7" s="15">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="6">
-        <v>0</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="10">
-        <v>0</v>
-      </c>
-      <c r="F8" s="10">
-        <v>3600</v>
-      </c>
-      <c r="G8" s="10">
-        <v>900</v>
-      </c>
-      <c r="H8" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I8" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J8" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K8" s="10">
-        <f t="shared" si="5"/>
-        <v>4500</v>
-      </c>
-      <c r="L8" s="10">
-        <v>5175</v>
-      </c>
-      <c r="M8" s="15">
-        <f t="shared" si="6"/>
-        <v>9675</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="23">
-        <v>5</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
       <c r="E9" s="5"/>
       <c r="F9" s="10">
         <f t="shared" si="0"/>
@@ -4543,9 +4492,11 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="23"/>
+      <c r="A10" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="B10" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C10" s="6">
         <v>0</v>
@@ -4554,577 +4505,569 @@
         <v>9</v>
       </c>
       <c r="E10" s="10">
+        <v>0</v>
+      </c>
+      <c r="F10" s="10">
+        <v>3600</v>
+      </c>
+      <c r="G10" s="10">
+        <v>900</v>
+      </c>
+      <c r="H10" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="10">
+        <f t="shared" si="5"/>
+        <v>4500</v>
+      </c>
+      <c r="L10" s="10">
+        <v>5175</v>
+      </c>
+      <c r="M10" s="15">
+        <f t="shared" si="6"/>
+        <v>9675</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="17">
+        <v>5</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L11" s="5"/>
+      <c r="M11" s="15">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="17"/>
+      <c r="B12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="6">
+        <v>0</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="10">
         <v>17250</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F12" s="10">
         <f t="shared" si="0"/>
         <v>5175</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G12" s="10">
         <f t="shared" si="1"/>
         <v>4312.5</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H12" s="10">
         <f t="shared" si="2"/>
         <v>3450</v>
       </c>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10">
+      <c r="I12" s="10"/>
+      <c r="J12" s="10">
         <f t="shared" si="4"/>
         <v>1725</v>
       </c>
-      <c r="K10" s="10">
+      <c r="K12" s="10">
         <f t="shared" si="5"/>
         <v>31912.5</v>
       </c>
-      <c r="L10" s="10">
+      <c r="L12" s="10">
         <v>4500</v>
       </c>
-      <c r="M10" s="15">
+      <c r="M12" s="15">
         <f t="shared" si="6"/>
         <v>36412.5</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+    <row r="13" spans="1:13" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
         <v>6</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C13" s="6">
         <v>1</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D13" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="10">
-        <v>0</v>
-      </c>
-      <c r="F11" s="10">
+      <c r="E13" s="10">
+        <v>0</v>
+      </c>
+      <c r="F13" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G13" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H13" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I11" s="10">
+      <c r="I13" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J11" s="10">
+      <c r="J13" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K11" s="10">
+      <c r="K13" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L11" s="10">
+      <c r="L13" s="10">
         <v>17250</v>
       </c>
-      <c r="M11" s="15">
+      <c r="M13" s="15">
         <f t="shared" si="6"/>
         <v>17250</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
+    <row r="14" spans="1:13" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
         <v>7</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B14" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="10">
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G14" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H14" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I12" s="10">
+      <c r="I14" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J12" s="10">
+      <c r="J14" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K12" s="10">
+      <c r="K14" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L12" s="5"/>
-      <c r="M12" s="15">
-        <f>L12+K12</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="L14" s="5"/>
+      <c r="M14" s="15">
+        <f>L14+K14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B15" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C15" s="6">
         <v>360</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D15" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E15" s="10">
         <v>2500</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F15" s="10">
         <f t="shared" si="0"/>
         <v>750</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G15" s="10">
         <f t="shared" si="1"/>
         <v>625</v>
       </c>
-      <c r="H13" s="10">
+      <c r="H15" s="10">
         <f t="shared" si="2"/>
         <v>500</v>
       </c>
-      <c r="I13" s="10">
+      <c r="I15" s="10">
         <f t="shared" si="3"/>
         <v>125</v>
       </c>
-      <c r="J13" s="10">
+      <c r="J15" s="10">
         <f t="shared" si="4"/>
         <v>250</v>
       </c>
-      <c r="K13" s="10">
+      <c r="K15" s="10">
         <f t="shared" si="5"/>
         <v>4750</v>
       </c>
-      <c r="L13" s="10">
+      <c r="L15" s="10">
         <v>600</v>
       </c>
-      <c r="M13" s="15">
+      <c r="M15" s="15">
         <f t="shared" si="6"/>
         <v>5350</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C16" s="6">
         <v>350</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D16" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E16" s="10">
         <v>970</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F16" s="10">
         <f t="shared" si="0"/>
         <v>291</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G16" s="10">
         <f t="shared" si="1"/>
         <v>242.5</v>
       </c>
-      <c r="H14" s="10">
+      <c r="H16" s="10">
         <f t="shared" si="2"/>
         <v>194</v>
       </c>
-      <c r="I14" s="10">
+      <c r="I16" s="10">
         <f t="shared" si="3"/>
         <v>48.5</v>
       </c>
-      <c r="J14" s="10">
+      <c r="J16" s="10">
         <f t="shared" si="4"/>
         <v>97</v>
       </c>
-      <c r="K14" s="10">
+      <c r="K16" s="10">
         <f t="shared" si="5"/>
         <v>1843</v>
       </c>
-      <c r="L14" s="10">
+      <c r="L16" s="10">
         <v>350</v>
       </c>
-      <c r="M14" s="15">
+      <c r="M16" s="15">
         <f t="shared" si="6"/>
         <v>2193</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
+    <row r="17" spans="1:13" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
         <v>8</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B17" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C17" s="6">
         <v>1</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D17" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E17" s="10">
         <v>195500</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F17" s="10">
         <v>40000</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G17" s="10">
         <v>10000</v>
       </c>
-      <c r="H15" s="10">
+      <c r="H17" s="10">
         <v>15000</v>
       </c>
-      <c r="I15" s="10">
+      <c r="I17" s="10">
         <v>10000</v>
       </c>
-      <c r="J15" s="10">
+      <c r="J17" s="10">
         <v>10000</v>
       </c>
-      <c r="K15" s="10">
+      <c r="K17" s="10">
         <f t="shared" si="5"/>
         <v>280500</v>
       </c>
-      <c r="L15" s="10">
+      <c r="L17" s="10">
         <v>20700</v>
       </c>
-      <c r="M15" s="15">
+      <c r="M17" s="15">
         <f t="shared" si="6"/>
         <v>301200</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
+    <row r="18" spans="1:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
         <v>9</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B18" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="10">
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G16" s="10">
+      <c r="G18" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H16" s="10">
+      <c r="H18" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I16" s="10">
+      <c r="I18" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J16" s="10">
+      <c r="J18" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K16" s="10">
+      <c r="K18" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L16" s="5"/>
-      <c r="M16" s="15">
+      <c r="L18" s="5"/>
+      <c r="M18" s="15">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+    <row r="19" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B19" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C19" s="6">
         <v>22</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D19" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10">
+      <c r="E19" s="10"/>
+      <c r="F19" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G17" s="10">
+      <c r="G19" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H17" s="10">
+      <c r="H19" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I17" s="10">
+      <c r="I19" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J17" s="10">
+      <c r="J19" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K17" s="10">
+      <c r="K19" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L17" s="10">
+      <c r="L19" s="10">
         <v>1000</v>
       </c>
-      <c r="M17" s="15">
+      <c r="M19" s="15">
         <f t="shared" si="6"/>
         <v>1000</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B20" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C20" s="6">
         <v>22</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D20" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10">
+      <c r="E20" s="10"/>
+      <c r="F20" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G18" s="10">
+      <c r="G20" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H18" s="10">
+      <c r="H20" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I18" s="10">
+      <c r="I20" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J18" s="10">
+      <c r="J20" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="K18" s="10">
+      <c r="K20" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L18" s="10">
+      <c r="L20" s="10">
         <v>1000</v>
       </c>
-      <c r="M18" s="15">
+      <c r="M20" s="15">
         <f t="shared" si="6"/>
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="18" t="s">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="18"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="22" t="s">
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="22"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-    </row>
-    <row r="21" spans="1:13" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
+      <c r="B22" s="19"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+    </row>
+    <row r="23" spans="1:13" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
         <v>1</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B23" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C23" s="6">
         <v>2</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10">
-        <f t="shared" ref="F21:F36" si="7">E21*30%</f>
-        <v>0</v>
-      </c>
-      <c r="G21" s="10">
-        <f t="shared" ref="G21" si="8">E21*25%</f>
-        <v>0</v>
-      </c>
-      <c r="H21" s="10">
-        <f t="shared" ref="H21" si="9">E21*20%</f>
-        <v>0</v>
-      </c>
-      <c r="I21" s="10">
-        <f t="shared" ref="I21" si="10">E21*5%</f>
-        <v>0</v>
-      </c>
-      <c r="J21" s="10">
-        <f t="shared" ref="J21" si="11">E21*10%</f>
-        <v>0</v>
-      </c>
-      <c r="K21" s="10">
-        <f t="shared" ref="K21" si="12">SUM(E21:J21)</f>
-        <v>0</v>
-      </c>
-      <c r="L21" s="10">
-        <v>17250</v>
-      </c>
-      <c r="M21" s="15">
-        <f t="shared" ref="M21:M80" si="13">L21+K21</f>
-        <v>17250</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
-        <v>2</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="6">
-        <v>5</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="G22" s="10">
-        <f t="shared" ref="G22:G36" si="14">E22*25%</f>
-        <v>0</v>
-      </c>
-      <c r="H22" s="10">
-        <f t="shared" ref="H22:H36" si="15">E22*20%</f>
-        <v>0</v>
-      </c>
-      <c r="I22" s="10">
-        <f t="shared" ref="I22:I36" si="16">E22*5%</f>
-        <v>0</v>
-      </c>
-      <c r="J22" s="10">
-        <f t="shared" ref="J22:J36" si="17">E22*10%</f>
-        <v>0</v>
-      </c>
-      <c r="K22" s="10">
-        <f t="shared" ref="K22:K36" si="18">SUM(E22:J22)</f>
-        <v>0</v>
-      </c>
-      <c r="L22" s="10">
-        <v>11500</v>
-      </c>
-      <c r="M22" s="15">
-        <f t="shared" si="13"/>
-        <v>11500</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="63" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
-        <v>3</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C23" s="6">
-        <v>5</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>27</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="F23:F26" si="7">E23*30%</f>
         <v>0</v>
       </c>
       <c r="G23" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="G23" si="8">E23*25%</f>
         <v>0</v>
       </c>
       <c r="H23" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="H23" si="9">E23*20%</f>
         <v>0</v>
       </c>
       <c r="I23" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="I23" si="10">E23*5%</f>
         <v>0</v>
       </c>
       <c r="J23" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="J23" si="11">E23*10%</f>
         <v>0</v>
       </c>
       <c r="K23" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="K23" si="12">SUM(E23:J23)</f>
         <v>0</v>
       </c>
       <c r="L23" s="10">
         <v>17250</v>
       </c>
       <c r="M23" s="15">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="M23:M82" si="13">L23+K23</f>
         <v>17250</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C24" s="6">
-        <v>82</v>
+        <v>5</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>27</v>
@@ -5135,520 +5078,524 @@
         <v>0</v>
       </c>
       <c r="G24" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="G24:G26" si="14">E24*25%</f>
         <v>0</v>
       </c>
       <c r="H24" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="H24:H26" si="15">E24*20%</f>
         <v>0</v>
       </c>
       <c r="I24" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="I24:I26" si="16">E24*5%</f>
         <v>0</v>
       </c>
       <c r="J24" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="J24:J38" si="17">E24*10%</f>
         <v>0</v>
       </c>
       <c r="K24" s="10">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="L24" s="10"/>
+        <f t="shared" ref="K24:K38" si="18">SUM(E24:J24)</f>
+        <v>0</v>
+      </c>
+      <c r="L24" s="10">
+        <v>11500</v>
+      </c>
       <c r="M24" s="15">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>11500</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="63" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" s="6">
         <v>5</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" s="6">
-        <v>26</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E25" s="10">
-        <v>44958</v>
-      </c>
+      <c r="E25" s="10"/>
       <c r="F25" s="10">
-        <v>5715</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="G25" s="10">
-        <v>3810</v>
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
       <c r="H25" s="10">
-        <v>3210</v>
-      </c>
-      <c r="I25" s="10"/>
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="10">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
       <c r="J25" s="10">
-        <v>7620</v>
+        <f t="shared" si="17"/>
+        <v>0</v>
       </c>
       <c r="K25" s="10">
         <f t="shared" si="18"/>
-        <v>65313</v>
+        <v>0</v>
       </c>
       <c r="L25" s="10">
-        <v>8000</v>
+        <v>17250</v>
       </c>
       <c r="M25" s="15">
         <f t="shared" si="13"/>
-        <v>73313</v>
+        <v>17250</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C26" s="6">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E26" s="10">
-        <v>11210</v>
-      </c>
+      <c r="E26" s="10"/>
       <c r="F26" s="10">
-        <v>6650</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="G26" s="10">
-        <v>950</v>
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
       <c r="H26" s="10">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="I26" s="10">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J26" s="10">
-        <v>1900</v>
+        <f t="shared" si="17"/>
+        <v>0</v>
       </c>
       <c r="K26" s="10">
         <f t="shared" si="18"/>
-        <v>20710</v>
-      </c>
-      <c r="L26" s="10">
-        <v>5000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L26" s="10"/>
       <c r="M26" s="15">
         <f t="shared" si="13"/>
-        <v>25710</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C27" s="6">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>27</v>
       </c>
       <c r="E27" s="10">
+        <v>44958</v>
+      </c>
+      <c r="F27" s="10">
+        <v>5715</v>
+      </c>
+      <c r="G27" s="10">
+        <v>3810</v>
+      </c>
+      <c r="H27" s="10">
+        <v>3210</v>
+      </c>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10">
+        <v>7620</v>
+      </c>
+      <c r="K27" s="10">
+        <f t="shared" si="18"/>
+        <v>65313</v>
+      </c>
+      <c r="L27" s="10">
+        <v>8000</v>
+      </c>
+      <c r="M27" s="15">
+        <f t="shared" si="13"/>
+        <v>73313</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A28" s="6">
+        <v>6</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="6">
+        <v>30</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="10">
+        <v>11210</v>
+      </c>
+      <c r="F28" s="10">
+        <v>6650</v>
+      </c>
+      <c r="G28" s="10">
+        <v>950</v>
+      </c>
+      <c r="H28" s="10">
+        <v>0</v>
+      </c>
+      <c r="I28" s="10">
+        <v>0</v>
+      </c>
+      <c r="J28" s="10">
+        <v>1900</v>
+      </c>
+      <c r="K28" s="10">
+        <f t="shared" si="18"/>
+        <v>20710</v>
+      </c>
+      <c r="L28" s="10">
+        <v>5000</v>
+      </c>
+      <c r="M28" s="15">
+        <f t="shared" si="13"/>
+        <v>25710</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A29" s="6">
+        <v>7</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="6">
+        <v>2</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" s="10">
         <v>20060</v>
       </c>
-      <c r="F27" s="10">
-        <v>0</v>
-      </c>
-      <c r="G27" s="10">
-        <v>0</v>
-      </c>
-      <c r="H27" s="10">
-        <v>0</v>
-      </c>
-      <c r="I27" s="10">
-        <v>0</v>
-      </c>
-      <c r="J27" s="10">
+      <c r="F29" s="10">
+        <v>0</v>
+      </c>
+      <c r="G29" s="10">
+        <v>0</v>
+      </c>
+      <c r="H29" s="10">
+        <v>0</v>
+      </c>
+      <c r="I29" s="10">
+        <v>0</v>
+      </c>
+      <c r="J29" s="10">
         <f t="shared" si="17"/>
         <v>2006</v>
       </c>
-      <c r="K27" s="10">
+      <c r="K29" s="10">
         <f t="shared" si="18"/>
         <v>22066</v>
       </c>
-      <c r="L27" s="10">
+      <c r="L29" s="10">
         <v>6000</v>
       </c>
-      <c r="M27" s="15">
+      <c r="M29" s="15">
         <f t="shared" si="13"/>
         <v>28066</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A28" s="6">
+    <row r="30" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A30" s="6">
         <v>8</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B30" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C30" s="6">
         <v>30</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D30" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E28" s="10">
+      <c r="E30" s="10">
         <v>1416</v>
       </c>
-      <c r="F28" s="10">
-        <v>0</v>
-      </c>
-      <c r="G28" s="10">
-        <v>0</v>
-      </c>
-      <c r="H28" s="10">
-        <v>0</v>
-      </c>
-      <c r="I28" s="10">
-        <v>0</v>
-      </c>
-      <c r="J28" s="10">
+      <c r="F30" s="10">
+        <v>0</v>
+      </c>
+      <c r="G30" s="10">
+        <v>0</v>
+      </c>
+      <c r="H30" s="10">
+        <v>0</v>
+      </c>
+      <c r="I30" s="10">
+        <v>0</v>
+      </c>
+      <c r="J30" s="10">
         <f t="shared" si="17"/>
         <v>141.6</v>
       </c>
-      <c r="K28" s="10">
+      <c r="K30" s="10">
         <f t="shared" si="18"/>
         <v>1557.6</v>
       </c>
-      <c r="L28" s="10">
+      <c r="L30" s="10">
         <v>300</v>
       </c>
-      <c r="M28" s="15">
+      <c r="M30" s="15">
         <f t="shared" si="13"/>
         <v>1857.6</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="6">
+    <row r="31" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="6">
         <v>9</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B31" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C31" s="6">
         <v>28</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D31" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E29" s="10">
+      <c r="E31" s="10">
         <v>13098</v>
       </c>
-      <c r="F29" s="10">
-        <v>0</v>
-      </c>
-      <c r="G29" s="10">
-        <v>0</v>
-      </c>
-      <c r="H29" s="10">
-        <v>0</v>
-      </c>
-      <c r="I29" s="10">
-        <v>0</v>
-      </c>
-      <c r="J29" s="10">
+      <c r="F31" s="10">
+        <v>0</v>
+      </c>
+      <c r="G31" s="10">
+        <v>0</v>
+      </c>
+      <c r="H31" s="10">
+        <v>0</v>
+      </c>
+      <c r="I31" s="10">
+        <v>0</v>
+      </c>
+      <c r="J31" s="10">
         <f t="shared" si="17"/>
         <v>1309.8000000000002</v>
       </c>
-      <c r="K29" s="10">
+      <c r="K31" s="10">
         <f t="shared" si="18"/>
         <v>14407.8</v>
       </c>
-      <c r="L29" s="10">
+      <c r="L31" s="10">
         <v>700</v>
       </c>
-      <c r="M29" s="15">
+      <c r="M31" s="15">
         <f t="shared" si="13"/>
         <v>15107.8</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A30" s="6">
+    <row r="32" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A32" s="6">
         <v>10</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B32" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C32" s="6">
         <v>64</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D32" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E30" s="10">
+      <c r="E32" s="10">
         <v>2301</v>
       </c>
-      <c r="F30" s="10">
-        <v>0</v>
-      </c>
-      <c r="G30" s="10">
-        <v>0</v>
-      </c>
-      <c r="H30" s="10">
-        <v>0</v>
-      </c>
-      <c r="I30" s="10">
-        <v>0</v>
-      </c>
-      <c r="J30" s="10">
+      <c r="F32" s="10">
+        <v>0</v>
+      </c>
+      <c r="G32" s="10">
+        <v>0</v>
+      </c>
+      <c r="H32" s="10">
+        <v>0</v>
+      </c>
+      <c r="I32" s="10">
+        <v>0</v>
+      </c>
+      <c r="J32" s="10">
         <f t="shared" si="17"/>
         <v>230.10000000000002</v>
       </c>
-      <c r="K30" s="10">
+      <c r="K32" s="10">
         <f t="shared" si="18"/>
         <v>2531.1</v>
       </c>
-      <c r="L30" s="10">
+      <c r="L32" s="10">
         <v>300</v>
       </c>
-      <c r="M30" s="15">
+      <c r="M32" s="15">
         <f t="shared" si="13"/>
         <v>2831.1</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A31" s="6">
+    <row r="33" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A33" s="6">
         <v>11</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B33" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C33" s="6">
         <v>32</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D33" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E31" s="10">
+      <c r="E33" s="10">
         <v>4602</v>
       </c>
-      <c r="F31" s="10">
-        <v>0</v>
-      </c>
-      <c r="G31" s="10">
-        <v>0</v>
-      </c>
-      <c r="H31" s="10">
-        <v>0</v>
-      </c>
-      <c r="I31" s="10">
-        <v>0</v>
-      </c>
-      <c r="J31" s="10">
+      <c r="F33" s="10">
+        <v>0</v>
+      </c>
+      <c r="G33" s="10">
+        <v>0</v>
+      </c>
+      <c r="H33" s="10">
+        <v>0</v>
+      </c>
+      <c r="I33" s="10">
+        <v>0</v>
+      </c>
+      <c r="J33" s="10">
         <f t="shared" si="17"/>
         <v>460.20000000000005</v>
       </c>
-      <c r="K31" s="10">
+      <c r="K33" s="10">
         <f t="shared" si="18"/>
         <v>5062.2</v>
       </c>
-      <c r="L31" s="10">
+      <c r="L33" s="10">
         <v>500</v>
       </c>
-      <c r="M31" s="15">
+      <c r="M33" s="15">
         <f t="shared" si="13"/>
         <v>5562.2</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="6">
+    <row r="34" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="6">
         <v>12</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B34" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C34" s="6">
         <v>28</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="D34" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E32" s="10">
+      <c r="E34" s="10">
         <v>3304</v>
       </c>
-      <c r="F32" s="10">
-        <v>0</v>
-      </c>
-      <c r="G32" s="10">
-        <v>0</v>
-      </c>
-      <c r="H32" s="10">
-        <v>0</v>
-      </c>
-      <c r="I32" s="10">
-        <v>0</v>
-      </c>
-      <c r="J32" s="10">
+      <c r="F34" s="10">
+        <v>0</v>
+      </c>
+      <c r="G34" s="10">
+        <v>0</v>
+      </c>
+      <c r="H34" s="10">
+        <v>0</v>
+      </c>
+      <c r="I34" s="10">
+        <v>0</v>
+      </c>
+      <c r="J34" s="10">
         <f t="shared" si="17"/>
         <v>330.40000000000003</v>
       </c>
-      <c r="K32" s="10">
+      <c r="K34" s="10">
         <f t="shared" si="18"/>
         <v>3634.4</v>
       </c>
-      <c r="L32" s="10">
+      <c r="L34" s="10">
         <v>500</v>
       </c>
-      <c r="M32" s="15">
+      <c r="M34" s="15">
         <f t="shared" si="13"/>
         <v>4134.3999999999996</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="6">
+    <row r="35" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="6">
         <v>13</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B35" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C35" s="6">
         <v>32</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="D35" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E33" s="10">
+      <c r="E35" s="10">
         <v>7670</v>
       </c>
-      <c r="F33" s="10">
-        <v>0</v>
-      </c>
-      <c r="G33" s="10">
-        <v>0</v>
-      </c>
-      <c r="H33" s="10">
-        <v>0</v>
-      </c>
-      <c r="I33" s="10">
-        <v>0</v>
-      </c>
-      <c r="J33" s="10">
+      <c r="F35" s="10">
+        <v>0</v>
+      </c>
+      <c r="G35" s="10">
+        <v>0</v>
+      </c>
+      <c r="H35" s="10">
+        <v>0</v>
+      </c>
+      <c r="I35" s="10">
+        <v>0</v>
+      </c>
+      <c r="J35" s="10">
         <f t="shared" si="17"/>
         <v>767</v>
       </c>
-      <c r="K33" s="10">
+      <c r="K35" s="10">
         <f t="shared" si="18"/>
         <v>8437</v>
       </c>
-      <c r="L33" s="10">
+      <c r="L35" s="10">
         <v>700</v>
       </c>
-      <c r="M33" s="15">
+      <c r="M35" s="15">
         <f t="shared" si="13"/>
         <v>9137</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="6">
+    <row r="36" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="6">
         <v>14</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B36" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C36" s="6">
         <v>32</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E34" s="10">
-        <v>20060</v>
-      </c>
-      <c r="F34" s="10">
-        <v>0</v>
-      </c>
-      <c r="G34" s="10">
-        <v>0</v>
-      </c>
-      <c r="H34" s="10">
-        <v>0</v>
-      </c>
-      <c r="I34" s="10">
-        <v>0</v>
-      </c>
-      <c r="J34" s="10">
-        <f t="shared" si="17"/>
-        <v>2006</v>
-      </c>
-      <c r="K34" s="10">
-        <f t="shared" si="18"/>
-        <v>22066</v>
-      </c>
-      <c r="L34" s="10">
-        <v>1700</v>
-      </c>
-      <c r="M34" s="15">
-        <f t="shared" si="13"/>
-        <v>23766</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="6">
-        <v>15</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C35" s="6">
-        <v>32</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E35" s="10">
-        <v>11682</v>
-      </c>
-      <c r="F35" s="10">
-        <v>0</v>
-      </c>
-      <c r="G35" s="10">
-        <v>0</v>
-      </c>
-      <c r="H35" s="10">
-        <v>0</v>
-      </c>
-      <c r="I35" s="10">
-        <v>0</v>
-      </c>
-      <c r="J35" s="10">
-        <f t="shared" si="17"/>
-        <v>1168.2</v>
-      </c>
-      <c r="K35" s="10">
-        <f t="shared" si="18"/>
-        <v>12850.2</v>
-      </c>
-      <c r="L35" s="10">
-        <v>1200</v>
-      </c>
-      <c r="M35" s="15">
-        <f t="shared" si="13"/>
-        <v>14050.2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="6">
-        <v>16</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C36" s="6">
-        <v>8</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>27</v>
@@ -5677,1074 +5624,1078 @@
         <v>22066</v>
       </c>
       <c r="L36" s="10">
-        <v>2000</v>
+        <v>1700</v>
       </c>
       <c r="M36" s="15">
         <f t="shared" si="13"/>
-        <v>24066</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+        <v>23766</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
-        <v>17</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="5"/>
+        <v>15</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" s="6">
+        <v>32</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E37" s="10">
+        <v>11682</v>
+      </c>
+      <c r="F37" s="10">
+        <v>0</v>
+      </c>
+      <c r="G37" s="10">
+        <v>0</v>
+      </c>
+      <c r="H37" s="10">
+        <v>0</v>
+      </c>
+      <c r="I37" s="10">
+        <v>0</v>
+      </c>
+      <c r="J37" s="10">
+        <f t="shared" si="17"/>
+        <v>1168.2</v>
+      </c>
+      <c r="K37" s="10">
+        <f t="shared" si="18"/>
+        <v>12850.2</v>
+      </c>
+      <c r="L37" s="10">
+        <v>1200</v>
+      </c>
       <c r="M37" s="15">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" ht="195.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
-        <v>43</v>
+        <v>14050.2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="6">
+        <v>16</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="5"/>
+        <v>41</v>
+      </c>
+      <c r="C38" s="6">
+        <v>8</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E38" s="10">
+        <v>20060</v>
+      </c>
+      <c r="F38" s="10">
+        <v>0</v>
+      </c>
+      <c r="G38" s="10">
+        <v>0</v>
+      </c>
+      <c r="H38" s="10">
+        <v>0</v>
+      </c>
+      <c r="I38" s="10">
+        <v>0</v>
+      </c>
+      <c r="J38" s="10">
+        <f t="shared" si="17"/>
+        <v>2006</v>
+      </c>
+      <c r="K38" s="10">
+        <f t="shared" si="18"/>
+        <v>22066</v>
+      </c>
+      <c r="L38" s="10">
+        <v>2000</v>
+      </c>
       <c r="M38" s="15">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>24066</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C39" s="6">
-        <v>200</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E39" s="10">
-        <v>579</v>
-      </c>
-      <c r="F39" s="10">
-        <v>232</v>
-      </c>
-      <c r="G39" s="10">
-        <v>174</v>
-      </c>
-      <c r="H39" s="10">
-        <v>0</v>
-      </c>
-      <c r="I39" s="10">
-        <f t="shared" ref="I39:I44" si="19">E39*5%</f>
-        <v>28.950000000000003</v>
-      </c>
-      <c r="J39" s="10">
-        <v>116</v>
-      </c>
-      <c r="K39" s="10">
-        <f t="shared" ref="K39:K44" si="20">SUM(E39:J39)</f>
-        <v>1129.95</v>
-      </c>
-      <c r="L39" s="10">
-        <v>200</v>
-      </c>
+      <c r="A39" s="6">
+        <v>17</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
       <c r="M39" s="15">
         <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="195.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="15">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41" s="6">
+        <v>200</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E41" s="10">
+        <v>579</v>
+      </c>
+      <c r="F41" s="10">
+        <v>232</v>
+      </c>
+      <c r="G41" s="10">
+        <v>174</v>
+      </c>
+      <c r="H41" s="10">
+        <v>0</v>
+      </c>
+      <c r="I41" s="10">
+        <f t="shared" ref="I41:I46" si="19">E41*5%</f>
+        <v>28.950000000000003</v>
+      </c>
+      <c r="J41" s="10">
+        <v>116</v>
+      </c>
+      <c r="K41" s="10">
+        <f t="shared" ref="K41:K46" si="20">SUM(E41:J41)</f>
+        <v>1129.95</v>
+      </c>
+      <c r="L41" s="10">
+        <v>200</v>
+      </c>
+      <c r="M41" s="15">
+        <f t="shared" si="13"/>
         <v>1329.95</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="s">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B42" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C40" s="6">
+      <c r="C42" s="6">
         <v>300</v>
       </c>
-      <c r="D40" s="6" t="s">
+      <c r="D42" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E40" s="10">
+      <c r="E42" s="10">
         <v>368</v>
       </c>
-      <c r="F40" s="10">
+      <c r="F42" s="10">
         <v>147</v>
       </c>
-      <c r="G40" s="10">
+      <c r="G42" s="10">
         <v>110</v>
       </c>
-      <c r="H40" s="10">
-        <v>0</v>
-      </c>
-      <c r="I40" s="10">
+      <c r="H42" s="10">
+        <v>0</v>
+      </c>
+      <c r="I42" s="10">
         <f t="shared" si="19"/>
         <v>18.400000000000002</v>
       </c>
-      <c r="J40" s="10">
+      <c r="J42" s="10">
         <v>74</v>
       </c>
-      <c r="K40" s="10">
+      <c r="K42" s="10">
         <f t="shared" si="20"/>
         <v>717.4</v>
       </c>
-      <c r="L40" s="10">
+      <c r="L42" s="10">
         <v>200</v>
       </c>
-      <c r="M40" s="15">
+      <c r="M42" s="15">
         <f t="shared" si="13"/>
         <v>917.4</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="6" t="s">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B43" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C41" s="6">
+      <c r="C43" s="6">
         <v>100</v>
       </c>
-      <c r="D41" s="6" t="s">
+      <c r="D43" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E41" s="10">
+      <c r="E43" s="10">
         <v>233</v>
       </c>
-      <c r="F41" s="10">
+      <c r="F43" s="10">
         <v>93</v>
       </c>
-      <c r="G41" s="10">
+      <c r="G43" s="10">
         <v>70</v>
       </c>
-      <c r="H41" s="10">
-        <v>0</v>
-      </c>
-      <c r="I41" s="10">
+      <c r="H43" s="10">
+        <v>0</v>
+      </c>
+      <c r="I43" s="10">
         <f t="shared" si="19"/>
         <v>11.65</v>
       </c>
-      <c r="J41" s="10">
+      <c r="J43" s="10">
         <v>47</v>
       </c>
-      <c r="K41" s="10">
+      <c r="K43" s="10">
         <f t="shared" si="20"/>
         <v>454.65</v>
       </c>
-      <c r="L41" s="10">
+      <c r="L43" s="10">
         <v>200</v>
       </c>
-      <c r="M41" s="15">
+      <c r="M43" s="15">
         <f t="shared" si="13"/>
         <v>654.65</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="6" t="s">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B44" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C42" s="6">
+      <c r="C44" s="6">
         <v>300</v>
       </c>
-      <c r="D42" s="6" t="s">
+      <c r="D44" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E42" s="10">
+      <c r="E44" s="10">
         <v>152</v>
       </c>
-      <c r="F42" s="10">
+      <c r="F44" s="10">
         <v>61</v>
       </c>
-      <c r="G42" s="10">
+      <c r="G44" s="10">
         <v>40</v>
       </c>
-      <c r="H42" s="10">
-        <v>0</v>
-      </c>
-      <c r="I42" s="10">
+      <c r="H44" s="10">
+        <v>0</v>
+      </c>
+      <c r="I44" s="10">
         <f t="shared" si="19"/>
         <v>7.6000000000000005</v>
       </c>
-      <c r="J42" s="10">
+      <c r="J44" s="10">
         <v>30</v>
       </c>
-      <c r="K42" s="10">
+      <c r="K44" s="10">
         <f t="shared" si="20"/>
         <v>290.60000000000002</v>
       </c>
-      <c r="L42" s="10">
+      <c r="L44" s="10">
         <v>200</v>
       </c>
-      <c r="M42" s="15">
+      <c r="M44" s="15">
         <f t="shared" si="13"/>
         <v>490.6</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" s="6" t="s">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B45" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C43" s="6">
+      <c r="C45" s="6">
         <v>350</v>
       </c>
-      <c r="D43" s="6" t="s">
+      <c r="D45" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E43" s="10">
+      <c r="E45" s="10">
         <v>93</v>
       </c>
-      <c r="F43" s="10">
+      <c r="F45" s="10">
         <v>37</v>
       </c>
-      <c r="G43" s="10">
+      <c r="G45" s="10">
         <v>50</v>
       </c>
-      <c r="H43" s="10">
-        <v>0</v>
-      </c>
-      <c r="I43" s="10">
+      <c r="H45" s="10">
+        <v>0</v>
+      </c>
+      <c r="I45" s="10">
         <f t="shared" si="19"/>
         <v>4.6500000000000004</v>
       </c>
-      <c r="J43" s="10">
+      <c r="J45" s="10">
         <v>19</v>
       </c>
-      <c r="K43" s="10">
+      <c r="K45" s="10">
         <f t="shared" si="20"/>
         <v>203.65</v>
       </c>
-      <c r="L43" s="10">
+      <c r="L45" s="10">
         <v>196</v>
       </c>
-      <c r="M43" s="15">
+      <c r="M45" s="15">
         <f t="shared" si="13"/>
         <v>399.65</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" s="6" t="s">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B46" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C44" s="6">
+      <c r="C46" s="6">
         <v>300</v>
       </c>
-      <c r="D44" s="6" t="s">
+      <c r="D46" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E44" s="10">
+      <c r="E46" s="10">
         <v>60</v>
       </c>
-      <c r="F44" s="10">
+      <c r="F46" s="10">
         <v>24</v>
       </c>
-      <c r="G44" s="10">
+      <c r="G46" s="10">
         <v>40</v>
       </c>
-      <c r="H44" s="10">
-        <v>0</v>
-      </c>
-      <c r="I44" s="10">
+      <c r="H46" s="10">
+        <v>0</v>
+      </c>
+      <c r="I46" s="10">
         <f t="shared" si="19"/>
         <v>3</v>
       </c>
-      <c r="J44" s="10">
+      <c r="J46" s="10">
         <v>12</v>
       </c>
-      <c r="K44" s="10">
+      <c r="K46" s="10">
         <f t="shared" si="20"/>
         <v>139</v>
       </c>
-      <c r="L44" s="10">
+      <c r="L46" s="10">
         <v>125</v>
       </c>
-      <c r="M44" s="15">
+      <c r="M46" s="15">
         <f t="shared" si="13"/>
         <v>264</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" s="7" t="s">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B47" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
-      <c r="J45" s="5"/>
-      <c r="K45" s="5"/>
-      <c r="L45" s="5"/>
-      <c r="M45" s="15">
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5"/>
+      <c r="L47" s="5"/>
+      <c r="M47" s="15">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="6" t="s">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B48" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C46" s="6">
+      <c r="C48" s="6">
         <v>6</v>
       </c>
-      <c r="D46" s="6" t="s">
+      <c r="D48" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E46" s="14">
+      <c r="E48" s="14">
         <v>13250</v>
       </c>
-      <c r="F46" s="10">
-        <f t="shared" ref="F46:F57" si="21">E46*30%</f>
+      <c r="F48" s="10">
+        <f t="shared" ref="F48:F59" si="21">E48*30%</f>
         <v>3975</v>
       </c>
-      <c r="G46" s="10">
+      <c r="G48" s="10">
         <v>3975</v>
       </c>
-      <c r="H46" s="10">
-        <f t="shared" ref="H46:H57" si="22">E46*20%</f>
+      <c r="H48" s="10">
+        <f t="shared" ref="H48:H59" si="22">E48*20%</f>
         <v>2650</v>
       </c>
-      <c r="I46" s="10"/>
-      <c r="J46" s="10">
+      <c r="I48" s="10"/>
+      <c r="J48" s="10">
         <v>2650</v>
       </c>
-      <c r="K46" s="10">
-        <f t="shared" ref="K46:K57" si="23">SUM(E46:J46)</f>
+      <c r="K48" s="10">
+        <f t="shared" ref="K48:K59" si="23">SUM(E48:J48)</f>
         <v>26500</v>
       </c>
-      <c r="L46" s="10">
+      <c r="L48" s="10">
         <v>2000</v>
       </c>
-      <c r="M46" s="15">
+      <c r="M48" s="15">
         <f t="shared" si="13"/>
         <v>28500</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" s="6" t="s">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B49" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C47" s="6">
+      <c r="C49" s="6">
         <v>6</v>
       </c>
-      <c r="D47" s="6" t="s">
+      <c r="D49" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E47" s="14">
+      <c r="E49" s="14">
         <v>8375</v>
       </c>
-      <c r="F47" s="10">
+      <c r="F49" s="10">
         <f t="shared" si="21"/>
         <v>2512.5</v>
       </c>
-      <c r="G47" s="10">
+      <c r="G49" s="10">
         <v>2512.5</v>
       </c>
-      <c r="H47" s="10">
+      <c r="H49" s="10">
         <f t="shared" si="22"/>
         <v>1675</v>
       </c>
-      <c r="I47" s="10"/>
-      <c r="J47" s="10">
+      <c r="I49" s="10"/>
+      <c r="J49" s="10">
         <v>1675</v>
       </c>
-      <c r="K47" s="10">
+      <c r="K49" s="10">
         <f t="shared" si="23"/>
         <v>16750</v>
       </c>
-      <c r="L47" s="10">
+      <c r="L49" s="10">
         <v>1500</v>
       </c>
-      <c r="M47" s="15">
+      <c r="M49" s="15">
         <f t="shared" si="13"/>
         <v>18250</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="6" t="s">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B50" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C48" s="6">
+      <c r="C50" s="6">
         <v>6</v>
       </c>
-      <c r="D48" s="6" t="s">
+      <c r="D50" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E48" s="14">
+      <c r="E50" s="14">
         <v>6400</v>
       </c>
-      <c r="F48" s="10">
+      <c r="F50" s="10">
         <f t="shared" si="21"/>
         <v>1920</v>
       </c>
-      <c r="G48" s="10">
+      <c r="G50" s="10">
         <v>1920</v>
       </c>
-      <c r="H48" s="10">
+      <c r="H50" s="10">
         <f t="shared" si="22"/>
         <v>1280</v>
       </c>
-      <c r="I48" s="10"/>
-      <c r="J48" s="10">
+      <c r="I50" s="10"/>
+      <c r="J50" s="10">
         <v>1280</v>
       </c>
-      <c r="K48" s="10">
+      <c r="K50" s="10">
         <f t="shared" si="23"/>
         <v>12800</v>
       </c>
-      <c r="L48" s="10">
+      <c r="L50" s="10">
         <v>1200</v>
       </c>
-      <c r="M48" s="15">
+      <c r="M50" s="15">
         <f t="shared" si="13"/>
         <v>14000</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49" s="6" t="s">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B51" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C49" s="6">
+      <c r="C51" s="6">
         <v>6</v>
       </c>
-      <c r="D49" s="6" t="s">
+      <c r="D51" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E49" s="14">
+      <c r="E51" s="14">
         <v>3890</v>
       </c>
-      <c r="F49" s="10">
+      <c r="F51" s="10">
         <f t="shared" si="21"/>
         <v>1167</v>
       </c>
-      <c r="G49" s="10">
+      <c r="G51" s="10">
         <v>1167</v>
       </c>
-      <c r="H49" s="10">
+      <c r="H51" s="10">
         <f t="shared" si="22"/>
         <v>778</v>
       </c>
-      <c r="I49" s="10"/>
-      <c r="J49" s="10">
+      <c r="I51" s="10"/>
+      <c r="J51" s="10">
         <v>778</v>
       </c>
-      <c r="K49" s="10">
+      <c r="K51" s="10">
         <f t="shared" si="23"/>
         <v>7780</v>
       </c>
-      <c r="L49" s="10">
+      <c r="L51" s="10">
         <v>1000</v>
       </c>
-      <c r="M49" s="15">
+      <c r="M51" s="15">
         <f t="shared" si="13"/>
         <v>8780</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A50" s="6" t="s">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B52" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C50" s="6">
+      <c r="C52" s="6">
         <v>6</v>
       </c>
-      <c r="D50" s="6" t="s">
+      <c r="D52" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E50" s="14">
+      <c r="E52" s="14">
         <v>2800</v>
       </c>
-      <c r="F50" s="10">
+      <c r="F52" s="10">
         <f t="shared" si="21"/>
         <v>840</v>
       </c>
-      <c r="G50" s="10">
+      <c r="G52" s="10">
         <v>840</v>
       </c>
-      <c r="H50" s="10">
+      <c r="H52" s="10">
         <f t="shared" si="22"/>
         <v>560</v>
       </c>
-      <c r="I50" s="10"/>
-      <c r="J50" s="10">
+      <c r="I52" s="10"/>
+      <c r="J52" s="10">
         <v>560</v>
       </c>
-      <c r="K50" s="10">
+      <c r="K52" s="10">
         <f t="shared" si="23"/>
         <v>5600</v>
       </c>
-      <c r="L50" s="10">
+      <c r="L52" s="10">
         <v>1000</v>
       </c>
-      <c r="M50" s="15">
+      <c r="M52" s="15">
         <f t="shared" si="13"/>
         <v>6600</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A51" s="7" t="s">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B53" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="10">
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="10">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="G51" s="10">
-        <f t="shared" ref="G46:G57" si="24">E51*25%</f>
-        <v>0</v>
-      </c>
-      <c r="H51" s="10">
+      <c r="G53" s="10">
+        <f t="shared" ref="G53" si="24">E53*25%</f>
+        <v>0</v>
+      </c>
+      <c r="H53" s="10">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="I51" s="10">
-        <f t="shared" ref="I46:I57" si="25">E51*5%</f>
-        <v>0</v>
-      </c>
-      <c r="J51" s="10">
-        <f t="shared" ref="J46:J57" si="26">E51*10%</f>
-        <v>0</v>
-      </c>
-      <c r="K51" s="10">
+      <c r="I53" s="10">
+        <f t="shared" ref="I53" si="25">E53*5%</f>
+        <v>0</v>
+      </c>
+      <c r="J53" s="10">
+        <f t="shared" ref="J53" si="26">E53*10%</f>
+        <v>0</v>
+      </c>
+      <c r="K53" s="10">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="L51" s="5"/>
-      <c r="M51" s="15">
+      <c r="L53" s="5"/>
+      <c r="M53" s="15">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A52" s="6" t="s">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B54" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C52" s="6">
+      <c r="C54" s="6">
         <v>3</v>
       </c>
-      <c r="D52" s="6" t="s">
+      <c r="D54" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E52" s="10">
+      <c r="E54" s="10">
         <v>1710</v>
       </c>
-      <c r="F52" s="10">
+      <c r="F54" s="10">
         <f t="shared" si="21"/>
         <v>513</v>
       </c>
-      <c r="G52" s="10">
+      <c r="G54" s="10">
         <v>513</v>
       </c>
-      <c r="H52" s="10">
+      <c r="H54" s="10">
         <f t="shared" si="22"/>
         <v>342</v>
       </c>
-      <c r="I52" s="10"/>
-      <c r="J52" s="10">
+      <c r="I54" s="10"/>
+      <c r="J54" s="10">
         <v>342</v>
       </c>
-      <c r="K52" s="10">
+      <c r="K54" s="10">
         <f t="shared" si="23"/>
         <v>3420</v>
       </c>
-      <c r="L52" s="10">
+      <c r="L54" s="10">
         <v>800</v>
       </c>
-      <c r="M52" s="15">
+      <c r="M54" s="15">
         <f t="shared" si="13"/>
         <v>4220</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A53" s="6" t="s">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B55" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C53" s="6">
+      <c r="C55" s="6">
         <v>3</v>
       </c>
-      <c r="D53" s="6" t="s">
+      <c r="D55" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E53" s="10">
+      <c r="E55" s="10">
         <v>12750</v>
       </c>
-      <c r="F53" s="10">
+      <c r="F55" s="10">
         <f t="shared" si="21"/>
         <v>3825</v>
       </c>
-      <c r="G53" s="10">
+      <c r="G55" s="10">
         <v>3825</v>
       </c>
-      <c r="H53" s="10">
+      <c r="H55" s="10">
         <f t="shared" si="22"/>
         <v>2550</v>
       </c>
-      <c r="I53" s="10"/>
-      <c r="J53" s="10">
+      <c r="I55" s="10"/>
+      <c r="J55" s="10">
         <v>2550</v>
       </c>
-      <c r="K53" s="10">
+      <c r="K55" s="10">
         <f t="shared" si="23"/>
         <v>25500</v>
       </c>
-      <c r="L53" s="10">
+      <c r="L55" s="10">
         <v>2000</v>
       </c>
-      <c r="M53" s="15">
+      <c r="M55" s="15">
         <f t="shared" si="13"/>
         <v>27500</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A54" s="6" t="s">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B56" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C54" s="6">
+      <c r="C56" s="6">
         <v>4</v>
       </c>
-      <c r="D54" s="6" t="s">
+      <c r="D56" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E54" s="10">
+      <c r="E56" s="10">
         <v>17500</v>
       </c>
-      <c r="F54" s="10">
+      <c r="F56" s="10">
         <f t="shared" si="21"/>
         <v>5250</v>
       </c>
-      <c r="G54" s="10">
+      <c r="G56" s="10">
         <v>5250</v>
       </c>
-      <c r="H54" s="10">
+      <c r="H56" s="10">
         <f t="shared" si="22"/>
         <v>3500</v>
       </c>
-      <c r="I54" s="10"/>
-      <c r="J54" s="10">
+      <c r="I56" s="10"/>
+      <c r="J56" s="10">
         <v>3500</v>
       </c>
-      <c r="K54" s="10">
+      <c r="K56" s="10">
         <f t="shared" si="23"/>
         <v>35000</v>
       </c>
-      <c r="L54" s="10">
+      <c r="L56" s="10">
         <v>2000</v>
       </c>
-      <c r="M54" s="15">
+      <c r="M56" s="15">
         <f t="shared" si="13"/>
         <v>37000</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A55" s="6" t="s">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B57" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C55" s="6">
-        <v>0</v>
-      </c>
-      <c r="D55" s="6" t="s">
+      <c r="C57" s="6">
+        <v>0</v>
+      </c>
+      <c r="D57" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E55" s="10">
+      <c r="E57" s="10">
         <v>17500</v>
       </c>
-      <c r="F55" s="10">
+      <c r="F57" s="10">
         <f t="shared" si="21"/>
         <v>5250</v>
       </c>
-      <c r="G55" s="10">
+      <c r="G57" s="10">
         <v>5250</v>
       </c>
-      <c r="H55" s="10">
+      <c r="H57" s="10">
         <f t="shared" si="22"/>
         <v>3500</v>
       </c>
-      <c r="I55" s="10"/>
-      <c r="J55" s="10">
+      <c r="I57" s="10"/>
+      <c r="J57" s="10">
         <v>3500</v>
       </c>
-      <c r="K55" s="10">
+      <c r="K57" s="10">
         <f t="shared" si="23"/>
         <v>35000</v>
       </c>
-      <c r="L55" s="10">
+      <c r="L57" s="10">
         <v>2000</v>
       </c>
-      <c r="M55" s="15">
+      <c r="M57" s="15">
         <f t="shared" si="13"/>
         <v>37000</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A56" s="6" t="s">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B58" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C56" s="6">
-        <v>0</v>
-      </c>
-      <c r="D56" s="6" t="s">
+      <c r="C58" s="6">
+        <v>0</v>
+      </c>
+      <c r="D58" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E56" s="10">
+      <c r="E58" s="10">
         <v>12880</v>
       </c>
-      <c r="F56" s="10">
+      <c r="F58" s="10">
         <f t="shared" si="21"/>
         <v>3864</v>
       </c>
-      <c r="G56" s="10">
+      <c r="G58" s="10">
         <v>3864</v>
       </c>
-      <c r="H56" s="10">
+      <c r="H58" s="10">
         <f t="shared" si="22"/>
         <v>2576</v>
       </c>
-      <c r="I56" s="10"/>
-      <c r="J56" s="10">
+      <c r="I58" s="10"/>
+      <c r="J58" s="10">
         <v>2576</v>
       </c>
-      <c r="K56" s="10">
+      <c r="K58" s="10">
         <f t="shared" si="23"/>
         <v>25760</v>
       </c>
-      <c r="L56" s="10">
+      <c r="L58" s="10">
         <v>2000</v>
       </c>
-      <c r="M56" s="15">
+      <c r="M58" s="15">
         <f t="shared" si="13"/>
         <v>27760</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A57" s="6" t="s">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B59" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C57" s="6">
-        <v>0</v>
-      </c>
-      <c r="D57" s="6" t="s">
+      <c r="C59" s="6">
+        <v>0</v>
+      </c>
+      <c r="D59" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E57" s="10">
+      <c r="E59" s="10">
         <v>12250</v>
       </c>
-      <c r="F57" s="10">
+      <c r="F59" s="10">
         <f t="shared" si="21"/>
         <v>3675</v>
       </c>
-      <c r="G57" s="10">
+      <c r="G59" s="10">
         <v>3675</v>
       </c>
-      <c r="H57" s="10">
+      <c r="H59" s="10">
         <f t="shared" si="22"/>
         <v>2450</v>
       </c>
-      <c r="I57" s="10"/>
-      <c r="J57" s="10">
+      <c r="I59" s="10"/>
+      <c r="J59" s="10">
         <v>2450</v>
       </c>
-      <c r="K57" s="10">
+      <c r="K59" s="10">
         <f t="shared" si="23"/>
         <v>24500</v>
       </c>
-      <c r="L57" s="10">
+      <c r="L59" s="10">
         <v>2000</v>
       </c>
-      <c r="M57" s="15">
+      <c r="M59" s="15">
         <f t="shared" si="13"/>
         <v>26500</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="6">
+    <row r="60" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="6">
         <v>18</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B60" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="5"/>
-      <c r="H58" s="5"/>
-      <c r="I58" s="5"/>
-      <c r="J58" s="5"/>
-      <c r="K58" s="5"/>
-      <c r="L58" s="5"/>
-      <c r="M58" s="15">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" ht="162.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="5"/>
-      <c r="F59" s="5"/>
-      <c r="G59" s="5"/>
-      <c r="H59" s="5"/>
-      <c r="I59" s="5"/>
-      <c r="J59" s="5"/>
-      <c r="K59" s="5"/>
-      <c r="L59" s="5"/>
-      <c r="M59" s="15">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A60" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C60" s="6">
-        <v>69</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E60" s="10">
-        <v>941</v>
-      </c>
-      <c r="F60" s="10">
-        <v>376</v>
-      </c>
-      <c r="G60" s="10">
-        <v>282</v>
-      </c>
-      <c r="H60" s="10"/>
-      <c r="I60" s="10">
-        <f t="shared" ref="I60:I64" si="27">E60*5%</f>
-        <v>47.050000000000004</v>
-      </c>
-      <c r="J60" s="10">
-        <v>188</v>
-      </c>
-      <c r="K60" s="10">
-        <f t="shared" ref="K60:K64" si="28">SUM(E60:J60)</f>
-        <v>1834.05</v>
-      </c>
-      <c r="L60" s="10">
-        <v>345</v>
-      </c>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="5"/>
+      <c r="J60" s="5"/>
+      <c r="K60" s="5"/>
+      <c r="L60" s="5"/>
       <c r="M60" s="15">
         <f t="shared" si="13"/>
-        <v>2179.0500000000002</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" ht="162.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C61" s="6">
-        <v>100</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E61" s="10">
-        <v>619</v>
-      </c>
-      <c r="F61" s="10">
-        <v>248</v>
-      </c>
-      <c r="G61" s="10">
-        <v>186</v>
-      </c>
-      <c r="H61" s="10"/>
-      <c r="I61" s="10">
-        <f t="shared" si="27"/>
-        <v>30.950000000000003</v>
-      </c>
-      <c r="J61" s="10">
-        <v>124</v>
-      </c>
-      <c r="K61" s="10">
-        <f t="shared" si="28"/>
-        <v>1207.95</v>
-      </c>
-      <c r="L61" s="10">
-        <v>299</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="5"/>
+      <c r="J61" s="5"/>
+      <c r="K61" s="5"/>
+      <c r="L61" s="5"/>
       <c r="M61" s="15">
         <f t="shared" si="13"/>
-        <v>1506.95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C62" s="6">
-        <v>800</v>
+        <v>69</v>
       </c>
       <c r="D62" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E62" s="10">
-        <v>418</v>
+        <v>941</v>
       </c>
       <c r="F62" s="10">
-        <v>167</v>
+        <v>376</v>
       </c>
       <c r="G62" s="10">
-        <v>125</v>
+        <v>282</v>
       </c>
       <c r="H62" s="10"/>
       <c r="I62" s="10">
-        <f t="shared" si="27"/>
-        <v>20.900000000000002</v>
+        <f t="shared" ref="I62:I66" si="27">E62*5%</f>
+        <v>47.050000000000004</v>
       </c>
       <c r="J62" s="10">
-        <v>84</v>
+        <v>188</v>
       </c>
       <c r="K62" s="10">
-        <f t="shared" si="28"/>
-        <v>814.9</v>
+        <f t="shared" ref="K62:K66" si="28">SUM(E62:J62)</f>
+        <v>1834.05</v>
       </c>
       <c r="L62" s="10">
-        <v>253</v>
+        <v>345</v>
       </c>
       <c r="M62" s="15">
         <f t="shared" si="13"/>
-        <v>1067.9000000000001</v>
+        <v>2179.0500000000002</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C63" s="6">
-        <v>900</v>
+        <v>100</v>
       </c>
       <c r="D63" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E63" s="10">
-        <v>268</v>
+        <v>619</v>
       </c>
       <c r="F63" s="10">
-        <v>107</v>
+        <v>248</v>
       </c>
       <c r="G63" s="10">
-        <v>80</v>
+        <v>186</v>
       </c>
       <c r="H63" s="10"/>
       <c r="I63" s="10">
         <f t="shared" si="27"/>
-        <v>13.4</v>
+        <v>30.950000000000003</v>
       </c>
       <c r="J63" s="10">
-        <v>54</v>
+        <v>124</v>
       </c>
       <c r="K63" s="10">
         <f t="shared" si="28"/>
-        <v>522.4</v>
+        <v>1207.95</v>
       </c>
       <c r="L63" s="10">
-        <v>247</v>
+        <v>299</v>
       </c>
       <c r="M63" s="15">
         <f t="shared" si="13"/>
-        <v>769.4</v>
+        <v>1506.95</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="C64" s="6">
         <v>800</v>
@@ -6753,109 +6704,135 @@
         <v>18</v>
       </c>
       <c r="E64" s="10">
-        <v>173</v>
+        <v>418</v>
       </c>
       <c r="F64" s="10">
-        <v>69</v>
+        <v>167</v>
       </c>
       <c r="G64" s="10">
-        <v>52</v>
+        <v>125</v>
       </c>
       <c r="H64" s="10"/>
       <c r="I64" s="10">
         <f t="shared" si="27"/>
-        <v>8.65</v>
+        <v>20.900000000000002</v>
       </c>
       <c r="J64" s="10">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="K64" s="10">
         <f t="shared" si="28"/>
-        <v>337.65</v>
+        <v>814.9</v>
       </c>
       <c r="L64" s="10">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="M64" s="15">
         <f t="shared" si="13"/>
-        <v>567.65</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="6">
-        <v>19</v>
+        <v>1067.9000000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A65" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C65" s="6"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="5"/>
-      <c r="F65" s="5"/>
-      <c r="G65" s="5"/>
-      <c r="H65" s="5"/>
-      <c r="I65" s="5"/>
-      <c r="J65" s="5"/>
-      <c r="K65" s="5"/>
-      <c r="L65" s="5"/>
+        <v>72</v>
+      </c>
+      <c r="C65" s="6">
+        <v>900</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E65" s="10">
+        <v>268</v>
+      </c>
+      <c r="F65" s="10">
+        <v>107</v>
+      </c>
+      <c r="G65" s="10">
+        <v>80</v>
+      </c>
+      <c r="H65" s="10"/>
+      <c r="I65" s="10">
+        <f t="shared" si="27"/>
+        <v>13.4</v>
+      </c>
+      <c r="J65" s="10">
+        <v>54</v>
+      </c>
+      <c r="K65" s="10">
+        <f t="shared" si="28"/>
+        <v>522.4</v>
+      </c>
+      <c r="L65" s="10">
+        <v>247</v>
+      </c>
       <c r="M65" s="15">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>769.4</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="C66" s="6">
-        <v>2</v>
+        <v>800</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E66" s="10">
-        <v>25000</v>
-      </c>
-      <c r="F66" s="10"/>
-      <c r="G66" s="10"/>
+        <v>173</v>
+      </c>
+      <c r="F66" s="10">
+        <v>69</v>
+      </c>
+      <c r="G66" s="10">
+        <v>52</v>
+      </c>
       <c r="H66" s="10"/>
-      <c r="I66" s="10"/>
+      <c r="I66" s="10">
+        <f t="shared" si="27"/>
+        <v>8.65</v>
+      </c>
       <c r="J66" s="10">
-        <f t="shared" ref="J66" si="29">E66*10%</f>
-        <v>2500</v>
+        <v>35</v>
       </c>
       <c r="K66" s="10">
-        <f t="shared" ref="K66" si="30">SUM(E66:J66)</f>
-        <v>27500</v>
+        <f t="shared" si="28"/>
+        <v>337.65</v>
       </c>
       <c r="L66" s="10">
-        <v>1725</v>
+        <v>230</v>
       </c>
       <c r="M66" s="15">
         <f t="shared" si="13"/>
-        <v>29225</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+        <v>567.65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C67" s="6"/>
       <c r="D67" s="6"/>
-      <c r="E67" s="10"/>
-      <c r="F67" s="10"/>
-      <c r="G67" s="10"/>
-      <c r="H67" s="10"/>
-      <c r="I67" s="10"/>
-      <c r="J67" s="10"/>
-      <c r="K67" s="10"/>
-      <c r="L67" s="10"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="5"/>
+      <c r="I67" s="5"/>
+      <c r="J67" s="5"/>
+      <c r="K67" s="5"/>
+      <c r="L67" s="5"/>
       <c r="M67" s="15">
         <f t="shared" si="13"/>
         <v>0</v>
@@ -6863,56 +6840,57 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C68" s="6">
-        <v>90</v>
+        <v>2</v>
       </c>
       <c r="D68" s="6" t="s">
         <v>27</v>
       </c>
       <c r="E68" s="10">
-        <v>6500</v>
+        <v>25000</v>
       </c>
       <c r="F68" s="10"/>
       <c r="G68" s="10"/>
       <c r="H68" s="10"/>
       <c r="I68" s="10"/>
       <c r="J68" s="10">
-        <v>1300</v>
+        <f t="shared" ref="J68" si="29">E68*10%</f>
+        <v>2500</v>
       </c>
       <c r="K68" s="10">
-        <f t="shared" ref="K68" si="31">SUM(E68:J68)</f>
-        <v>7800</v>
+        <f t="shared" ref="K68" si="30">SUM(E68:J68)</f>
+        <v>27500</v>
       </c>
       <c r="L68" s="10">
-        <v>805</v>
+        <v>1725</v>
       </c>
       <c r="M68" s="15">
         <f t="shared" si="13"/>
-        <v>8605</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>29225</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A69" s="6">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
-      <c r="E69" s="5"/>
-      <c r="F69" s="5"/>
-      <c r="G69" s="5"/>
-      <c r="H69" s="5"/>
-      <c r="I69" s="5"/>
-      <c r="J69" s="5"/>
-      <c r="K69" s="5"/>
-      <c r="L69" s="5"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="10"/>
+      <c r="G69" s="10"/>
+      <c r="H69" s="10"/>
+      <c r="I69" s="10"/>
+      <c r="J69" s="10"/>
+      <c r="K69" s="10"/>
+      <c r="L69" s="10"/>
       <c r="M69" s="15">
         <f t="shared" si="13"/>
         <v>0</v>
@@ -6923,77 +6901,64 @@
         <v>12</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C70" s="6">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="D70" s="6" t="s">
         <v>27</v>
       </c>
       <c r="E70" s="10">
-        <v>2300</v>
+        <v>6500</v>
       </c>
       <c r="F70" s="10"/>
       <c r="G70" s="10"/>
       <c r="H70" s="10"/>
       <c r="I70" s="10"/>
       <c r="J70" s="10">
-        <v>460</v>
+        <v>1300</v>
       </c>
       <c r="K70" s="10">
-        <f t="shared" ref="K70:K72" si="32">SUM(E70:J70)</f>
-        <v>2760</v>
+        <f t="shared" ref="K70" si="31">SUM(E70:J70)</f>
+        <v>7800</v>
       </c>
       <c r="L70" s="10">
         <v>805</v>
       </c>
       <c r="M70" s="15">
         <f t="shared" si="13"/>
-        <v>3565</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A71" s="6" t="s">
-        <v>19</v>
+        <v>8605</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="6">
+        <v>21</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C71" s="6">
-        <v>1</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E71" s="10">
-        <v>2070</v>
-      </c>
-      <c r="F71" s="10"/>
-      <c r="G71" s="10"/>
-      <c r="H71" s="10"/>
-      <c r="I71" s="10"/>
-      <c r="J71" s="10">
-        <v>414</v>
-      </c>
-      <c r="K71" s="10">
-        <f t="shared" si="32"/>
-        <v>2484</v>
-      </c>
-      <c r="L71" s="10">
-        <v>805</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5"/>
+      <c r="I71" s="5"/>
+      <c r="J71" s="5"/>
+      <c r="K71" s="5"/>
+      <c r="L71" s="5"/>
       <c r="M71" s="15">
         <f t="shared" si="13"/>
-        <v>3289</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C72" s="6">
         <v>1</v>
@@ -7002,248 +6967,252 @@
         <v>27</v>
       </c>
       <c r="E72" s="10">
-        <v>1955</v>
+        <v>2300</v>
       </c>
       <c r="F72" s="10"/>
       <c r="G72" s="10"/>
       <c r="H72" s="10"/>
       <c r="I72" s="10"/>
       <c r="J72" s="10">
-        <v>391</v>
+        <v>460</v>
       </c>
       <c r="K72" s="10">
-        <f t="shared" si="32"/>
-        <v>2346</v>
+        <f t="shared" ref="K72:K74" si="32">SUM(E72:J72)</f>
+        <v>2760</v>
       </c>
       <c r="L72" s="10">
         <v>805</v>
       </c>
       <c r="M72" s="15">
         <f t="shared" si="13"/>
-        <v>3151</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A73" s="6">
-        <v>22</v>
+        <v>3565</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A73" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C73" s="6"/>
-      <c r="D73" s="6"/>
-      <c r="E73" s="5"/>
-      <c r="F73" s="5"/>
-      <c r="G73" s="5"/>
-      <c r="H73" s="5"/>
-      <c r="I73" s="5"/>
-      <c r="J73" s="5"/>
-      <c r="K73" s="5"/>
-      <c r="L73" s="5"/>
+        <v>71</v>
+      </c>
+      <c r="C73" s="6">
+        <v>1</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E73" s="10">
+        <v>2070</v>
+      </c>
+      <c r="F73" s="10"/>
+      <c r="G73" s="10"/>
+      <c r="H73" s="10"/>
+      <c r="I73" s="10"/>
+      <c r="J73" s="10">
+        <v>414</v>
+      </c>
+      <c r="K73" s="10">
+        <f t="shared" si="32"/>
+        <v>2484</v>
+      </c>
+      <c r="L73" s="10">
+        <v>805</v>
+      </c>
       <c r="M73" s="15">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>3289</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C74" s="6">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D74" s="6" t="s">
         <v>27</v>
       </c>
       <c r="E74" s="10">
-        <v>4000</v>
+        <v>1955</v>
       </c>
       <c r="F74" s="10"/>
       <c r="G74" s="10"/>
       <c r="H74" s="10"/>
       <c r="I74" s="10"/>
       <c r="J74" s="10">
-        <v>800</v>
+        <v>391</v>
       </c>
       <c r="K74" s="10">
-        <f t="shared" ref="K74:K80" si="33">SUM(E74:J74)</f>
-        <v>4800</v>
+        <f t="shared" si="32"/>
+        <v>2346</v>
       </c>
       <c r="L74" s="10">
-        <v>1000</v>
+        <v>805</v>
       </c>
       <c r="M74" s="15">
         <f t="shared" si="13"/>
-        <v>5800</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A75" s="6" t="s">
-        <v>45</v>
+        <v>3151</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A75" s="6">
+        <v>22</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C75" s="6">
-        <v>30</v>
-      </c>
-      <c r="D75" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E75" s="10">
-        <v>3000</v>
-      </c>
-      <c r="F75" s="10"/>
-      <c r="G75" s="10"/>
-      <c r="H75" s="10"/>
-      <c r="I75" s="10"/>
-      <c r="J75" s="10">
-        <v>600</v>
-      </c>
-      <c r="K75" s="10">
-        <f t="shared" si="33"/>
-        <v>3600</v>
-      </c>
-      <c r="L75" s="10">
-        <v>1000</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="5"/>
+      <c r="H75" s="5"/>
+      <c r="I75" s="5"/>
+      <c r="J75" s="5"/>
+      <c r="K75" s="5"/>
+      <c r="L75" s="5"/>
       <c r="M75" s="15">
         <f t="shared" si="13"/>
-        <v>4600</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="6">
-        <v>23</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A76" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="C76" s="6">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D76" s="6" t="s">
         <v>27</v>
       </c>
       <c r="E76" s="10">
-        <v>0</v>
-      </c>
-      <c r="F76" s="10">
-        <f t="shared" ref="F74:F80" si="34">E76*30%</f>
-        <v>0</v>
-      </c>
-      <c r="G76" s="10">
-        <f t="shared" ref="G74:G80" si="35">E76*25%</f>
-        <v>0</v>
-      </c>
-      <c r="H76" s="10">
-        <f t="shared" ref="H74:H80" si="36">E76*20%</f>
-        <v>0</v>
-      </c>
-      <c r="I76" s="10">
-        <f t="shared" ref="I74:I80" si="37">E76*5%</f>
-        <v>0</v>
-      </c>
+        <v>4000</v>
+      </c>
+      <c r="F76" s="10"/>
+      <c r="G76" s="10"/>
+      <c r="H76" s="10"/>
+      <c r="I76" s="10"/>
       <c r="J76" s="10">
-        <f t="shared" ref="J74:J80" si="38">E76*10%</f>
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="K76" s="10">
-        <f t="shared" si="33"/>
-        <v>0</v>
+        <f t="shared" ref="K76:K82" si="33">SUM(E76:J76)</f>
+        <v>4800</v>
       </c>
       <c r="L76" s="10">
-        <v>28750</v>
+        <v>1000</v>
       </c>
       <c r="M76" s="15">
         <f t="shared" si="13"/>
-        <v>28750</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A77" s="6">
-        <v>24</v>
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A77" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C77" s="6">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D77" s="6" t="s">
         <v>27</v>
       </c>
       <c r="E77" s="10">
-        <v>51750</v>
+        <v>3000</v>
       </c>
       <c r="F77" s="10"/>
       <c r="G77" s="10"/>
       <c r="H77" s="10"/>
       <c r="I77" s="10"/>
-      <c r="J77" s="10"/>
+      <c r="J77" s="10">
+        <v>600</v>
+      </c>
       <c r="K77" s="10">
         <f t="shared" si="33"/>
-        <v>51750</v>
+        <v>3600</v>
       </c>
       <c r="L77" s="10">
-        <v>8050</v>
+        <v>1000</v>
       </c>
       <c r="M77" s="15">
         <f t="shared" si="13"/>
-        <v>59800</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
+        <v>4600</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="6">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="C78" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D78" s="6" t="s">
         <v>27</v>
       </c>
       <c r="E78" s="10">
-        <v>43700</v>
-      </c>
-      <c r="F78" s="10"/>
-      <c r="G78" s="10"/>
-      <c r="H78" s="10"/>
-      <c r="I78" s="10"/>
-      <c r="J78" s="10"/>
+        <v>0</v>
+      </c>
+      <c r="F78" s="10">
+        <f t="shared" ref="F78" si="34">E78*30%</f>
+        <v>0</v>
+      </c>
+      <c r="G78" s="10">
+        <f t="shared" ref="G78" si="35">E78*25%</f>
+        <v>0</v>
+      </c>
+      <c r="H78" s="10">
+        <f t="shared" ref="H78" si="36">E78*20%</f>
+        <v>0</v>
+      </c>
+      <c r="I78" s="10">
+        <f t="shared" ref="I78" si="37">E78*5%</f>
+        <v>0</v>
+      </c>
+      <c r="J78" s="10">
+        <f t="shared" ref="J78" si="38">E78*10%</f>
+        <v>0</v>
+      </c>
       <c r="K78" s="10">
         <f t="shared" si="33"/>
-        <v>43700</v>
+        <v>0</v>
       </c>
       <c r="L78" s="10">
-        <v>8050</v>
+        <v>28750</v>
       </c>
       <c r="M78" s="15">
         <f t="shared" si="13"/>
+        <v>28750</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A79" s="6">
+        <v>24</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C79" s="6">
+        <v>0</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E79" s="10">
         <v>51750</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="6">
-        <v>26</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C79" s="6">
-        <v>1</v>
-      </c>
-      <c r="D79" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E79" s="10">
-        <v>450000</v>
       </c>
       <c r="F79" s="10"/>
       <c r="G79" s="10"/>
@@ -7252,31 +7221,31 @@
       <c r="J79" s="10"/>
       <c r="K79" s="10">
         <f t="shared" si="33"/>
-        <v>450000</v>
+        <v>51750</v>
       </c>
       <c r="L79" s="10">
-        <v>120000</v>
+        <v>8050</v>
       </c>
       <c r="M79" s="15">
         <f t="shared" si="13"/>
-        <v>570000</v>
+        <v>59800</v>
       </c>
     </row>
     <row r="80" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A80" s="6">
+        <v>25</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C80" s="6">
+        <v>0</v>
+      </c>
+      <c r="D80" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B80" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C80" s="6">
-        <v>1</v>
-      </c>
-      <c r="D80" s="6" t="s">
-        <v>21</v>
-      </c>
       <c r="E80" s="10">
-        <v>200000</v>
+        <v>43700</v>
       </c>
       <c r="F80" s="10"/>
       <c r="G80" s="10"/>
@@ -7285,146 +7254,122 @@
       <c r="J80" s="10"/>
       <c r="K80" s="10">
         <f t="shared" si="33"/>
-        <v>200000</v>
+        <v>43700</v>
       </c>
       <c r="L80" s="10">
-        <v>150000</v>
+        <v>8050</v>
       </c>
       <c r="M80" s="15">
         <f t="shared" si="13"/>
+        <v>51750</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A81" s="6">
+        <v>26</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C81" s="6">
+        <v>1</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E81" s="10">
+        <v>450000</v>
+      </c>
+      <c r="F81" s="10"/>
+      <c r="G81" s="10"/>
+      <c r="H81" s="10"/>
+      <c r="I81" s="10"/>
+      <c r="J81" s="10"/>
+      <c r="K81" s="10">
+        <f t="shared" si="33"/>
+        <v>450000</v>
+      </c>
+      <c r="L81" s="10">
+        <v>120000</v>
+      </c>
+      <c r="M81" s="15">
+        <f t="shared" si="13"/>
+        <v>570000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A82" s="6">
+        <v>27</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C82" s="6">
+        <v>1</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E82" s="10">
+        <v>200000</v>
+      </c>
+      <c r="F82" s="10"/>
+      <c r="G82" s="10"/>
+      <c r="H82" s="10"/>
+      <c r="I82" s="10"/>
+      <c r="J82" s="10"/>
+      <c r="K82" s="10">
+        <f t="shared" si="33"/>
+        <v>200000</v>
+      </c>
+      <c r="L82" s="10">
+        <v>150000</v>
+      </c>
+      <c r="M82" s="15">
+        <f t="shared" si="13"/>
         <v>350000</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A81" s="18" t="s">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A83" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="B81" s="18"/>
-      <c r="C81" s="18"/>
-      <c r="D81" s="18"/>
-      <c r="E81" s="18"/>
-      <c r="F81" s="18"/>
-      <c r="G81" s="18"/>
-      <c r="H81" s="18"/>
-      <c r="I81" s="18"/>
-      <c r="J81" s="18"/>
-      <c r="K81" s="18"/>
-      <c r="L81" s="18"/>
-      <c r="M81" s="18"/>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A82" s="22" t="s">
+      <c r="B83" s="18"/>
+      <c r="C83" s="18"/>
+      <c r="D83" s="18"/>
+      <c r="E83" s="18"/>
+      <c r="F83" s="18"/>
+      <c r="G83" s="18"/>
+      <c r="H83" s="18"/>
+      <c r="I83" s="18"/>
+      <c r="J83" s="18"/>
+      <c r="K83" s="18"/>
+      <c r="L83" s="18"/>
+      <c r="M83" s="18"/>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A84" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="B82" s="22"/>
-      <c r="C82" s="22"/>
-      <c r="D82" s="6"/>
-      <c r="E82" s="5"/>
-      <c r="F82" s="5"/>
-      <c r="G82" s="5"/>
-      <c r="H82" s="5"/>
-      <c r="I82" s="5"/>
-      <c r="J82" s="5"/>
-      <c r="K82" s="5"/>
-      <c r="L82" s="5"/>
-      <c r="M82" s="5"/>
-    </row>
-    <row r="83" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A83" s="6">
+      <c r="B84" s="19"/>
+      <c r="C84" s="19"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="5"/>
+      <c r="G84" s="5"/>
+      <c r="H84" s="5"/>
+      <c r="I84" s="5"/>
+      <c r="J84" s="5"/>
+      <c r="K84" s="5"/>
+      <c r="L84" s="5"/>
+      <c r="M84" s="5"/>
+    </row>
+    <row r="85" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A85" s="6">
         <v>1</v>
       </c>
-      <c r="B83" s="5" t="s">
+      <c r="B85" s="5" t="s">
         <v>83</v>
-      </c>
-      <c r="C83" s="6">
-        <v>1</v>
-      </c>
-      <c r="D83" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E83" s="10">
-        <v>0</v>
-      </c>
-      <c r="F83" s="10">
-        <f t="shared" ref="F83:F85" si="39">E83*30%</f>
-        <v>0</v>
-      </c>
-      <c r="G83" s="10">
-        <f t="shared" ref="G83:G85" si="40">E83*25%</f>
-        <v>0</v>
-      </c>
-      <c r="H83" s="10">
-        <f t="shared" ref="H83:H85" si="41">E83*20%</f>
-        <v>0</v>
-      </c>
-      <c r="I83" s="10">
-        <f t="shared" ref="I83:I85" si="42">E83*5%</f>
-        <v>0</v>
-      </c>
-      <c r="J83" s="10">
-        <f t="shared" ref="J83:J85" si="43">E83*10%</f>
-        <v>0</v>
-      </c>
-      <c r="K83" s="10">
-        <f t="shared" ref="K83:K85" si="44">SUM(E83:J83)</f>
-        <v>0</v>
-      </c>
-      <c r="L83" s="10"/>
-      <c r="M83" s="15">
-        <f t="shared" ref="M83:M98" si="45">L83+K83</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="6">
-        <v>2</v>
-      </c>
-      <c r="B84" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C84" s="6">
-        <v>3</v>
-      </c>
-      <c r="D84" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E84" s="10"/>
-      <c r="F84" s="10">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="G84" s="10">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="H84" s="10">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="I84" s="10">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="J84" s="10">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="K84" s="10">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="L84" s="10"/>
-      <c r="M84" s="15">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" ht="126" x14ac:dyDescent="0.25">
-      <c r="A85" s="6">
-        <v>3</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>102</v>
       </c>
       <c r="C85" s="6">
         <v>1</v>
@@ -7432,642 +7377,666 @@
       <c r="D85" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E85" s="10"/>
+      <c r="E85" s="10">
+        <v>0</v>
+      </c>
       <c r="F85" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" ref="F85:F87" si="39">E85*30%</f>
         <v>0</v>
       </c>
       <c r="G85" s="10">
-        <f t="shared" si="40"/>
+        <f t="shared" ref="G85:G87" si="40">E85*25%</f>
         <v>0</v>
       </c>
       <c r="H85" s="10">
-        <f t="shared" si="41"/>
+        <f t="shared" ref="H85:H87" si="41">E85*20%</f>
         <v>0</v>
       </c>
       <c r="I85" s="10">
-        <f t="shared" si="42"/>
+        <f t="shared" ref="I85:I87" si="42">E85*5%</f>
         <v>0</v>
       </c>
       <c r="J85" s="10">
-        <f t="shared" si="43"/>
+        <f t="shared" ref="J85:J87" si="43">E85*10%</f>
         <v>0</v>
       </c>
       <c r="K85" s="10">
-        <f t="shared" si="44"/>
+        <f t="shared" ref="K85:K87" si="44">SUM(E85:J85)</f>
         <v>0</v>
       </c>
       <c r="L85" s="10"/>
       <c r="M85" s="15">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" ref="M85:M100" si="45">L85+K85</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="6">
-        <v>4</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C86" s="6"/>
-      <c r="D86" s="6"/>
-      <c r="E86" s="5"/>
-      <c r="F86" s="5"/>
-      <c r="G86" s="5"/>
-      <c r="H86" s="5"/>
-      <c r="I86" s="5"/>
-      <c r="J86" s="5"/>
-      <c r="K86" s="5"/>
-      <c r="L86" s="5"/>
+        <v>2</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C86" s="6">
+        <v>3</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E86" s="10"/>
+      <c r="F86" s="10">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="G86" s="10">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="H86" s="10">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="I86" s="10">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="J86" s="10">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="K86" s="10">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="L86" s="10"/>
       <c r="M86" s="15">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="178.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="7" t="s">
-        <v>43</v>
+    <row r="87" spans="1:13" ht="126" x14ac:dyDescent="0.25">
+      <c r="A87" s="6">
+        <v>3</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C87" s="6"/>
-      <c r="D87" s="6"/>
-      <c r="E87" s="5"/>
-      <c r="F87" s="5"/>
-      <c r="G87" s="5"/>
-      <c r="H87" s="5"/>
-      <c r="I87" s="5"/>
-      <c r="J87" s="5"/>
-      <c r="K87" s="5"/>
-      <c r="L87" s="5"/>
+        <v>102</v>
+      </c>
+      <c r="C87" s="6">
+        <v>1</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E87" s="10"/>
+      <c r="F87" s="10">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="G87" s="10">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="H87" s="10">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="I87" s="10">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="J87" s="10">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="K87" s="10">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="L87" s="10"/>
       <c r="M87" s="15">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A88" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B88" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C88" s="6">
-        <v>60</v>
-      </c>
-      <c r="D88" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E88" s="10">
-        <v>579</v>
-      </c>
-      <c r="F88" s="10">
-        <v>232</v>
-      </c>
-      <c r="G88" s="10">
-        <v>174</v>
-      </c>
-      <c r="H88" s="10"/>
-      <c r="I88" s="10">
-        <f t="shared" ref="I88:I93" si="46">E88*5%</f>
-        <v>28.950000000000003</v>
-      </c>
-      <c r="J88" s="10">
-        <v>116</v>
-      </c>
-      <c r="K88" s="10">
-        <f t="shared" ref="K88:K93" si="47">SUM(E88:J88)</f>
-        <v>1129.95</v>
-      </c>
-      <c r="L88" s="10">
-        <v>200</v>
-      </c>
+      <c r="A88" s="6">
+        <v>4</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C88" s="6"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="5"/>
+      <c r="G88" s="5"/>
+      <c r="H88" s="5"/>
+      <c r="I88" s="5"/>
+      <c r="J88" s="5"/>
+      <c r="K88" s="5"/>
+      <c r="L88" s="5"/>
       <c r="M88" s="15">
         <f t="shared" si="45"/>
-        <v>1329.95</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A89" s="6" t="s">
-        <v>45</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" ht="178.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C89" s="6">
-        <v>40</v>
-      </c>
-      <c r="D89" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E89" s="10">
-        <v>368</v>
-      </c>
-      <c r="F89" s="10">
-        <v>147</v>
-      </c>
-      <c r="G89" s="10">
-        <v>110</v>
-      </c>
-      <c r="H89" s="10"/>
-      <c r="I89" s="10">
-        <f t="shared" si="46"/>
-        <v>18.400000000000002</v>
-      </c>
-      <c r="J89" s="10">
-        <v>74</v>
-      </c>
-      <c r="K89" s="10">
-        <f t="shared" si="47"/>
-        <v>717.4</v>
-      </c>
-      <c r="L89" s="10">
-        <v>200</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="C89" s="6"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="5"/>
+      <c r="F89" s="5"/>
+      <c r="G89" s="5"/>
+      <c r="H89" s="5"/>
+      <c r="I89" s="5"/>
+      <c r="J89" s="5"/>
+      <c r="K89" s="5"/>
+      <c r="L89" s="5"/>
       <c r="M89" s="15">
         <f t="shared" si="45"/>
-        <v>917.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C90" s="6">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D90" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E90" s="10">
-        <v>233</v>
+        <v>579</v>
       </c>
       <c r="F90" s="10">
-        <v>93</v>
+        <v>232</v>
       </c>
       <c r="G90" s="10">
-        <v>70</v>
+        <v>174</v>
       </c>
       <c r="H90" s="10"/>
       <c r="I90" s="10">
-        <f t="shared" si="46"/>
-        <v>11.65</v>
+        <f t="shared" ref="I90:I95" si="46">E90*5%</f>
+        <v>28.950000000000003</v>
       </c>
       <c r="J90" s="10">
-        <v>47</v>
+        <v>116</v>
       </c>
       <c r="K90" s="10">
-        <f t="shared" si="47"/>
-        <v>454.65</v>
+        <f t="shared" ref="K90:K95" si="47">SUM(E90:J90)</f>
+        <v>1129.95</v>
       </c>
       <c r="L90" s="10">
         <v>200</v>
       </c>
       <c r="M90" s="15">
         <f t="shared" si="45"/>
-        <v>654.65</v>
+        <v>1329.95</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C91" s="6">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D91" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E91" s="10">
-        <v>152</v>
+        <v>368</v>
       </c>
       <c r="F91" s="10">
-        <v>61</v>
+        <v>147</v>
       </c>
       <c r="G91" s="10">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="H91" s="10"/>
       <c r="I91" s="10">
         <f t="shared" si="46"/>
-        <v>7.6000000000000005</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="J91" s="10">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="K91" s="10">
         <f t="shared" si="47"/>
-        <v>310.60000000000002</v>
+        <v>717.4</v>
       </c>
       <c r="L91" s="10">
         <v>200</v>
       </c>
       <c r="M91" s="15">
         <f t="shared" si="45"/>
-        <v>510.6</v>
+        <v>917.4</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C92" s="6">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D92" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E92" s="10">
+        <v>233</v>
+      </c>
+      <c r="F92" s="10">
         <v>93</v>
       </c>
-      <c r="F92" s="10">
-        <v>37</v>
-      </c>
       <c r="G92" s="10">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="H92" s="10"/>
       <c r="I92" s="10">
         <f t="shared" si="46"/>
-        <v>4.6500000000000004</v>
+        <v>11.65</v>
       </c>
       <c r="J92" s="10">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="K92" s="10">
         <f t="shared" si="47"/>
-        <v>203.65</v>
+        <v>454.65</v>
       </c>
       <c r="L92" s="10">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="M92" s="15">
         <f t="shared" si="45"/>
-        <v>399.65</v>
+        <v>654.65</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C93" s="6">
-        <v>270</v>
+        <v>60</v>
       </c>
       <c r="D93" s="6" t="s">
         <v>18</v>
       </c>
       <c r="E93" s="10">
+        <v>152</v>
+      </c>
+      <c r="F93" s="10">
+        <v>61</v>
+      </c>
+      <c r="G93" s="10">
         <v>60</v>
-      </c>
-      <c r="F93" s="10">
-        <v>24</v>
-      </c>
-      <c r="G93" s="10">
-        <v>40</v>
       </c>
       <c r="H93" s="10"/>
       <c r="I93" s="10">
         <f t="shared" si="46"/>
-        <v>3</v>
+        <v>7.6000000000000005</v>
       </c>
       <c r="J93" s="10">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="K93" s="10">
         <f t="shared" si="47"/>
-        <v>139</v>
+        <v>310.60000000000002</v>
       </c>
       <c r="L93" s="10">
-        <v>125</v>
+        <v>200</v>
       </c>
       <c r="M93" s="15">
         <f t="shared" si="45"/>
-        <v>264</v>
+        <v>510.6</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A94" s="6">
-        <v>5</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C94" s="6"/>
-      <c r="D94" s="6"/>
-      <c r="E94" s="5"/>
-      <c r="F94" s="5"/>
-      <c r="G94" s="5"/>
-      <c r="H94" s="5"/>
-      <c r="I94" s="5"/>
-      <c r="J94" s="5"/>
-      <c r="K94" s="5"/>
-      <c r="L94" s="5"/>
+      <c r="A94" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C94" s="6">
+        <v>40</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E94" s="10">
+        <v>93</v>
+      </c>
+      <c r="F94" s="10">
+        <v>37</v>
+      </c>
+      <c r="G94" s="10">
+        <v>50</v>
+      </c>
+      <c r="H94" s="10"/>
+      <c r="I94" s="10">
+        <f t="shared" si="46"/>
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="J94" s="10">
+        <v>19</v>
+      </c>
+      <c r="K94" s="10">
+        <f t="shared" si="47"/>
+        <v>203.65</v>
+      </c>
+      <c r="L94" s="10">
+        <v>196</v>
+      </c>
       <c r="M94" s="15">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>399.65</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C95" s="6">
+        <v>270</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E95" s="10">
+        <v>60</v>
+      </c>
+      <c r="F95" s="10">
+        <v>24</v>
+      </c>
+      <c r="G95" s="10">
+        <v>40</v>
+      </c>
+      <c r="H95" s="10"/>
+      <c r="I95" s="10">
+        <f t="shared" si="46"/>
+        <v>3</v>
+      </c>
+      <c r="J95" s="10">
         <v>12</v>
       </c>
-      <c r="B95" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C95" s="6">
-        <v>0</v>
-      </c>
-      <c r="D95" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E95" s="10">
-        <v>13250</v>
-      </c>
-      <c r="F95" s="10">
-        <f t="shared" ref="F95:F98" si="48">E95*30%</f>
-        <v>3975</v>
-      </c>
-      <c r="G95" s="10">
-        <v>3975</v>
-      </c>
-      <c r="H95" s="10">
-        <f t="shared" ref="H95:H98" si="49">E95*20%</f>
-        <v>2650</v>
-      </c>
-      <c r="I95" s="10"/>
-      <c r="J95" s="10">
-        <v>2650</v>
-      </c>
       <c r="K95" s="10">
-        <f t="shared" ref="K95:K98" si="50">SUM(E95:J95)</f>
-        <v>26500</v>
+        <f t="shared" si="47"/>
+        <v>139</v>
       </c>
       <c r="L95" s="10">
-        <v>2000</v>
+        <v>125</v>
       </c>
       <c r="M95" s="15">
         <f t="shared" si="45"/>
+        <v>264</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A96" s="6">
+        <v>5</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C96" s="6"/>
+      <c r="D96" s="6"/>
+      <c r="E96" s="5"/>
+      <c r="F96" s="5"/>
+      <c r="G96" s="5"/>
+      <c r="H96" s="5"/>
+      <c r="I96" s="5"/>
+      <c r="J96" s="5"/>
+      <c r="K96" s="5"/>
+      <c r="L96" s="5"/>
+      <c r="M96" s="15">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A97" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C97" s="6">
+        <v>0</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E97" s="10">
+        <v>13250</v>
+      </c>
+      <c r="F97" s="10">
+        <f t="shared" ref="F97:F100" si="48">E97*30%</f>
+        <v>3975</v>
+      </c>
+      <c r="G97" s="10">
+        <v>3975</v>
+      </c>
+      <c r="H97" s="10">
+        <f t="shared" ref="H97:H100" si="49">E97*20%</f>
+        <v>2650</v>
+      </c>
+      <c r="I97" s="10"/>
+      <c r="J97" s="10">
+        <v>2650</v>
+      </c>
+      <c r="K97" s="10">
+        <f t="shared" ref="K97:K100" si="50">SUM(E97:J97)</f>
+        <v>26500</v>
+      </c>
+      <c r="L97" s="10">
+        <v>2000</v>
+      </c>
+      <c r="M97" s="15">
+        <f t="shared" si="45"/>
         <v>28500</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A96" s="6" t="s">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A98" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B96" s="5" t="s">
+      <c r="B98" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C96" s="6">
+      <c r="C98" s="6">
         <v>6</v>
       </c>
-      <c r="D96" s="6" t="s">
+      <c r="D98" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E96" s="10">
+      <c r="E98" s="10">
         <v>6400</v>
       </c>
-      <c r="F96" s="10">
+      <c r="F98" s="10">
         <f t="shared" si="48"/>
         <v>1920</v>
       </c>
-      <c r="G96" s="10">
+      <c r="G98" s="10">
         <v>1920</v>
       </c>
-      <c r="H96" s="10">
+      <c r="H98" s="10">
         <f t="shared" si="49"/>
         <v>1280</v>
       </c>
-      <c r="I96" s="10"/>
-      <c r="J96" s="10">
+      <c r="I98" s="10"/>
+      <c r="J98" s="10">
         <v>1280</v>
       </c>
-      <c r="K96" s="10">
+      <c r="K98" s="10">
         <f t="shared" si="50"/>
         <v>12800</v>
       </c>
-      <c r="L96" s="10">
+      <c r="L98" s="10">
         <v>1200</v>
       </c>
-      <c r="M96" s="15">
+      <c r="M98" s="15">
         <f t="shared" si="45"/>
         <v>14000</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A97" s="6">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A99" s="6">
         <v>6</v>
       </c>
-      <c r="B97" s="5" t="s">
+      <c r="B99" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C97" s="6">
-        <v>0</v>
-      </c>
-      <c r="D97" s="6" t="s">
+      <c r="C99" s="6">
+        <v>0</v>
+      </c>
+      <c r="D99" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E97" s="10">
+      <c r="E99" s="10">
         <v>12880</v>
       </c>
-      <c r="F97" s="10">
+      <c r="F99" s="10">
         <f t="shared" si="48"/>
         <v>3864</v>
       </c>
-      <c r="G97" s="10">
+      <c r="G99" s="10">
         <v>3864</v>
       </c>
-      <c r="H97" s="10">
+      <c r="H99" s="10">
         <f t="shared" si="49"/>
         <v>2576</v>
       </c>
-      <c r="I97" s="10"/>
-      <c r="J97" s="10">
+      <c r="I99" s="10"/>
+      <c r="J99" s="10">
         <v>2576</v>
       </c>
-      <c r="K97" s="10">
+      <c r="K99" s="10">
         <f t="shared" si="50"/>
         <v>25760</v>
       </c>
-      <c r="L97" s="10">
+      <c r="L99" s="10">
         <v>2000</v>
       </c>
-      <c r="M97" s="15">
+      <c r="M99" s="15">
         <f t="shared" si="45"/>
         <v>27760</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A98" s="6">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A100" s="6">
         <v>7</v>
       </c>
-      <c r="B98" s="5" t="s">
+      <c r="B100" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C98" s="6">
-        <v>0</v>
-      </c>
-      <c r="D98" s="6" t="s">
+      <c r="C100" s="6">
+        <v>0</v>
+      </c>
+      <c r="D100" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E98" s="10">
+      <c r="E100" s="10">
         <v>12250</v>
       </c>
-      <c r="F98" s="10">
+      <c r="F100" s="10">
         <f t="shared" si="48"/>
         <v>3675</v>
       </c>
-      <c r="G98" s="10">
+      <c r="G100" s="10">
         <v>3675</v>
       </c>
-      <c r="H98" s="10">
+      <c r="H100" s="10">
         <f t="shared" si="49"/>
         <v>2450</v>
       </c>
-      <c r="I98" s="10"/>
-      <c r="J98" s="10">
+      <c r="I100" s="10"/>
+      <c r="J100" s="10">
         <v>2450</v>
       </c>
-      <c r="K98" s="10">
+      <c r="K100" s="10">
         <f t="shared" si="50"/>
         <v>24500</v>
       </c>
-      <c r="L98" s="10">
+      <c r="L100" s="10">
         <v>2000</v>
       </c>
-      <c r="M98" s="15">
+      <c r="M100" s="15">
         <f t="shared" si="45"/>
         <v>26500</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A99" s="21" t="s">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A101" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="B99" s="21"/>
-      <c r="C99" s="21"/>
-      <c r="D99" s="21"/>
-      <c r="E99" s="17"/>
-      <c r="F99" s="17"/>
-      <c r="G99" s="17"/>
-      <c r="H99" s="17"/>
-      <c r="I99" s="17"/>
-      <c r="J99" s="17"/>
-      <c r="K99" s="17"/>
-      <c r="L99" s="17"/>
-      <c r="M99" s="17"/>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A100" s="22" t="s">
+      <c r="B101" s="24"/>
+      <c r="C101" s="24"/>
+      <c r="D101" s="24"/>
+      <c r="E101" s="21"/>
+      <c r="F101" s="21"/>
+      <c r="G101" s="21"/>
+      <c r="H101" s="21"/>
+      <c r="I101" s="21"/>
+      <c r="J101" s="21"/>
+      <c r="K101" s="21"/>
+      <c r="L101" s="21"/>
+      <c r="M101" s="21"/>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A102" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="B100" s="22"/>
-      <c r="C100" s="22"/>
-      <c r="D100" s="6"/>
-      <c r="E100" s="5"/>
-      <c r="F100" s="5"/>
-      <c r="G100" s="5"/>
-      <c r="H100" s="5"/>
-      <c r="I100" s="5"/>
-      <c r="J100" s="5"/>
-      <c r="K100" s="5"/>
-      <c r="L100" s="5"/>
-      <c r="M100" s="5"/>
-    </row>
-    <row r="101" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A101" s="6">
+      <c r="B102" s="19"/>
+      <c r="C102" s="19"/>
+      <c r="D102" s="6"/>
+      <c r="E102" s="5"/>
+      <c r="F102" s="5"/>
+      <c r="G102" s="5"/>
+      <c r="H102" s="5"/>
+      <c r="I102" s="5"/>
+      <c r="J102" s="5"/>
+      <c r="K102" s="5"/>
+      <c r="L102" s="5"/>
+      <c r="M102" s="5"/>
+    </row>
+    <row r="103" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A103" s="6">
         <v>1</v>
       </c>
-      <c r="B101" s="5" t="s">
+      <c r="B103" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C101" s="6">
+      <c r="C103" s="6">
         <v>1</v>
       </c>
-      <c r="D101" s="6" t="s">
+      <c r="D103" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="E101" s="10">
+      <c r="E103" s="10">
         <v>132000</v>
-      </c>
-      <c r="F101" s="10"/>
-      <c r="G101" s="10"/>
-      <c r="H101" s="10"/>
-      <c r="I101" s="10"/>
-      <c r="J101" s="10"/>
-      <c r="K101" s="10">
-        <f t="shared" ref="K101:K105" si="51">SUM(E101:J101)</f>
-        <v>132000</v>
-      </c>
-      <c r="L101" s="10">
-        <v>60000</v>
-      </c>
-      <c r="M101" s="15">
-        <f t="shared" ref="M101:M105" si="52">L101+K101</f>
-        <v>192000</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="6">
-        <v>2</v>
-      </c>
-      <c r="B102" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C102" s="6">
-        <v>1</v>
-      </c>
-      <c r="D102" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E102" s="10">
-        <v>300000</v>
-      </c>
-      <c r="F102" s="10"/>
-      <c r="G102" s="10"/>
-      <c r="H102" s="10"/>
-      <c r="I102" s="10"/>
-      <c r="J102" s="10"/>
-      <c r="K102" s="10">
-        <f t="shared" si="51"/>
-        <v>300000</v>
-      </c>
-      <c r="L102" s="10">
-        <v>50000</v>
-      </c>
-      <c r="M102" s="15">
-        <f t="shared" si="52"/>
-        <v>350000</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13" ht="63" x14ac:dyDescent="0.25">
-      <c r="A103" s="6">
-        <v>3</v>
-      </c>
-      <c r="B103" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C103" s="6">
-        <v>4</v>
-      </c>
-      <c r="D103" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E103" s="10">
-        <v>10000</v>
       </c>
       <c r="F103" s="10"/>
       <c r="G103" s="10"/>
@@ -8075,23 +8044,23 @@
       <c r="I103" s="10"/>
       <c r="J103" s="10"/>
       <c r="K103" s="10">
-        <f t="shared" si="51"/>
-        <v>10000</v>
+        <f t="shared" ref="K103:K107" si="51">SUM(E103:J103)</f>
+        <v>132000</v>
       </c>
       <c r="L103" s="10">
-        <v>15000</v>
+        <v>60000</v>
       </c>
       <c r="M103" s="15">
-        <f t="shared" si="52"/>
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
+        <f t="shared" ref="M103:M107" si="52">L103+K103</f>
+        <v>192000</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C104" s="6">
         <v>1</v>
@@ -8100,7 +8069,7 @@
         <v>89</v>
       </c>
       <c r="E104" s="10">
-        <v>150000</v>
+        <v>300000</v>
       </c>
       <c r="F104" s="10"/>
       <c r="G104" s="10"/>
@@ -8109,69 +8078,129 @@
       <c r="J104" s="10"/>
       <c r="K104" s="10">
         <f t="shared" si="51"/>
-        <v>150000</v>
+        <v>300000</v>
       </c>
       <c r="L104" s="10">
-        <v>150000</v>
+        <v>50000</v>
       </c>
       <c r="M104" s="15">
         <f t="shared" si="52"/>
-        <v>300000</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+        <v>350000</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" ht="63" x14ac:dyDescent="0.25">
       <c r="A105" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C105" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>89</v>
+        <v>8</v>
       </c>
       <c r="E105" s="10">
-        <v>0</v>
-      </c>
-      <c r="F105" s="10">
-        <f t="shared" ref="F101:F105" si="53">E105*30%</f>
-        <v>0</v>
-      </c>
-      <c r="G105" s="10">
-        <f t="shared" ref="G101:G105" si="54">E105*25%</f>
-        <v>0</v>
-      </c>
-      <c r="H105" s="10">
-        <f t="shared" ref="H101:H105" si="55">E105*20%</f>
-        <v>0</v>
-      </c>
-      <c r="I105" s="10">
-        <f t="shared" ref="I101:I105" si="56">E105*5%</f>
-        <v>0</v>
-      </c>
-      <c r="J105" s="10">
-        <f t="shared" ref="J101:J105" si="57">E105*10%</f>
-        <v>0</v>
-      </c>
+        <v>10000</v>
+      </c>
+      <c r="F105" s="10"/>
+      <c r="G105" s="10"/>
+      <c r="H105" s="10"/>
+      <c r="I105" s="10"/>
+      <c r="J105" s="10"/>
       <c r="K105" s="10">
         <f t="shared" si="51"/>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L105" s="10">
-        <v>300000</v>
+        <v>15000</v>
       </c>
       <c r="M105" s="15">
         <f t="shared" si="52"/>
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A106" s="6">
+        <v>4</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C106" s="6">
+        <v>1</v>
+      </c>
+      <c r="D106" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E106" s="10">
+        <v>150000</v>
+      </c>
+      <c r="F106" s="10"/>
+      <c r="G106" s="10"/>
+      <c r="H106" s="10"/>
+      <c r="I106" s="10"/>
+      <c r="J106" s="10"/>
+      <c r="K106" s="10">
+        <f t="shared" si="51"/>
+        <v>150000</v>
+      </c>
+      <c r="L106" s="10">
+        <v>150000</v>
+      </c>
+      <c r="M106" s="15">
+        <f t="shared" si="52"/>
         <v>300000</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A106" s="8"/>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A107" s="8"/>
+    <row r="107" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A107" s="6">
+        <v>5</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C107" s="6">
+        <v>1</v>
+      </c>
+      <c r="D107" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E107" s="10">
+        <v>0</v>
+      </c>
+      <c r="F107" s="10">
+        <f t="shared" ref="F107" si="53">E107*30%</f>
+        <v>0</v>
+      </c>
+      <c r="G107" s="10">
+        <f t="shared" ref="G107" si="54">E107*25%</f>
+        <v>0</v>
+      </c>
+      <c r="H107" s="10">
+        <f t="shared" ref="H107" si="55">E107*20%</f>
+        <v>0</v>
+      </c>
+      <c r="I107" s="10">
+        <f t="shared" ref="I107" si="56">E107*5%</f>
+        <v>0</v>
+      </c>
+      <c r="J107" s="10">
+        <f t="shared" ref="J107" si="57">E107*10%</f>
+        <v>0</v>
+      </c>
+      <c r="K107" s="10">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="L107" s="10">
+        <v>300000</v>
+      </c>
+      <c r="M107" s="15">
+        <f t="shared" si="52"/>
+        <v>300000</v>
+      </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="8"/>
@@ -8179,17 +8208,24 @@
     <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" s="8"/>
     </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A110" s="8"/>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A111" s="8"/>
+    </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A82:C82"/>
-    <mergeCell ref="A99:D99"/>
-    <mergeCell ref="E99:M99"/>
-    <mergeCell ref="A100:C100"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A19:M19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A81:M81"/>
+  <mergeCells count="10">
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="A84:C84"/>
+    <mergeCell ref="A101:D101"/>
+    <mergeCell ref="E101:M101"/>
+    <mergeCell ref="A102:C102"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A21:M21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A83:M83"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.55118110236220474" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
